--- a/mySystem/mySystem/xls/Extrusion/吹膜标签.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/吹膜标签.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\downloads\mitcpro\mySystem\mySystem\xls\Extrusion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F036CCD6-C1F0-A940-B0DA-0D4C84432F6F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10455" yWindow="465" windowWidth="28035" windowHeight="17535" tabRatio="790" activeTab="3"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" tabRatio="790" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="吹膜半成品标签" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'内标签-中文不照射'!$A$1:$D$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'内标签-中文照射'!$A$1:$D$9</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
   <si>
     <t>吹膜工序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -720,27 +721,45 @@
   <si>
     <t>日期班次</t>
   </si>
+  <si>
+    <t>质量状态：待验 □   合格 □  不合格 □</t>
+  </si>
+  <si>
+    <t>操作人：</t>
+  </si>
+  <si>
+    <t>备注：</t>
+  </si>
+  <si>
+    <t>质量状态</t>
+  </si>
+  <si>
+    <t>操作人</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="000"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="000"/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -763,7 +782,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -786,7 +805,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -910,7 +929,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -919,7 +938,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1032,36 +1051,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="hair">
         <color auto="1"/>
       </right>
@@ -1343,6 +1332,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1366,7 +1381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1391,16 +1406,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1419,57 +1434,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1478,22 +1493,22 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1502,175 +1517,181 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 2 2" xfId="3"/>
-    <cellStyle name="常规 3" xfId="2"/>
-    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1947,29 +1968,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48"/>
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -2007,21 +2028,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" ht="51" customHeight="1">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A7" s="49" t="s">
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A6" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="101"/>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A7" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="101"/>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A8" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="101"/>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" ht="51" customHeight="1">
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A10" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B10" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2031,52 +2073,52 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="37" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
     </row>
-    <row r="4" spans="1:7" ht="18.75">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="37" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
     </row>
-    <row r="5" spans="1:7" ht="18.75">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="38" t="s">
         <v>52</v>
       </c>
@@ -2089,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7" s="42" t="s">
         <v>53</v>
       </c>
@@ -2099,7 +2141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8" s="43" t="s">
         <v>54</v>
       </c>
@@ -2109,7 +2151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.5">
+    <row r="9" spans="1:7" ht="32">
       <c r="A9" s="43" t="s">
         <v>56</v>
       </c>
@@ -2119,7 +2161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5">
+    <row r="10" spans="1:7" ht="32">
       <c r="A10" s="43" t="s">
         <v>55</v>
       </c>
@@ -2130,7 +2172,7 @@
       </c>
       <c r="E10" s="46"/>
     </row>
-    <row r="11" spans="1:7" ht="31.5">
+    <row r="11" spans="1:7" ht="32">
       <c r="A11" s="43" t="s">
         <v>57</v>
       </c>
@@ -2141,7 +2183,7 @@
       </c>
       <c r="E11" s="46"/>
     </row>
-    <row r="12" spans="1:7" ht="37.5">
+    <row r="12" spans="1:7" ht="34">
       <c r="A12" s="44" t="s">
         <v>58</v>
       </c>
@@ -2151,7 +2193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.5">
+    <row r="13" spans="1:7" ht="32">
       <c r="A13" s="44" t="s">
         <v>59</v>
       </c>
@@ -2161,12 +2203,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
     </row>
-    <row r="15" spans="1:7" ht="18.75">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="39" t="s">
         <v>60</v>
       </c>
@@ -2196,10 +2238,25 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75">
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2208,7 +2265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -2218,385 +2275,385 @@
       <selection activeCell="B7" activeCellId="1" sqref="B6 B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="7" customWidth="1"/>
-    <col min="5" max="256" width="8.875" style="7"/>
-    <col min="257" max="257" width="13.125" style="7" customWidth="1"/>
-    <col min="258" max="258" width="10.125" style="7" customWidth="1"/>
-    <col min="259" max="259" width="14.125" style="7" customWidth="1"/>
-    <col min="260" max="260" width="9.875" style="7" customWidth="1"/>
-    <col min="261" max="512" width="8.875" style="7"/>
-    <col min="513" max="513" width="13.125" style="7" customWidth="1"/>
-    <col min="514" max="514" width="10.125" style="7" customWidth="1"/>
-    <col min="515" max="515" width="14.125" style="7" customWidth="1"/>
-    <col min="516" max="516" width="9.875" style="7" customWidth="1"/>
-    <col min="517" max="768" width="8.875" style="7"/>
-    <col min="769" max="769" width="13.125" style="7" customWidth="1"/>
-    <col min="770" max="770" width="10.125" style="7" customWidth="1"/>
-    <col min="771" max="771" width="14.125" style="7" customWidth="1"/>
-    <col min="772" max="772" width="9.875" style="7" customWidth="1"/>
-    <col min="773" max="1024" width="8.875" style="7"/>
-    <col min="1025" max="1025" width="13.125" style="7" customWidth="1"/>
-    <col min="1026" max="1026" width="10.125" style="7" customWidth="1"/>
-    <col min="1027" max="1027" width="14.125" style="7" customWidth="1"/>
-    <col min="1028" max="1028" width="9.875" style="7" customWidth="1"/>
-    <col min="1029" max="1280" width="8.875" style="7"/>
-    <col min="1281" max="1281" width="13.125" style="7" customWidth="1"/>
-    <col min="1282" max="1282" width="10.125" style="7" customWidth="1"/>
-    <col min="1283" max="1283" width="14.125" style="7" customWidth="1"/>
-    <col min="1284" max="1284" width="9.875" style="7" customWidth="1"/>
-    <col min="1285" max="1536" width="8.875" style="7"/>
-    <col min="1537" max="1537" width="13.125" style="7" customWidth="1"/>
-    <col min="1538" max="1538" width="10.125" style="7" customWidth="1"/>
-    <col min="1539" max="1539" width="14.125" style="7" customWidth="1"/>
-    <col min="1540" max="1540" width="9.875" style="7" customWidth="1"/>
-    <col min="1541" max="1792" width="8.875" style="7"/>
-    <col min="1793" max="1793" width="13.125" style="7" customWidth="1"/>
-    <col min="1794" max="1794" width="10.125" style="7" customWidth="1"/>
-    <col min="1795" max="1795" width="14.125" style="7" customWidth="1"/>
-    <col min="1796" max="1796" width="9.875" style="7" customWidth="1"/>
-    <col min="1797" max="2048" width="8.875" style="7"/>
-    <col min="2049" max="2049" width="13.125" style="7" customWidth="1"/>
-    <col min="2050" max="2050" width="10.125" style="7" customWidth="1"/>
-    <col min="2051" max="2051" width="14.125" style="7" customWidth="1"/>
-    <col min="2052" max="2052" width="9.875" style="7" customWidth="1"/>
-    <col min="2053" max="2304" width="8.875" style="7"/>
-    <col min="2305" max="2305" width="13.125" style="7" customWidth="1"/>
-    <col min="2306" max="2306" width="10.125" style="7" customWidth="1"/>
-    <col min="2307" max="2307" width="14.125" style="7" customWidth="1"/>
-    <col min="2308" max="2308" width="9.875" style="7" customWidth="1"/>
-    <col min="2309" max="2560" width="8.875" style="7"/>
-    <col min="2561" max="2561" width="13.125" style="7" customWidth="1"/>
-    <col min="2562" max="2562" width="10.125" style="7" customWidth="1"/>
-    <col min="2563" max="2563" width="14.125" style="7" customWidth="1"/>
-    <col min="2564" max="2564" width="9.875" style="7" customWidth="1"/>
-    <col min="2565" max="2816" width="8.875" style="7"/>
-    <col min="2817" max="2817" width="13.125" style="7" customWidth="1"/>
-    <col min="2818" max="2818" width="10.125" style="7" customWidth="1"/>
-    <col min="2819" max="2819" width="14.125" style="7" customWidth="1"/>
-    <col min="2820" max="2820" width="9.875" style="7" customWidth="1"/>
-    <col min="2821" max="3072" width="8.875" style="7"/>
-    <col min="3073" max="3073" width="13.125" style="7" customWidth="1"/>
-    <col min="3074" max="3074" width="10.125" style="7" customWidth="1"/>
-    <col min="3075" max="3075" width="14.125" style="7" customWidth="1"/>
-    <col min="3076" max="3076" width="9.875" style="7" customWidth="1"/>
-    <col min="3077" max="3328" width="8.875" style="7"/>
-    <col min="3329" max="3329" width="13.125" style="7" customWidth="1"/>
-    <col min="3330" max="3330" width="10.125" style="7" customWidth="1"/>
-    <col min="3331" max="3331" width="14.125" style="7" customWidth="1"/>
-    <col min="3332" max="3332" width="9.875" style="7" customWidth="1"/>
-    <col min="3333" max="3584" width="8.875" style="7"/>
-    <col min="3585" max="3585" width="13.125" style="7" customWidth="1"/>
-    <col min="3586" max="3586" width="10.125" style="7" customWidth="1"/>
-    <col min="3587" max="3587" width="14.125" style="7" customWidth="1"/>
-    <col min="3588" max="3588" width="9.875" style="7" customWidth="1"/>
-    <col min="3589" max="3840" width="8.875" style="7"/>
-    <col min="3841" max="3841" width="13.125" style="7" customWidth="1"/>
-    <col min="3842" max="3842" width="10.125" style="7" customWidth="1"/>
-    <col min="3843" max="3843" width="14.125" style="7" customWidth="1"/>
-    <col min="3844" max="3844" width="9.875" style="7" customWidth="1"/>
-    <col min="3845" max="4096" width="8.875" style="7"/>
-    <col min="4097" max="4097" width="13.125" style="7" customWidth="1"/>
-    <col min="4098" max="4098" width="10.125" style="7" customWidth="1"/>
-    <col min="4099" max="4099" width="14.125" style="7" customWidth="1"/>
-    <col min="4100" max="4100" width="9.875" style="7" customWidth="1"/>
-    <col min="4101" max="4352" width="8.875" style="7"/>
-    <col min="4353" max="4353" width="13.125" style="7" customWidth="1"/>
-    <col min="4354" max="4354" width="10.125" style="7" customWidth="1"/>
-    <col min="4355" max="4355" width="14.125" style="7" customWidth="1"/>
-    <col min="4356" max="4356" width="9.875" style="7" customWidth="1"/>
-    <col min="4357" max="4608" width="8.875" style="7"/>
-    <col min="4609" max="4609" width="13.125" style="7" customWidth="1"/>
-    <col min="4610" max="4610" width="10.125" style="7" customWidth="1"/>
-    <col min="4611" max="4611" width="14.125" style="7" customWidth="1"/>
-    <col min="4612" max="4612" width="9.875" style="7" customWidth="1"/>
-    <col min="4613" max="4864" width="8.875" style="7"/>
-    <col min="4865" max="4865" width="13.125" style="7" customWidth="1"/>
-    <col min="4866" max="4866" width="10.125" style="7" customWidth="1"/>
-    <col min="4867" max="4867" width="14.125" style="7" customWidth="1"/>
-    <col min="4868" max="4868" width="9.875" style="7" customWidth="1"/>
-    <col min="4869" max="5120" width="8.875" style="7"/>
-    <col min="5121" max="5121" width="13.125" style="7" customWidth="1"/>
-    <col min="5122" max="5122" width="10.125" style="7" customWidth="1"/>
-    <col min="5123" max="5123" width="14.125" style="7" customWidth="1"/>
-    <col min="5124" max="5124" width="9.875" style="7" customWidth="1"/>
-    <col min="5125" max="5376" width="8.875" style="7"/>
-    <col min="5377" max="5377" width="13.125" style="7" customWidth="1"/>
-    <col min="5378" max="5378" width="10.125" style="7" customWidth="1"/>
-    <col min="5379" max="5379" width="14.125" style="7" customWidth="1"/>
-    <col min="5380" max="5380" width="9.875" style="7" customWidth="1"/>
-    <col min="5381" max="5632" width="8.875" style="7"/>
-    <col min="5633" max="5633" width="13.125" style="7" customWidth="1"/>
-    <col min="5634" max="5634" width="10.125" style="7" customWidth="1"/>
-    <col min="5635" max="5635" width="14.125" style="7" customWidth="1"/>
-    <col min="5636" max="5636" width="9.875" style="7" customWidth="1"/>
-    <col min="5637" max="5888" width="8.875" style="7"/>
-    <col min="5889" max="5889" width="13.125" style="7" customWidth="1"/>
-    <col min="5890" max="5890" width="10.125" style="7" customWidth="1"/>
-    <col min="5891" max="5891" width="14.125" style="7" customWidth="1"/>
-    <col min="5892" max="5892" width="9.875" style="7" customWidth="1"/>
-    <col min="5893" max="6144" width="8.875" style="7"/>
-    <col min="6145" max="6145" width="13.125" style="7" customWidth="1"/>
-    <col min="6146" max="6146" width="10.125" style="7" customWidth="1"/>
-    <col min="6147" max="6147" width="14.125" style="7" customWidth="1"/>
-    <col min="6148" max="6148" width="9.875" style="7" customWidth="1"/>
-    <col min="6149" max="6400" width="8.875" style="7"/>
-    <col min="6401" max="6401" width="13.125" style="7" customWidth="1"/>
-    <col min="6402" max="6402" width="10.125" style="7" customWidth="1"/>
-    <col min="6403" max="6403" width="14.125" style="7" customWidth="1"/>
-    <col min="6404" max="6404" width="9.875" style="7" customWidth="1"/>
-    <col min="6405" max="6656" width="8.875" style="7"/>
-    <col min="6657" max="6657" width="13.125" style="7" customWidth="1"/>
-    <col min="6658" max="6658" width="10.125" style="7" customWidth="1"/>
-    <col min="6659" max="6659" width="14.125" style="7" customWidth="1"/>
-    <col min="6660" max="6660" width="9.875" style="7" customWidth="1"/>
-    <col min="6661" max="6912" width="8.875" style="7"/>
-    <col min="6913" max="6913" width="13.125" style="7" customWidth="1"/>
-    <col min="6914" max="6914" width="10.125" style="7" customWidth="1"/>
-    <col min="6915" max="6915" width="14.125" style="7" customWidth="1"/>
-    <col min="6916" max="6916" width="9.875" style="7" customWidth="1"/>
-    <col min="6917" max="7168" width="8.875" style="7"/>
-    <col min="7169" max="7169" width="13.125" style="7" customWidth="1"/>
-    <col min="7170" max="7170" width="10.125" style="7" customWidth="1"/>
-    <col min="7171" max="7171" width="14.125" style="7" customWidth="1"/>
-    <col min="7172" max="7172" width="9.875" style="7" customWidth="1"/>
-    <col min="7173" max="7424" width="8.875" style="7"/>
-    <col min="7425" max="7425" width="13.125" style="7" customWidth="1"/>
-    <col min="7426" max="7426" width="10.125" style="7" customWidth="1"/>
-    <col min="7427" max="7427" width="14.125" style="7" customWidth="1"/>
-    <col min="7428" max="7428" width="9.875" style="7" customWidth="1"/>
-    <col min="7429" max="7680" width="8.875" style="7"/>
-    <col min="7681" max="7681" width="13.125" style="7" customWidth="1"/>
-    <col min="7682" max="7682" width="10.125" style="7" customWidth="1"/>
-    <col min="7683" max="7683" width="14.125" style="7" customWidth="1"/>
-    <col min="7684" max="7684" width="9.875" style="7" customWidth="1"/>
-    <col min="7685" max="7936" width="8.875" style="7"/>
-    <col min="7937" max="7937" width="13.125" style="7" customWidth="1"/>
-    <col min="7938" max="7938" width="10.125" style="7" customWidth="1"/>
-    <col min="7939" max="7939" width="14.125" style="7" customWidth="1"/>
-    <col min="7940" max="7940" width="9.875" style="7" customWidth="1"/>
-    <col min="7941" max="8192" width="8.875" style="7"/>
-    <col min="8193" max="8193" width="13.125" style="7" customWidth="1"/>
-    <col min="8194" max="8194" width="10.125" style="7" customWidth="1"/>
-    <col min="8195" max="8195" width="14.125" style="7" customWidth="1"/>
-    <col min="8196" max="8196" width="9.875" style="7" customWidth="1"/>
-    <col min="8197" max="8448" width="8.875" style="7"/>
-    <col min="8449" max="8449" width="13.125" style="7" customWidth="1"/>
-    <col min="8450" max="8450" width="10.125" style="7" customWidth="1"/>
-    <col min="8451" max="8451" width="14.125" style="7" customWidth="1"/>
-    <col min="8452" max="8452" width="9.875" style="7" customWidth="1"/>
-    <col min="8453" max="8704" width="8.875" style="7"/>
-    <col min="8705" max="8705" width="13.125" style="7" customWidth="1"/>
-    <col min="8706" max="8706" width="10.125" style="7" customWidth="1"/>
-    <col min="8707" max="8707" width="14.125" style="7" customWidth="1"/>
-    <col min="8708" max="8708" width="9.875" style="7" customWidth="1"/>
-    <col min="8709" max="8960" width="8.875" style="7"/>
-    <col min="8961" max="8961" width="13.125" style="7" customWidth="1"/>
-    <col min="8962" max="8962" width="10.125" style="7" customWidth="1"/>
-    <col min="8963" max="8963" width="14.125" style="7" customWidth="1"/>
-    <col min="8964" max="8964" width="9.875" style="7" customWidth="1"/>
-    <col min="8965" max="9216" width="8.875" style="7"/>
-    <col min="9217" max="9217" width="13.125" style="7" customWidth="1"/>
-    <col min="9218" max="9218" width="10.125" style="7" customWidth="1"/>
-    <col min="9219" max="9219" width="14.125" style="7" customWidth="1"/>
-    <col min="9220" max="9220" width="9.875" style="7" customWidth="1"/>
-    <col min="9221" max="9472" width="8.875" style="7"/>
-    <col min="9473" max="9473" width="13.125" style="7" customWidth="1"/>
-    <col min="9474" max="9474" width="10.125" style="7" customWidth="1"/>
-    <col min="9475" max="9475" width="14.125" style="7" customWidth="1"/>
-    <col min="9476" max="9476" width="9.875" style="7" customWidth="1"/>
-    <col min="9477" max="9728" width="8.875" style="7"/>
-    <col min="9729" max="9729" width="13.125" style="7" customWidth="1"/>
-    <col min="9730" max="9730" width="10.125" style="7" customWidth="1"/>
-    <col min="9731" max="9731" width="14.125" style="7" customWidth="1"/>
-    <col min="9732" max="9732" width="9.875" style="7" customWidth="1"/>
-    <col min="9733" max="9984" width="8.875" style="7"/>
-    <col min="9985" max="9985" width="13.125" style="7" customWidth="1"/>
-    <col min="9986" max="9986" width="10.125" style="7" customWidth="1"/>
-    <col min="9987" max="9987" width="14.125" style="7" customWidth="1"/>
-    <col min="9988" max="9988" width="9.875" style="7" customWidth="1"/>
-    <col min="9989" max="10240" width="8.875" style="7"/>
-    <col min="10241" max="10241" width="13.125" style="7" customWidth="1"/>
-    <col min="10242" max="10242" width="10.125" style="7" customWidth="1"/>
-    <col min="10243" max="10243" width="14.125" style="7" customWidth="1"/>
-    <col min="10244" max="10244" width="9.875" style="7" customWidth="1"/>
-    <col min="10245" max="10496" width="8.875" style="7"/>
-    <col min="10497" max="10497" width="13.125" style="7" customWidth="1"/>
-    <col min="10498" max="10498" width="10.125" style="7" customWidth="1"/>
-    <col min="10499" max="10499" width="14.125" style="7" customWidth="1"/>
-    <col min="10500" max="10500" width="9.875" style="7" customWidth="1"/>
-    <col min="10501" max="10752" width="8.875" style="7"/>
-    <col min="10753" max="10753" width="13.125" style="7" customWidth="1"/>
-    <col min="10754" max="10754" width="10.125" style="7" customWidth="1"/>
-    <col min="10755" max="10755" width="14.125" style="7" customWidth="1"/>
-    <col min="10756" max="10756" width="9.875" style="7" customWidth="1"/>
-    <col min="10757" max="11008" width="8.875" style="7"/>
-    <col min="11009" max="11009" width="13.125" style="7" customWidth="1"/>
-    <col min="11010" max="11010" width="10.125" style="7" customWidth="1"/>
-    <col min="11011" max="11011" width="14.125" style="7" customWidth="1"/>
-    <col min="11012" max="11012" width="9.875" style="7" customWidth="1"/>
-    <col min="11013" max="11264" width="8.875" style="7"/>
-    <col min="11265" max="11265" width="13.125" style="7" customWidth="1"/>
-    <col min="11266" max="11266" width="10.125" style="7" customWidth="1"/>
-    <col min="11267" max="11267" width="14.125" style="7" customWidth="1"/>
-    <col min="11268" max="11268" width="9.875" style="7" customWidth="1"/>
-    <col min="11269" max="11520" width="8.875" style="7"/>
-    <col min="11521" max="11521" width="13.125" style="7" customWidth="1"/>
-    <col min="11522" max="11522" width="10.125" style="7" customWidth="1"/>
-    <col min="11523" max="11523" width="14.125" style="7" customWidth="1"/>
-    <col min="11524" max="11524" width="9.875" style="7" customWidth="1"/>
-    <col min="11525" max="11776" width="8.875" style="7"/>
-    <col min="11777" max="11777" width="13.125" style="7" customWidth="1"/>
-    <col min="11778" max="11778" width="10.125" style="7" customWidth="1"/>
-    <col min="11779" max="11779" width="14.125" style="7" customWidth="1"/>
-    <col min="11780" max="11780" width="9.875" style="7" customWidth="1"/>
-    <col min="11781" max="12032" width="8.875" style="7"/>
-    <col min="12033" max="12033" width="13.125" style="7" customWidth="1"/>
-    <col min="12034" max="12034" width="10.125" style="7" customWidth="1"/>
-    <col min="12035" max="12035" width="14.125" style="7" customWidth="1"/>
-    <col min="12036" max="12036" width="9.875" style="7" customWidth="1"/>
-    <col min="12037" max="12288" width="8.875" style="7"/>
-    <col min="12289" max="12289" width="13.125" style="7" customWidth="1"/>
-    <col min="12290" max="12290" width="10.125" style="7" customWidth="1"/>
-    <col min="12291" max="12291" width="14.125" style="7" customWidth="1"/>
-    <col min="12292" max="12292" width="9.875" style="7" customWidth="1"/>
-    <col min="12293" max="12544" width="8.875" style="7"/>
-    <col min="12545" max="12545" width="13.125" style="7" customWidth="1"/>
-    <col min="12546" max="12546" width="10.125" style="7" customWidth="1"/>
-    <col min="12547" max="12547" width="14.125" style="7" customWidth="1"/>
-    <col min="12548" max="12548" width="9.875" style="7" customWidth="1"/>
-    <col min="12549" max="12800" width="8.875" style="7"/>
-    <col min="12801" max="12801" width="13.125" style="7" customWidth="1"/>
-    <col min="12802" max="12802" width="10.125" style="7" customWidth="1"/>
-    <col min="12803" max="12803" width="14.125" style="7" customWidth="1"/>
-    <col min="12804" max="12804" width="9.875" style="7" customWidth="1"/>
-    <col min="12805" max="13056" width="8.875" style="7"/>
-    <col min="13057" max="13057" width="13.125" style="7" customWidth="1"/>
-    <col min="13058" max="13058" width="10.125" style="7" customWidth="1"/>
-    <col min="13059" max="13059" width="14.125" style="7" customWidth="1"/>
-    <col min="13060" max="13060" width="9.875" style="7" customWidth="1"/>
-    <col min="13061" max="13312" width="8.875" style="7"/>
-    <col min="13313" max="13313" width="13.125" style="7" customWidth="1"/>
-    <col min="13314" max="13314" width="10.125" style="7" customWidth="1"/>
-    <col min="13315" max="13315" width="14.125" style="7" customWidth="1"/>
-    <col min="13316" max="13316" width="9.875" style="7" customWidth="1"/>
-    <col min="13317" max="13568" width="8.875" style="7"/>
-    <col min="13569" max="13569" width="13.125" style="7" customWidth="1"/>
-    <col min="13570" max="13570" width="10.125" style="7" customWidth="1"/>
-    <col min="13571" max="13571" width="14.125" style="7" customWidth="1"/>
-    <col min="13572" max="13572" width="9.875" style="7" customWidth="1"/>
-    <col min="13573" max="13824" width="8.875" style="7"/>
-    <col min="13825" max="13825" width="13.125" style="7" customWidth="1"/>
-    <col min="13826" max="13826" width="10.125" style="7" customWidth="1"/>
-    <col min="13827" max="13827" width="14.125" style="7" customWidth="1"/>
-    <col min="13828" max="13828" width="9.875" style="7" customWidth="1"/>
-    <col min="13829" max="14080" width="8.875" style="7"/>
-    <col min="14081" max="14081" width="13.125" style="7" customWidth="1"/>
-    <col min="14082" max="14082" width="10.125" style="7" customWidth="1"/>
-    <col min="14083" max="14083" width="14.125" style="7" customWidth="1"/>
-    <col min="14084" max="14084" width="9.875" style="7" customWidth="1"/>
-    <col min="14085" max="14336" width="8.875" style="7"/>
-    <col min="14337" max="14337" width="13.125" style="7" customWidth="1"/>
-    <col min="14338" max="14338" width="10.125" style="7" customWidth="1"/>
-    <col min="14339" max="14339" width="14.125" style="7" customWidth="1"/>
-    <col min="14340" max="14340" width="9.875" style="7" customWidth="1"/>
-    <col min="14341" max="14592" width="8.875" style="7"/>
-    <col min="14593" max="14593" width="13.125" style="7" customWidth="1"/>
-    <col min="14594" max="14594" width="10.125" style="7" customWidth="1"/>
-    <col min="14595" max="14595" width="14.125" style="7" customWidth="1"/>
-    <col min="14596" max="14596" width="9.875" style="7" customWidth="1"/>
-    <col min="14597" max="14848" width="8.875" style="7"/>
-    <col min="14849" max="14849" width="13.125" style="7" customWidth="1"/>
-    <col min="14850" max="14850" width="10.125" style="7" customWidth="1"/>
-    <col min="14851" max="14851" width="14.125" style="7" customWidth="1"/>
-    <col min="14852" max="14852" width="9.875" style="7" customWidth="1"/>
-    <col min="14853" max="15104" width="8.875" style="7"/>
-    <col min="15105" max="15105" width="13.125" style="7" customWidth="1"/>
-    <col min="15106" max="15106" width="10.125" style="7" customWidth="1"/>
-    <col min="15107" max="15107" width="14.125" style="7" customWidth="1"/>
-    <col min="15108" max="15108" width="9.875" style="7" customWidth="1"/>
-    <col min="15109" max="15360" width="8.875" style="7"/>
-    <col min="15361" max="15361" width="13.125" style="7" customWidth="1"/>
-    <col min="15362" max="15362" width="10.125" style="7" customWidth="1"/>
-    <col min="15363" max="15363" width="14.125" style="7" customWidth="1"/>
-    <col min="15364" max="15364" width="9.875" style="7" customWidth="1"/>
-    <col min="15365" max="15616" width="8.875" style="7"/>
-    <col min="15617" max="15617" width="13.125" style="7" customWidth="1"/>
-    <col min="15618" max="15618" width="10.125" style="7" customWidth="1"/>
-    <col min="15619" max="15619" width="14.125" style="7" customWidth="1"/>
-    <col min="15620" max="15620" width="9.875" style="7" customWidth="1"/>
-    <col min="15621" max="15872" width="8.875" style="7"/>
-    <col min="15873" max="15873" width="13.125" style="7" customWidth="1"/>
-    <col min="15874" max="15874" width="10.125" style="7" customWidth="1"/>
-    <col min="15875" max="15875" width="14.125" style="7" customWidth="1"/>
-    <col min="15876" max="15876" width="9.875" style="7" customWidth="1"/>
-    <col min="15877" max="16128" width="8.875" style="7"/>
-    <col min="16129" max="16129" width="13.125" style="7" customWidth="1"/>
-    <col min="16130" max="16130" width="10.125" style="7" customWidth="1"/>
-    <col min="16131" max="16131" width="14.125" style="7" customWidth="1"/>
-    <col min="16132" max="16132" width="9.875" style="7" customWidth="1"/>
-    <col min="16133" max="16384" width="8.875" style="7"/>
+    <col min="1" max="1" width="13.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="7" customWidth="1"/>
+    <col min="5" max="256" width="8.83203125" style="7"/>
+    <col min="257" max="257" width="13.1640625" style="7" customWidth="1"/>
+    <col min="258" max="258" width="10.1640625" style="7" customWidth="1"/>
+    <col min="259" max="259" width="14.1640625" style="7" customWidth="1"/>
+    <col min="260" max="260" width="9.83203125" style="7" customWidth="1"/>
+    <col min="261" max="512" width="8.83203125" style="7"/>
+    <col min="513" max="513" width="13.1640625" style="7" customWidth="1"/>
+    <col min="514" max="514" width="10.1640625" style="7" customWidth="1"/>
+    <col min="515" max="515" width="14.1640625" style="7" customWidth="1"/>
+    <col min="516" max="516" width="9.83203125" style="7" customWidth="1"/>
+    <col min="517" max="768" width="8.83203125" style="7"/>
+    <col min="769" max="769" width="13.1640625" style="7" customWidth="1"/>
+    <col min="770" max="770" width="10.1640625" style="7" customWidth="1"/>
+    <col min="771" max="771" width="14.1640625" style="7" customWidth="1"/>
+    <col min="772" max="772" width="9.83203125" style="7" customWidth="1"/>
+    <col min="773" max="1024" width="8.83203125" style="7"/>
+    <col min="1025" max="1025" width="13.1640625" style="7" customWidth="1"/>
+    <col min="1026" max="1026" width="10.1640625" style="7" customWidth="1"/>
+    <col min="1027" max="1027" width="14.1640625" style="7" customWidth="1"/>
+    <col min="1028" max="1028" width="9.83203125" style="7" customWidth="1"/>
+    <col min="1029" max="1280" width="8.83203125" style="7"/>
+    <col min="1281" max="1281" width="13.1640625" style="7" customWidth="1"/>
+    <col min="1282" max="1282" width="10.1640625" style="7" customWidth="1"/>
+    <col min="1283" max="1283" width="14.1640625" style="7" customWidth="1"/>
+    <col min="1284" max="1284" width="9.83203125" style="7" customWidth="1"/>
+    <col min="1285" max="1536" width="8.83203125" style="7"/>
+    <col min="1537" max="1537" width="13.1640625" style="7" customWidth="1"/>
+    <col min="1538" max="1538" width="10.1640625" style="7" customWidth="1"/>
+    <col min="1539" max="1539" width="14.1640625" style="7" customWidth="1"/>
+    <col min="1540" max="1540" width="9.83203125" style="7" customWidth="1"/>
+    <col min="1541" max="1792" width="8.83203125" style="7"/>
+    <col min="1793" max="1793" width="13.1640625" style="7" customWidth="1"/>
+    <col min="1794" max="1794" width="10.1640625" style="7" customWidth="1"/>
+    <col min="1795" max="1795" width="14.1640625" style="7" customWidth="1"/>
+    <col min="1796" max="1796" width="9.83203125" style="7" customWidth="1"/>
+    <col min="1797" max="2048" width="8.83203125" style="7"/>
+    <col min="2049" max="2049" width="13.1640625" style="7" customWidth="1"/>
+    <col min="2050" max="2050" width="10.1640625" style="7" customWidth="1"/>
+    <col min="2051" max="2051" width="14.1640625" style="7" customWidth="1"/>
+    <col min="2052" max="2052" width="9.83203125" style="7" customWidth="1"/>
+    <col min="2053" max="2304" width="8.83203125" style="7"/>
+    <col min="2305" max="2305" width="13.1640625" style="7" customWidth="1"/>
+    <col min="2306" max="2306" width="10.1640625" style="7" customWidth="1"/>
+    <col min="2307" max="2307" width="14.1640625" style="7" customWidth="1"/>
+    <col min="2308" max="2308" width="9.83203125" style="7" customWidth="1"/>
+    <col min="2309" max="2560" width="8.83203125" style="7"/>
+    <col min="2561" max="2561" width="13.1640625" style="7" customWidth="1"/>
+    <col min="2562" max="2562" width="10.1640625" style="7" customWidth="1"/>
+    <col min="2563" max="2563" width="14.1640625" style="7" customWidth="1"/>
+    <col min="2564" max="2564" width="9.83203125" style="7" customWidth="1"/>
+    <col min="2565" max="2816" width="8.83203125" style="7"/>
+    <col min="2817" max="2817" width="13.1640625" style="7" customWidth="1"/>
+    <col min="2818" max="2818" width="10.1640625" style="7" customWidth="1"/>
+    <col min="2819" max="2819" width="14.1640625" style="7" customWidth="1"/>
+    <col min="2820" max="2820" width="9.83203125" style="7" customWidth="1"/>
+    <col min="2821" max="3072" width="8.83203125" style="7"/>
+    <col min="3073" max="3073" width="13.1640625" style="7" customWidth="1"/>
+    <col min="3074" max="3074" width="10.1640625" style="7" customWidth="1"/>
+    <col min="3075" max="3075" width="14.1640625" style="7" customWidth="1"/>
+    <col min="3076" max="3076" width="9.83203125" style="7" customWidth="1"/>
+    <col min="3077" max="3328" width="8.83203125" style="7"/>
+    <col min="3329" max="3329" width="13.1640625" style="7" customWidth="1"/>
+    <col min="3330" max="3330" width="10.1640625" style="7" customWidth="1"/>
+    <col min="3331" max="3331" width="14.1640625" style="7" customWidth="1"/>
+    <col min="3332" max="3332" width="9.83203125" style="7" customWidth="1"/>
+    <col min="3333" max="3584" width="8.83203125" style="7"/>
+    <col min="3585" max="3585" width="13.1640625" style="7" customWidth="1"/>
+    <col min="3586" max="3586" width="10.1640625" style="7" customWidth="1"/>
+    <col min="3587" max="3587" width="14.1640625" style="7" customWidth="1"/>
+    <col min="3588" max="3588" width="9.83203125" style="7" customWidth="1"/>
+    <col min="3589" max="3840" width="8.83203125" style="7"/>
+    <col min="3841" max="3841" width="13.1640625" style="7" customWidth="1"/>
+    <col min="3842" max="3842" width="10.1640625" style="7" customWidth="1"/>
+    <col min="3843" max="3843" width="14.1640625" style="7" customWidth="1"/>
+    <col min="3844" max="3844" width="9.83203125" style="7" customWidth="1"/>
+    <col min="3845" max="4096" width="8.83203125" style="7"/>
+    <col min="4097" max="4097" width="13.1640625" style="7" customWidth="1"/>
+    <col min="4098" max="4098" width="10.1640625" style="7" customWidth="1"/>
+    <col min="4099" max="4099" width="14.1640625" style="7" customWidth="1"/>
+    <col min="4100" max="4100" width="9.83203125" style="7" customWidth="1"/>
+    <col min="4101" max="4352" width="8.83203125" style="7"/>
+    <col min="4353" max="4353" width="13.1640625" style="7" customWidth="1"/>
+    <col min="4354" max="4354" width="10.1640625" style="7" customWidth="1"/>
+    <col min="4355" max="4355" width="14.1640625" style="7" customWidth="1"/>
+    <col min="4356" max="4356" width="9.83203125" style="7" customWidth="1"/>
+    <col min="4357" max="4608" width="8.83203125" style="7"/>
+    <col min="4609" max="4609" width="13.1640625" style="7" customWidth="1"/>
+    <col min="4610" max="4610" width="10.1640625" style="7" customWidth="1"/>
+    <col min="4611" max="4611" width="14.1640625" style="7" customWidth="1"/>
+    <col min="4612" max="4612" width="9.83203125" style="7" customWidth="1"/>
+    <col min="4613" max="4864" width="8.83203125" style="7"/>
+    <col min="4865" max="4865" width="13.1640625" style="7" customWidth="1"/>
+    <col min="4866" max="4866" width="10.1640625" style="7" customWidth="1"/>
+    <col min="4867" max="4867" width="14.1640625" style="7" customWidth="1"/>
+    <col min="4868" max="4868" width="9.83203125" style="7" customWidth="1"/>
+    <col min="4869" max="5120" width="8.83203125" style="7"/>
+    <col min="5121" max="5121" width="13.1640625" style="7" customWidth="1"/>
+    <col min="5122" max="5122" width="10.1640625" style="7" customWidth="1"/>
+    <col min="5123" max="5123" width="14.1640625" style="7" customWidth="1"/>
+    <col min="5124" max="5124" width="9.83203125" style="7" customWidth="1"/>
+    <col min="5125" max="5376" width="8.83203125" style="7"/>
+    <col min="5377" max="5377" width="13.1640625" style="7" customWidth="1"/>
+    <col min="5378" max="5378" width="10.1640625" style="7" customWidth="1"/>
+    <col min="5379" max="5379" width="14.1640625" style="7" customWidth="1"/>
+    <col min="5380" max="5380" width="9.83203125" style="7" customWidth="1"/>
+    <col min="5381" max="5632" width="8.83203125" style="7"/>
+    <col min="5633" max="5633" width="13.1640625" style="7" customWidth="1"/>
+    <col min="5634" max="5634" width="10.1640625" style="7" customWidth="1"/>
+    <col min="5635" max="5635" width="14.1640625" style="7" customWidth="1"/>
+    <col min="5636" max="5636" width="9.83203125" style="7" customWidth="1"/>
+    <col min="5637" max="5888" width="8.83203125" style="7"/>
+    <col min="5889" max="5889" width="13.1640625" style="7" customWidth="1"/>
+    <col min="5890" max="5890" width="10.1640625" style="7" customWidth="1"/>
+    <col min="5891" max="5891" width="14.1640625" style="7" customWidth="1"/>
+    <col min="5892" max="5892" width="9.83203125" style="7" customWidth="1"/>
+    <col min="5893" max="6144" width="8.83203125" style="7"/>
+    <col min="6145" max="6145" width="13.1640625" style="7" customWidth="1"/>
+    <col min="6146" max="6146" width="10.1640625" style="7" customWidth="1"/>
+    <col min="6147" max="6147" width="14.1640625" style="7" customWidth="1"/>
+    <col min="6148" max="6148" width="9.83203125" style="7" customWidth="1"/>
+    <col min="6149" max="6400" width="8.83203125" style="7"/>
+    <col min="6401" max="6401" width="13.1640625" style="7" customWidth="1"/>
+    <col min="6402" max="6402" width="10.1640625" style="7" customWidth="1"/>
+    <col min="6403" max="6403" width="14.1640625" style="7" customWidth="1"/>
+    <col min="6404" max="6404" width="9.83203125" style="7" customWidth="1"/>
+    <col min="6405" max="6656" width="8.83203125" style="7"/>
+    <col min="6657" max="6657" width="13.1640625" style="7" customWidth="1"/>
+    <col min="6658" max="6658" width="10.1640625" style="7" customWidth="1"/>
+    <col min="6659" max="6659" width="14.1640625" style="7" customWidth="1"/>
+    <col min="6660" max="6660" width="9.83203125" style="7" customWidth="1"/>
+    <col min="6661" max="6912" width="8.83203125" style="7"/>
+    <col min="6913" max="6913" width="13.1640625" style="7" customWidth="1"/>
+    <col min="6914" max="6914" width="10.1640625" style="7" customWidth="1"/>
+    <col min="6915" max="6915" width="14.1640625" style="7" customWidth="1"/>
+    <col min="6916" max="6916" width="9.83203125" style="7" customWidth="1"/>
+    <col min="6917" max="7168" width="8.83203125" style="7"/>
+    <col min="7169" max="7169" width="13.1640625" style="7" customWidth="1"/>
+    <col min="7170" max="7170" width="10.1640625" style="7" customWidth="1"/>
+    <col min="7171" max="7171" width="14.1640625" style="7" customWidth="1"/>
+    <col min="7172" max="7172" width="9.83203125" style="7" customWidth="1"/>
+    <col min="7173" max="7424" width="8.83203125" style="7"/>
+    <col min="7425" max="7425" width="13.1640625" style="7" customWidth="1"/>
+    <col min="7426" max="7426" width="10.1640625" style="7" customWidth="1"/>
+    <col min="7427" max="7427" width="14.1640625" style="7" customWidth="1"/>
+    <col min="7428" max="7428" width="9.83203125" style="7" customWidth="1"/>
+    <col min="7429" max="7680" width="8.83203125" style="7"/>
+    <col min="7681" max="7681" width="13.1640625" style="7" customWidth="1"/>
+    <col min="7682" max="7682" width="10.1640625" style="7" customWidth="1"/>
+    <col min="7683" max="7683" width="14.1640625" style="7" customWidth="1"/>
+    <col min="7684" max="7684" width="9.83203125" style="7" customWidth="1"/>
+    <col min="7685" max="7936" width="8.83203125" style="7"/>
+    <col min="7937" max="7937" width="13.1640625" style="7" customWidth="1"/>
+    <col min="7938" max="7938" width="10.1640625" style="7" customWidth="1"/>
+    <col min="7939" max="7939" width="14.1640625" style="7" customWidth="1"/>
+    <col min="7940" max="7940" width="9.83203125" style="7" customWidth="1"/>
+    <col min="7941" max="8192" width="8.83203125" style="7"/>
+    <col min="8193" max="8193" width="13.1640625" style="7" customWidth="1"/>
+    <col min="8194" max="8194" width="10.1640625" style="7" customWidth="1"/>
+    <col min="8195" max="8195" width="14.1640625" style="7" customWidth="1"/>
+    <col min="8196" max="8196" width="9.83203125" style="7" customWidth="1"/>
+    <col min="8197" max="8448" width="8.83203125" style="7"/>
+    <col min="8449" max="8449" width="13.1640625" style="7" customWidth="1"/>
+    <col min="8450" max="8450" width="10.1640625" style="7" customWidth="1"/>
+    <col min="8451" max="8451" width="14.1640625" style="7" customWidth="1"/>
+    <col min="8452" max="8452" width="9.83203125" style="7" customWidth="1"/>
+    <col min="8453" max="8704" width="8.83203125" style="7"/>
+    <col min="8705" max="8705" width="13.1640625" style="7" customWidth="1"/>
+    <col min="8706" max="8706" width="10.1640625" style="7" customWidth="1"/>
+    <col min="8707" max="8707" width="14.1640625" style="7" customWidth="1"/>
+    <col min="8708" max="8708" width="9.83203125" style="7" customWidth="1"/>
+    <col min="8709" max="8960" width="8.83203125" style="7"/>
+    <col min="8961" max="8961" width="13.1640625" style="7" customWidth="1"/>
+    <col min="8962" max="8962" width="10.1640625" style="7" customWidth="1"/>
+    <col min="8963" max="8963" width="14.1640625" style="7" customWidth="1"/>
+    <col min="8964" max="8964" width="9.83203125" style="7" customWidth="1"/>
+    <col min="8965" max="9216" width="8.83203125" style="7"/>
+    <col min="9217" max="9217" width="13.1640625" style="7" customWidth="1"/>
+    <col min="9218" max="9218" width="10.1640625" style="7" customWidth="1"/>
+    <col min="9219" max="9219" width="14.1640625" style="7" customWidth="1"/>
+    <col min="9220" max="9220" width="9.83203125" style="7" customWidth="1"/>
+    <col min="9221" max="9472" width="8.83203125" style="7"/>
+    <col min="9473" max="9473" width="13.1640625" style="7" customWidth="1"/>
+    <col min="9474" max="9474" width="10.1640625" style="7" customWidth="1"/>
+    <col min="9475" max="9475" width="14.1640625" style="7" customWidth="1"/>
+    <col min="9476" max="9476" width="9.83203125" style="7" customWidth="1"/>
+    <col min="9477" max="9728" width="8.83203125" style="7"/>
+    <col min="9729" max="9729" width="13.1640625" style="7" customWidth="1"/>
+    <col min="9730" max="9730" width="10.1640625" style="7" customWidth="1"/>
+    <col min="9731" max="9731" width="14.1640625" style="7" customWidth="1"/>
+    <col min="9732" max="9732" width="9.83203125" style="7" customWidth="1"/>
+    <col min="9733" max="9984" width="8.83203125" style="7"/>
+    <col min="9985" max="9985" width="13.1640625" style="7" customWidth="1"/>
+    <col min="9986" max="9986" width="10.1640625" style="7" customWidth="1"/>
+    <col min="9987" max="9987" width="14.1640625" style="7" customWidth="1"/>
+    <col min="9988" max="9988" width="9.83203125" style="7" customWidth="1"/>
+    <col min="9989" max="10240" width="8.83203125" style="7"/>
+    <col min="10241" max="10241" width="13.1640625" style="7" customWidth="1"/>
+    <col min="10242" max="10242" width="10.1640625" style="7" customWidth="1"/>
+    <col min="10243" max="10243" width="14.1640625" style="7" customWidth="1"/>
+    <col min="10244" max="10244" width="9.83203125" style="7" customWidth="1"/>
+    <col min="10245" max="10496" width="8.83203125" style="7"/>
+    <col min="10497" max="10497" width="13.1640625" style="7" customWidth="1"/>
+    <col min="10498" max="10498" width="10.1640625" style="7" customWidth="1"/>
+    <col min="10499" max="10499" width="14.1640625" style="7" customWidth="1"/>
+    <col min="10500" max="10500" width="9.83203125" style="7" customWidth="1"/>
+    <col min="10501" max="10752" width="8.83203125" style="7"/>
+    <col min="10753" max="10753" width="13.1640625" style="7" customWidth="1"/>
+    <col min="10754" max="10754" width="10.1640625" style="7" customWidth="1"/>
+    <col min="10755" max="10755" width="14.1640625" style="7" customWidth="1"/>
+    <col min="10756" max="10756" width="9.83203125" style="7" customWidth="1"/>
+    <col min="10757" max="11008" width="8.83203125" style="7"/>
+    <col min="11009" max="11009" width="13.1640625" style="7" customWidth="1"/>
+    <col min="11010" max="11010" width="10.1640625" style="7" customWidth="1"/>
+    <col min="11011" max="11011" width="14.1640625" style="7" customWidth="1"/>
+    <col min="11012" max="11012" width="9.83203125" style="7" customWidth="1"/>
+    <col min="11013" max="11264" width="8.83203125" style="7"/>
+    <col min="11265" max="11265" width="13.1640625" style="7" customWidth="1"/>
+    <col min="11266" max="11266" width="10.1640625" style="7" customWidth="1"/>
+    <col min="11267" max="11267" width="14.1640625" style="7" customWidth="1"/>
+    <col min="11268" max="11268" width="9.83203125" style="7" customWidth="1"/>
+    <col min="11269" max="11520" width="8.83203125" style="7"/>
+    <col min="11521" max="11521" width="13.1640625" style="7" customWidth="1"/>
+    <col min="11522" max="11522" width="10.1640625" style="7" customWidth="1"/>
+    <col min="11523" max="11523" width="14.1640625" style="7" customWidth="1"/>
+    <col min="11524" max="11524" width="9.83203125" style="7" customWidth="1"/>
+    <col min="11525" max="11776" width="8.83203125" style="7"/>
+    <col min="11777" max="11777" width="13.1640625" style="7" customWidth="1"/>
+    <col min="11778" max="11778" width="10.1640625" style="7" customWidth="1"/>
+    <col min="11779" max="11779" width="14.1640625" style="7" customWidth="1"/>
+    <col min="11780" max="11780" width="9.83203125" style="7" customWidth="1"/>
+    <col min="11781" max="12032" width="8.83203125" style="7"/>
+    <col min="12033" max="12033" width="13.1640625" style="7" customWidth="1"/>
+    <col min="12034" max="12034" width="10.1640625" style="7" customWidth="1"/>
+    <col min="12035" max="12035" width="14.1640625" style="7" customWidth="1"/>
+    <col min="12036" max="12036" width="9.83203125" style="7" customWidth="1"/>
+    <col min="12037" max="12288" width="8.83203125" style="7"/>
+    <col min="12289" max="12289" width="13.1640625" style="7" customWidth="1"/>
+    <col min="12290" max="12290" width="10.1640625" style="7" customWidth="1"/>
+    <col min="12291" max="12291" width="14.1640625" style="7" customWidth="1"/>
+    <col min="12292" max="12292" width="9.83203125" style="7" customWidth="1"/>
+    <col min="12293" max="12544" width="8.83203125" style="7"/>
+    <col min="12545" max="12545" width="13.1640625" style="7" customWidth="1"/>
+    <col min="12546" max="12546" width="10.1640625" style="7" customWidth="1"/>
+    <col min="12547" max="12547" width="14.1640625" style="7" customWidth="1"/>
+    <col min="12548" max="12548" width="9.83203125" style="7" customWidth="1"/>
+    <col min="12549" max="12800" width="8.83203125" style="7"/>
+    <col min="12801" max="12801" width="13.1640625" style="7" customWidth="1"/>
+    <col min="12802" max="12802" width="10.1640625" style="7" customWidth="1"/>
+    <col min="12803" max="12803" width="14.1640625" style="7" customWidth="1"/>
+    <col min="12804" max="12804" width="9.83203125" style="7" customWidth="1"/>
+    <col min="12805" max="13056" width="8.83203125" style="7"/>
+    <col min="13057" max="13057" width="13.1640625" style="7" customWidth="1"/>
+    <col min="13058" max="13058" width="10.1640625" style="7" customWidth="1"/>
+    <col min="13059" max="13059" width="14.1640625" style="7" customWidth="1"/>
+    <col min="13060" max="13060" width="9.83203125" style="7" customWidth="1"/>
+    <col min="13061" max="13312" width="8.83203125" style="7"/>
+    <col min="13313" max="13313" width="13.1640625" style="7" customWidth="1"/>
+    <col min="13314" max="13314" width="10.1640625" style="7" customWidth="1"/>
+    <col min="13315" max="13315" width="14.1640625" style="7" customWidth="1"/>
+    <col min="13316" max="13316" width="9.83203125" style="7" customWidth="1"/>
+    <col min="13317" max="13568" width="8.83203125" style="7"/>
+    <col min="13569" max="13569" width="13.1640625" style="7" customWidth="1"/>
+    <col min="13570" max="13570" width="10.1640625" style="7" customWidth="1"/>
+    <col min="13571" max="13571" width="14.1640625" style="7" customWidth="1"/>
+    <col min="13572" max="13572" width="9.83203125" style="7" customWidth="1"/>
+    <col min="13573" max="13824" width="8.83203125" style="7"/>
+    <col min="13825" max="13825" width="13.1640625" style="7" customWidth="1"/>
+    <col min="13826" max="13826" width="10.1640625" style="7" customWidth="1"/>
+    <col min="13827" max="13827" width="14.1640625" style="7" customWidth="1"/>
+    <col min="13828" max="13828" width="9.83203125" style="7" customWidth="1"/>
+    <col min="13829" max="14080" width="8.83203125" style="7"/>
+    <col min="14081" max="14081" width="13.1640625" style="7" customWidth="1"/>
+    <col min="14082" max="14082" width="10.1640625" style="7" customWidth="1"/>
+    <col min="14083" max="14083" width="14.1640625" style="7" customWidth="1"/>
+    <col min="14084" max="14084" width="9.83203125" style="7" customWidth="1"/>
+    <col min="14085" max="14336" width="8.83203125" style="7"/>
+    <col min="14337" max="14337" width="13.1640625" style="7" customWidth="1"/>
+    <col min="14338" max="14338" width="10.1640625" style="7" customWidth="1"/>
+    <col min="14339" max="14339" width="14.1640625" style="7" customWidth="1"/>
+    <col min="14340" max="14340" width="9.83203125" style="7" customWidth="1"/>
+    <col min="14341" max="14592" width="8.83203125" style="7"/>
+    <col min="14593" max="14593" width="13.1640625" style="7" customWidth="1"/>
+    <col min="14594" max="14594" width="10.1640625" style="7" customWidth="1"/>
+    <col min="14595" max="14595" width="14.1640625" style="7" customWidth="1"/>
+    <col min="14596" max="14596" width="9.83203125" style="7" customWidth="1"/>
+    <col min="14597" max="14848" width="8.83203125" style="7"/>
+    <col min="14849" max="14849" width="13.1640625" style="7" customWidth="1"/>
+    <col min="14850" max="14850" width="10.1640625" style="7" customWidth="1"/>
+    <col min="14851" max="14851" width="14.1640625" style="7" customWidth="1"/>
+    <col min="14852" max="14852" width="9.83203125" style="7" customWidth="1"/>
+    <col min="14853" max="15104" width="8.83203125" style="7"/>
+    <col min="15105" max="15105" width="13.1640625" style="7" customWidth="1"/>
+    <col min="15106" max="15106" width="10.1640625" style="7" customWidth="1"/>
+    <col min="15107" max="15107" width="14.1640625" style="7" customWidth="1"/>
+    <col min="15108" max="15108" width="9.83203125" style="7" customWidth="1"/>
+    <col min="15109" max="15360" width="8.83203125" style="7"/>
+    <col min="15361" max="15361" width="13.1640625" style="7" customWidth="1"/>
+    <col min="15362" max="15362" width="10.1640625" style="7" customWidth="1"/>
+    <col min="15363" max="15363" width="14.1640625" style="7" customWidth="1"/>
+    <col min="15364" max="15364" width="9.83203125" style="7" customWidth="1"/>
+    <col min="15365" max="15616" width="8.83203125" style="7"/>
+    <col min="15617" max="15617" width="13.1640625" style="7" customWidth="1"/>
+    <col min="15618" max="15618" width="10.1640625" style="7" customWidth="1"/>
+    <col min="15619" max="15619" width="14.1640625" style="7" customWidth="1"/>
+    <col min="15620" max="15620" width="9.83203125" style="7" customWidth="1"/>
+    <col min="15621" max="15872" width="8.83203125" style="7"/>
+    <col min="15873" max="15873" width="13.1640625" style="7" customWidth="1"/>
+    <col min="15874" max="15874" width="10.1640625" style="7" customWidth="1"/>
+    <col min="15875" max="15875" width="14.1640625" style="7" customWidth="1"/>
+    <col min="15876" max="15876" width="9.83203125" style="7" customWidth="1"/>
+    <col min="15877" max="16128" width="8.83203125" style="7"/>
+    <col min="16129" max="16129" width="13.1640625" style="7" customWidth="1"/>
+    <col min="16130" max="16130" width="10.1640625" style="7" customWidth="1"/>
+    <col min="16131" max="16131" width="14.1640625" style="7" customWidth="1"/>
+    <col min="16132" max="16132" width="9.83203125" style="7" customWidth="1"/>
+    <col min="16133" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="62" t="str">
+      <c r="A2" s="61" t="str">
         <f>CONCATENATE("Name: ", Common!E6)</f>
         <v xml:space="preserve">Name: </v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="64">
         <f>Common!E7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="66">
         <f>Common!E8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="64">
         <f>Common!E9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="99">
+      <c r="B6" s="47">
         <f>Common!E10</f>
         <v>0</v>
       </c>
@@ -2612,7 +2669,7 @@
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="99">
+      <c r="B7" s="47">
         <f>Common!E11</f>
         <v>0</v>
       </c>
@@ -2625,18 +2682,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" thickBot="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2656,7 +2713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -2666,385 +2723,385 @@
       <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="13" customWidth="1"/>
-    <col min="5" max="256" width="8.875" style="7"/>
-    <col min="257" max="257" width="13.125" style="7" customWidth="1"/>
-    <col min="258" max="258" width="10.125" style="7" customWidth="1"/>
-    <col min="259" max="259" width="14.125" style="7" customWidth="1"/>
-    <col min="260" max="260" width="9.875" style="7" customWidth="1"/>
-    <col min="261" max="512" width="8.875" style="7"/>
-    <col min="513" max="513" width="13.125" style="7" customWidth="1"/>
-    <col min="514" max="514" width="10.125" style="7" customWidth="1"/>
-    <col min="515" max="515" width="14.125" style="7" customWidth="1"/>
-    <col min="516" max="516" width="9.875" style="7" customWidth="1"/>
-    <col min="517" max="768" width="8.875" style="7"/>
-    <col min="769" max="769" width="13.125" style="7" customWidth="1"/>
-    <col min="770" max="770" width="10.125" style="7" customWidth="1"/>
-    <col min="771" max="771" width="14.125" style="7" customWidth="1"/>
-    <col min="772" max="772" width="9.875" style="7" customWidth="1"/>
-    <col min="773" max="1024" width="8.875" style="7"/>
-    <col min="1025" max="1025" width="13.125" style="7" customWidth="1"/>
-    <col min="1026" max="1026" width="10.125" style="7" customWidth="1"/>
-    <col min="1027" max="1027" width="14.125" style="7" customWidth="1"/>
-    <col min="1028" max="1028" width="9.875" style="7" customWidth="1"/>
-    <col min="1029" max="1280" width="8.875" style="7"/>
-    <col min="1281" max="1281" width="13.125" style="7" customWidth="1"/>
-    <col min="1282" max="1282" width="10.125" style="7" customWidth="1"/>
-    <col min="1283" max="1283" width="14.125" style="7" customWidth="1"/>
-    <col min="1284" max="1284" width="9.875" style="7" customWidth="1"/>
-    <col min="1285" max="1536" width="8.875" style="7"/>
-    <col min="1537" max="1537" width="13.125" style="7" customWidth="1"/>
-    <col min="1538" max="1538" width="10.125" style="7" customWidth="1"/>
-    <col min="1539" max="1539" width="14.125" style="7" customWidth="1"/>
-    <col min="1540" max="1540" width="9.875" style="7" customWidth="1"/>
-    <col min="1541" max="1792" width="8.875" style="7"/>
-    <col min="1793" max="1793" width="13.125" style="7" customWidth="1"/>
-    <col min="1794" max="1794" width="10.125" style="7" customWidth="1"/>
-    <col min="1795" max="1795" width="14.125" style="7" customWidth="1"/>
-    <col min="1796" max="1796" width="9.875" style="7" customWidth="1"/>
-    <col min="1797" max="2048" width="8.875" style="7"/>
-    <col min="2049" max="2049" width="13.125" style="7" customWidth="1"/>
-    <col min="2050" max="2050" width="10.125" style="7" customWidth="1"/>
-    <col min="2051" max="2051" width="14.125" style="7" customWidth="1"/>
-    <col min="2052" max="2052" width="9.875" style="7" customWidth="1"/>
-    <col min="2053" max="2304" width="8.875" style="7"/>
-    <col min="2305" max="2305" width="13.125" style="7" customWidth="1"/>
-    <col min="2306" max="2306" width="10.125" style="7" customWidth="1"/>
-    <col min="2307" max="2307" width="14.125" style="7" customWidth="1"/>
-    <col min="2308" max="2308" width="9.875" style="7" customWidth="1"/>
-    <col min="2309" max="2560" width="8.875" style="7"/>
-    <col min="2561" max="2561" width="13.125" style="7" customWidth="1"/>
-    <col min="2562" max="2562" width="10.125" style="7" customWidth="1"/>
-    <col min="2563" max="2563" width="14.125" style="7" customWidth="1"/>
-    <col min="2564" max="2564" width="9.875" style="7" customWidth="1"/>
-    <col min="2565" max="2816" width="8.875" style="7"/>
-    <col min="2817" max="2817" width="13.125" style="7" customWidth="1"/>
-    <col min="2818" max="2818" width="10.125" style="7" customWidth="1"/>
-    <col min="2819" max="2819" width="14.125" style="7" customWidth="1"/>
-    <col min="2820" max="2820" width="9.875" style="7" customWidth="1"/>
-    <col min="2821" max="3072" width="8.875" style="7"/>
-    <col min="3073" max="3073" width="13.125" style="7" customWidth="1"/>
-    <col min="3074" max="3074" width="10.125" style="7" customWidth="1"/>
-    <col min="3075" max="3075" width="14.125" style="7" customWidth="1"/>
-    <col min="3076" max="3076" width="9.875" style="7" customWidth="1"/>
-    <col min="3077" max="3328" width="8.875" style="7"/>
-    <col min="3329" max="3329" width="13.125" style="7" customWidth="1"/>
-    <col min="3330" max="3330" width="10.125" style="7" customWidth="1"/>
-    <col min="3331" max="3331" width="14.125" style="7" customWidth="1"/>
-    <col min="3332" max="3332" width="9.875" style="7" customWidth="1"/>
-    <col min="3333" max="3584" width="8.875" style="7"/>
-    <col min="3585" max="3585" width="13.125" style="7" customWidth="1"/>
-    <col min="3586" max="3586" width="10.125" style="7" customWidth="1"/>
-    <col min="3587" max="3587" width="14.125" style="7" customWidth="1"/>
-    <col min="3588" max="3588" width="9.875" style="7" customWidth="1"/>
-    <col min="3589" max="3840" width="8.875" style="7"/>
-    <col min="3841" max="3841" width="13.125" style="7" customWidth="1"/>
-    <col min="3842" max="3842" width="10.125" style="7" customWidth="1"/>
-    <col min="3843" max="3843" width="14.125" style="7" customWidth="1"/>
-    <col min="3844" max="3844" width="9.875" style="7" customWidth="1"/>
-    <col min="3845" max="4096" width="8.875" style="7"/>
-    <col min="4097" max="4097" width="13.125" style="7" customWidth="1"/>
-    <col min="4098" max="4098" width="10.125" style="7" customWidth="1"/>
-    <col min="4099" max="4099" width="14.125" style="7" customWidth="1"/>
-    <col min="4100" max="4100" width="9.875" style="7" customWidth="1"/>
-    <col min="4101" max="4352" width="8.875" style="7"/>
-    <col min="4353" max="4353" width="13.125" style="7" customWidth="1"/>
-    <col min="4354" max="4354" width="10.125" style="7" customWidth="1"/>
-    <col min="4355" max="4355" width="14.125" style="7" customWidth="1"/>
-    <col min="4356" max="4356" width="9.875" style="7" customWidth="1"/>
-    <col min="4357" max="4608" width="8.875" style="7"/>
-    <col min="4609" max="4609" width="13.125" style="7" customWidth="1"/>
-    <col min="4610" max="4610" width="10.125" style="7" customWidth="1"/>
-    <col min="4611" max="4611" width="14.125" style="7" customWidth="1"/>
-    <col min="4612" max="4612" width="9.875" style="7" customWidth="1"/>
-    <col min="4613" max="4864" width="8.875" style="7"/>
-    <col min="4865" max="4865" width="13.125" style="7" customWidth="1"/>
-    <col min="4866" max="4866" width="10.125" style="7" customWidth="1"/>
-    <col min="4867" max="4867" width="14.125" style="7" customWidth="1"/>
-    <col min="4868" max="4868" width="9.875" style="7" customWidth="1"/>
-    <col min="4869" max="5120" width="8.875" style="7"/>
-    <col min="5121" max="5121" width="13.125" style="7" customWidth="1"/>
-    <col min="5122" max="5122" width="10.125" style="7" customWidth="1"/>
-    <col min="5123" max="5123" width="14.125" style="7" customWidth="1"/>
-    <col min="5124" max="5124" width="9.875" style="7" customWidth="1"/>
-    <col min="5125" max="5376" width="8.875" style="7"/>
-    <col min="5377" max="5377" width="13.125" style="7" customWidth="1"/>
-    <col min="5378" max="5378" width="10.125" style="7" customWidth="1"/>
-    <col min="5379" max="5379" width="14.125" style="7" customWidth="1"/>
-    <col min="5380" max="5380" width="9.875" style="7" customWidth="1"/>
-    <col min="5381" max="5632" width="8.875" style="7"/>
-    <col min="5633" max="5633" width="13.125" style="7" customWidth="1"/>
-    <col min="5634" max="5634" width="10.125" style="7" customWidth="1"/>
-    <col min="5635" max="5635" width="14.125" style="7" customWidth="1"/>
-    <col min="5636" max="5636" width="9.875" style="7" customWidth="1"/>
-    <col min="5637" max="5888" width="8.875" style="7"/>
-    <col min="5889" max="5889" width="13.125" style="7" customWidth="1"/>
-    <col min="5890" max="5890" width="10.125" style="7" customWidth="1"/>
-    <col min="5891" max="5891" width="14.125" style="7" customWidth="1"/>
-    <col min="5892" max="5892" width="9.875" style="7" customWidth="1"/>
-    <col min="5893" max="6144" width="8.875" style="7"/>
-    <col min="6145" max="6145" width="13.125" style="7" customWidth="1"/>
-    <col min="6146" max="6146" width="10.125" style="7" customWidth="1"/>
-    <col min="6147" max="6147" width="14.125" style="7" customWidth="1"/>
-    <col min="6148" max="6148" width="9.875" style="7" customWidth="1"/>
-    <col min="6149" max="6400" width="8.875" style="7"/>
-    <col min="6401" max="6401" width="13.125" style="7" customWidth="1"/>
-    <col min="6402" max="6402" width="10.125" style="7" customWidth="1"/>
-    <col min="6403" max="6403" width="14.125" style="7" customWidth="1"/>
-    <col min="6404" max="6404" width="9.875" style="7" customWidth="1"/>
-    <col min="6405" max="6656" width="8.875" style="7"/>
-    <col min="6657" max="6657" width="13.125" style="7" customWidth="1"/>
-    <col min="6658" max="6658" width="10.125" style="7" customWidth="1"/>
-    <col min="6659" max="6659" width="14.125" style="7" customWidth="1"/>
-    <col min="6660" max="6660" width="9.875" style="7" customWidth="1"/>
-    <col min="6661" max="6912" width="8.875" style="7"/>
-    <col min="6913" max="6913" width="13.125" style="7" customWidth="1"/>
-    <col min="6914" max="6914" width="10.125" style="7" customWidth="1"/>
-    <col min="6915" max="6915" width="14.125" style="7" customWidth="1"/>
-    <col min="6916" max="6916" width="9.875" style="7" customWidth="1"/>
-    <col min="6917" max="7168" width="8.875" style="7"/>
-    <col min="7169" max="7169" width="13.125" style="7" customWidth="1"/>
-    <col min="7170" max="7170" width="10.125" style="7" customWidth="1"/>
-    <col min="7171" max="7171" width="14.125" style="7" customWidth="1"/>
-    <col min="7172" max="7172" width="9.875" style="7" customWidth="1"/>
-    <col min="7173" max="7424" width="8.875" style="7"/>
-    <col min="7425" max="7425" width="13.125" style="7" customWidth="1"/>
-    <col min="7426" max="7426" width="10.125" style="7" customWidth="1"/>
-    <col min="7427" max="7427" width="14.125" style="7" customWidth="1"/>
-    <col min="7428" max="7428" width="9.875" style="7" customWidth="1"/>
-    <col min="7429" max="7680" width="8.875" style="7"/>
-    <col min="7681" max="7681" width="13.125" style="7" customWidth="1"/>
-    <col min="7682" max="7682" width="10.125" style="7" customWidth="1"/>
-    <col min="7683" max="7683" width="14.125" style="7" customWidth="1"/>
-    <col min="7684" max="7684" width="9.875" style="7" customWidth="1"/>
-    <col min="7685" max="7936" width="8.875" style="7"/>
-    <col min="7937" max="7937" width="13.125" style="7" customWidth="1"/>
-    <col min="7938" max="7938" width="10.125" style="7" customWidth="1"/>
-    <col min="7939" max="7939" width="14.125" style="7" customWidth="1"/>
-    <col min="7940" max="7940" width="9.875" style="7" customWidth="1"/>
-    <col min="7941" max="8192" width="8.875" style="7"/>
-    <col min="8193" max="8193" width="13.125" style="7" customWidth="1"/>
-    <col min="8194" max="8194" width="10.125" style="7" customWidth="1"/>
-    <col min="8195" max="8195" width="14.125" style="7" customWidth="1"/>
-    <col min="8196" max="8196" width="9.875" style="7" customWidth="1"/>
-    <col min="8197" max="8448" width="8.875" style="7"/>
-    <col min="8449" max="8449" width="13.125" style="7" customWidth="1"/>
-    <col min="8450" max="8450" width="10.125" style="7" customWidth="1"/>
-    <col min="8451" max="8451" width="14.125" style="7" customWidth="1"/>
-    <col min="8452" max="8452" width="9.875" style="7" customWidth="1"/>
-    <col min="8453" max="8704" width="8.875" style="7"/>
-    <col min="8705" max="8705" width="13.125" style="7" customWidth="1"/>
-    <col min="8706" max="8706" width="10.125" style="7" customWidth="1"/>
-    <col min="8707" max="8707" width="14.125" style="7" customWidth="1"/>
-    <col min="8708" max="8708" width="9.875" style="7" customWidth="1"/>
-    <col min="8709" max="8960" width="8.875" style="7"/>
-    <col min="8961" max="8961" width="13.125" style="7" customWidth="1"/>
-    <col min="8962" max="8962" width="10.125" style="7" customWidth="1"/>
-    <col min="8963" max="8963" width="14.125" style="7" customWidth="1"/>
-    <col min="8964" max="8964" width="9.875" style="7" customWidth="1"/>
-    <col min="8965" max="9216" width="8.875" style="7"/>
-    <col min="9217" max="9217" width="13.125" style="7" customWidth="1"/>
-    <col min="9218" max="9218" width="10.125" style="7" customWidth="1"/>
-    <col min="9219" max="9219" width="14.125" style="7" customWidth="1"/>
-    <col min="9220" max="9220" width="9.875" style="7" customWidth="1"/>
-    <col min="9221" max="9472" width="8.875" style="7"/>
-    <col min="9473" max="9473" width="13.125" style="7" customWidth="1"/>
-    <col min="9474" max="9474" width="10.125" style="7" customWidth="1"/>
-    <col min="9475" max="9475" width="14.125" style="7" customWidth="1"/>
-    <col min="9476" max="9476" width="9.875" style="7" customWidth="1"/>
-    <col min="9477" max="9728" width="8.875" style="7"/>
-    <col min="9729" max="9729" width="13.125" style="7" customWidth="1"/>
-    <col min="9730" max="9730" width="10.125" style="7" customWidth="1"/>
-    <col min="9731" max="9731" width="14.125" style="7" customWidth="1"/>
-    <col min="9732" max="9732" width="9.875" style="7" customWidth="1"/>
-    <col min="9733" max="9984" width="8.875" style="7"/>
-    <col min="9985" max="9985" width="13.125" style="7" customWidth="1"/>
-    <col min="9986" max="9986" width="10.125" style="7" customWidth="1"/>
-    <col min="9987" max="9987" width="14.125" style="7" customWidth="1"/>
-    <col min="9988" max="9988" width="9.875" style="7" customWidth="1"/>
-    <col min="9989" max="10240" width="8.875" style="7"/>
-    <col min="10241" max="10241" width="13.125" style="7" customWidth="1"/>
-    <col min="10242" max="10242" width="10.125" style="7" customWidth="1"/>
-    <col min="10243" max="10243" width="14.125" style="7" customWidth="1"/>
-    <col min="10244" max="10244" width="9.875" style="7" customWidth="1"/>
-    <col min="10245" max="10496" width="8.875" style="7"/>
-    <col min="10497" max="10497" width="13.125" style="7" customWidth="1"/>
-    <col min="10498" max="10498" width="10.125" style="7" customWidth="1"/>
-    <col min="10499" max="10499" width="14.125" style="7" customWidth="1"/>
-    <col min="10500" max="10500" width="9.875" style="7" customWidth="1"/>
-    <col min="10501" max="10752" width="8.875" style="7"/>
-    <col min="10753" max="10753" width="13.125" style="7" customWidth="1"/>
-    <col min="10754" max="10754" width="10.125" style="7" customWidth="1"/>
-    <col min="10755" max="10755" width="14.125" style="7" customWidth="1"/>
-    <col min="10756" max="10756" width="9.875" style="7" customWidth="1"/>
-    <col min="10757" max="11008" width="8.875" style="7"/>
-    <col min="11009" max="11009" width="13.125" style="7" customWidth="1"/>
-    <col min="11010" max="11010" width="10.125" style="7" customWidth="1"/>
-    <col min="11011" max="11011" width="14.125" style="7" customWidth="1"/>
-    <col min="11012" max="11012" width="9.875" style="7" customWidth="1"/>
-    <col min="11013" max="11264" width="8.875" style="7"/>
-    <col min="11265" max="11265" width="13.125" style="7" customWidth="1"/>
-    <col min="11266" max="11266" width="10.125" style="7" customWidth="1"/>
-    <col min="11267" max="11267" width="14.125" style="7" customWidth="1"/>
-    <col min="11268" max="11268" width="9.875" style="7" customWidth="1"/>
-    <col min="11269" max="11520" width="8.875" style="7"/>
-    <col min="11521" max="11521" width="13.125" style="7" customWidth="1"/>
-    <col min="11522" max="11522" width="10.125" style="7" customWidth="1"/>
-    <col min="11523" max="11523" width="14.125" style="7" customWidth="1"/>
-    <col min="11524" max="11524" width="9.875" style="7" customWidth="1"/>
-    <col min="11525" max="11776" width="8.875" style="7"/>
-    <col min="11777" max="11777" width="13.125" style="7" customWidth="1"/>
-    <col min="11778" max="11778" width="10.125" style="7" customWidth="1"/>
-    <col min="11779" max="11779" width="14.125" style="7" customWidth="1"/>
-    <col min="11780" max="11780" width="9.875" style="7" customWidth="1"/>
-    <col min="11781" max="12032" width="8.875" style="7"/>
-    <col min="12033" max="12033" width="13.125" style="7" customWidth="1"/>
-    <col min="12034" max="12034" width="10.125" style="7" customWidth="1"/>
-    <col min="12035" max="12035" width="14.125" style="7" customWidth="1"/>
-    <col min="12036" max="12036" width="9.875" style="7" customWidth="1"/>
-    <col min="12037" max="12288" width="8.875" style="7"/>
-    <col min="12289" max="12289" width="13.125" style="7" customWidth="1"/>
-    <col min="12290" max="12290" width="10.125" style="7" customWidth="1"/>
-    <col min="12291" max="12291" width="14.125" style="7" customWidth="1"/>
-    <col min="12292" max="12292" width="9.875" style="7" customWidth="1"/>
-    <col min="12293" max="12544" width="8.875" style="7"/>
-    <col min="12545" max="12545" width="13.125" style="7" customWidth="1"/>
-    <col min="12546" max="12546" width="10.125" style="7" customWidth="1"/>
-    <col min="12547" max="12547" width="14.125" style="7" customWidth="1"/>
-    <col min="12548" max="12548" width="9.875" style="7" customWidth="1"/>
-    <col min="12549" max="12800" width="8.875" style="7"/>
-    <col min="12801" max="12801" width="13.125" style="7" customWidth="1"/>
-    <col min="12802" max="12802" width="10.125" style="7" customWidth="1"/>
-    <col min="12803" max="12803" width="14.125" style="7" customWidth="1"/>
-    <col min="12804" max="12804" width="9.875" style="7" customWidth="1"/>
-    <col min="12805" max="13056" width="8.875" style="7"/>
-    <col min="13057" max="13057" width="13.125" style="7" customWidth="1"/>
-    <col min="13058" max="13058" width="10.125" style="7" customWidth="1"/>
-    <col min="13059" max="13059" width="14.125" style="7" customWidth="1"/>
-    <col min="13060" max="13060" width="9.875" style="7" customWidth="1"/>
-    <col min="13061" max="13312" width="8.875" style="7"/>
-    <col min="13313" max="13313" width="13.125" style="7" customWidth="1"/>
-    <col min="13314" max="13314" width="10.125" style="7" customWidth="1"/>
-    <col min="13315" max="13315" width="14.125" style="7" customWidth="1"/>
-    <col min="13316" max="13316" width="9.875" style="7" customWidth="1"/>
-    <col min="13317" max="13568" width="8.875" style="7"/>
-    <col min="13569" max="13569" width="13.125" style="7" customWidth="1"/>
-    <col min="13570" max="13570" width="10.125" style="7" customWidth="1"/>
-    <col min="13571" max="13571" width="14.125" style="7" customWidth="1"/>
-    <col min="13572" max="13572" width="9.875" style="7" customWidth="1"/>
-    <col min="13573" max="13824" width="8.875" style="7"/>
-    <col min="13825" max="13825" width="13.125" style="7" customWidth="1"/>
-    <col min="13826" max="13826" width="10.125" style="7" customWidth="1"/>
-    <col min="13827" max="13827" width="14.125" style="7" customWidth="1"/>
-    <col min="13828" max="13828" width="9.875" style="7" customWidth="1"/>
-    <col min="13829" max="14080" width="8.875" style="7"/>
-    <col min="14081" max="14081" width="13.125" style="7" customWidth="1"/>
-    <col min="14082" max="14082" width="10.125" style="7" customWidth="1"/>
-    <col min="14083" max="14083" width="14.125" style="7" customWidth="1"/>
-    <col min="14084" max="14084" width="9.875" style="7" customWidth="1"/>
-    <col min="14085" max="14336" width="8.875" style="7"/>
-    <col min="14337" max="14337" width="13.125" style="7" customWidth="1"/>
-    <col min="14338" max="14338" width="10.125" style="7" customWidth="1"/>
-    <col min="14339" max="14339" width="14.125" style="7" customWidth="1"/>
-    <col min="14340" max="14340" width="9.875" style="7" customWidth="1"/>
-    <col min="14341" max="14592" width="8.875" style="7"/>
-    <col min="14593" max="14593" width="13.125" style="7" customWidth="1"/>
-    <col min="14594" max="14594" width="10.125" style="7" customWidth="1"/>
-    <col min="14595" max="14595" width="14.125" style="7" customWidth="1"/>
-    <col min="14596" max="14596" width="9.875" style="7" customWidth="1"/>
-    <col min="14597" max="14848" width="8.875" style="7"/>
-    <col min="14849" max="14849" width="13.125" style="7" customWidth="1"/>
-    <col min="14850" max="14850" width="10.125" style="7" customWidth="1"/>
-    <col min="14851" max="14851" width="14.125" style="7" customWidth="1"/>
-    <col min="14852" max="14852" width="9.875" style="7" customWidth="1"/>
-    <col min="14853" max="15104" width="8.875" style="7"/>
-    <col min="15105" max="15105" width="13.125" style="7" customWidth="1"/>
-    <col min="15106" max="15106" width="10.125" style="7" customWidth="1"/>
-    <col min="15107" max="15107" width="14.125" style="7" customWidth="1"/>
-    <col min="15108" max="15108" width="9.875" style="7" customWidth="1"/>
-    <col min="15109" max="15360" width="8.875" style="7"/>
-    <col min="15361" max="15361" width="13.125" style="7" customWidth="1"/>
-    <col min="15362" max="15362" width="10.125" style="7" customWidth="1"/>
-    <col min="15363" max="15363" width="14.125" style="7" customWidth="1"/>
-    <col min="15364" max="15364" width="9.875" style="7" customWidth="1"/>
-    <col min="15365" max="15616" width="8.875" style="7"/>
-    <col min="15617" max="15617" width="13.125" style="7" customWidth="1"/>
-    <col min="15618" max="15618" width="10.125" style="7" customWidth="1"/>
-    <col min="15619" max="15619" width="14.125" style="7" customWidth="1"/>
-    <col min="15620" max="15620" width="9.875" style="7" customWidth="1"/>
-    <col min="15621" max="15872" width="8.875" style="7"/>
-    <col min="15873" max="15873" width="13.125" style="7" customWidth="1"/>
-    <col min="15874" max="15874" width="10.125" style="7" customWidth="1"/>
-    <col min="15875" max="15875" width="14.125" style="7" customWidth="1"/>
-    <col min="15876" max="15876" width="9.875" style="7" customWidth="1"/>
-    <col min="15877" max="16128" width="8.875" style="7"/>
-    <col min="16129" max="16129" width="13.125" style="7" customWidth="1"/>
-    <col min="16130" max="16130" width="10.125" style="7" customWidth="1"/>
-    <col min="16131" max="16131" width="14.125" style="7" customWidth="1"/>
-    <col min="16132" max="16132" width="9.875" style="7" customWidth="1"/>
-    <col min="16133" max="16384" width="8.875" style="7"/>
+    <col min="1" max="1" width="13.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="13" customWidth="1"/>
+    <col min="5" max="256" width="8.83203125" style="7"/>
+    <col min="257" max="257" width="13.1640625" style="7" customWidth="1"/>
+    <col min="258" max="258" width="10.1640625" style="7" customWidth="1"/>
+    <col min="259" max="259" width="14.1640625" style="7" customWidth="1"/>
+    <col min="260" max="260" width="9.83203125" style="7" customWidth="1"/>
+    <col min="261" max="512" width="8.83203125" style="7"/>
+    <col min="513" max="513" width="13.1640625" style="7" customWidth="1"/>
+    <col min="514" max="514" width="10.1640625" style="7" customWidth="1"/>
+    <col min="515" max="515" width="14.1640625" style="7" customWidth="1"/>
+    <col min="516" max="516" width="9.83203125" style="7" customWidth="1"/>
+    <col min="517" max="768" width="8.83203125" style="7"/>
+    <col min="769" max="769" width="13.1640625" style="7" customWidth="1"/>
+    <col min="770" max="770" width="10.1640625" style="7" customWidth="1"/>
+    <col min="771" max="771" width="14.1640625" style="7" customWidth="1"/>
+    <col min="772" max="772" width="9.83203125" style="7" customWidth="1"/>
+    <col min="773" max="1024" width="8.83203125" style="7"/>
+    <col min="1025" max="1025" width="13.1640625" style="7" customWidth="1"/>
+    <col min="1026" max="1026" width="10.1640625" style="7" customWidth="1"/>
+    <col min="1027" max="1027" width="14.1640625" style="7" customWidth="1"/>
+    <col min="1028" max="1028" width="9.83203125" style="7" customWidth="1"/>
+    <col min="1029" max="1280" width="8.83203125" style="7"/>
+    <col min="1281" max="1281" width="13.1640625" style="7" customWidth="1"/>
+    <col min="1282" max="1282" width="10.1640625" style="7" customWidth="1"/>
+    <col min="1283" max="1283" width="14.1640625" style="7" customWidth="1"/>
+    <col min="1284" max="1284" width="9.83203125" style="7" customWidth="1"/>
+    <col min="1285" max="1536" width="8.83203125" style="7"/>
+    <col min="1537" max="1537" width="13.1640625" style="7" customWidth="1"/>
+    <col min="1538" max="1538" width="10.1640625" style="7" customWidth="1"/>
+    <col min="1539" max="1539" width="14.1640625" style="7" customWidth="1"/>
+    <col min="1540" max="1540" width="9.83203125" style="7" customWidth="1"/>
+    <col min="1541" max="1792" width="8.83203125" style="7"/>
+    <col min="1793" max="1793" width="13.1640625" style="7" customWidth="1"/>
+    <col min="1794" max="1794" width="10.1640625" style="7" customWidth="1"/>
+    <col min="1795" max="1795" width="14.1640625" style="7" customWidth="1"/>
+    <col min="1796" max="1796" width="9.83203125" style="7" customWidth="1"/>
+    <col min="1797" max="2048" width="8.83203125" style="7"/>
+    <col min="2049" max="2049" width="13.1640625" style="7" customWidth="1"/>
+    <col min="2050" max="2050" width="10.1640625" style="7" customWidth="1"/>
+    <col min="2051" max="2051" width="14.1640625" style="7" customWidth="1"/>
+    <col min="2052" max="2052" width="9.83203125" style="7" customWidth="1"/>
+    <col min="2053" max="2304" width="8.83203125" style="7"/>
+    <col min="2305" max="2305" width="13.1640625" style="7" customWidth="1"/>
+    <col min="2306" max="2306" width="10.1640625" style="7" customWidth="1"/>
+    <col min="2307" max="2307" width="14.1640625" style="7" customWidth="1"/>
+    <col min="2308" max="2308" width="9.83203125" style="7" customWidth="1"/>
+    <col min="2309" max="2560" width="8.83203125" style="7"/>
+    <col min="2561" max="2561" width="13.1640625" style="7" customWidth="1"/>
+    <col min="2562" max="2562" width="10.1640625" style="7" customWidth="1"/>
+    <col min="2563" max="2563" width="14.1640625" style="7" customWidth="1"/>
+    <col min="2564" max="2564" width="9.83203125" style="7" customWidth="1"/>
+    <col min="2565" max="2816" width="8.83203125" style="7"/>
+    <col min="2817" max="2817" width="13.1640625" style="7" customWidth="1"/>
+    <col min="2818" max="2818" width="10.1640625" style="7" customWidth="1"/>
+    <col min="2819" max="2819" width="14.1640625" style="7" customWidth="1"/>
+    <col min="2820" max="2820" width="9.83203125" style="7" customWidth="1"/>
+    <col min="2821" max="3072" width="8.83203125" style="7"/>
+    <col min="3073" max="3073" width="13.1640625" style="7" customWidth="1"/>
+    <col min="3074" max="3074" width="10.1640625" style="7" customWidth="1"/>
+    <col min="3075" max="3075" width="14.1640625" style="7" customWidth="1"/>
+    <col min="3076" max="3076" width="9.83203125" style="7" customWidth="1"/>
+    <col min="3077" max="3328" width="8.83203125" style="7"/>
+    <col min="3329" max="3329" width="13.1640625" style="7" customWidth="1"/>
+    <col min="3330" max="3330" width="10.1640625" style="7" customWidth="1"/>
+    <col min="3331" max="3331" width="14.1640625" style="7" customWidth="1"/>
+    <col min="3332" max="3332" width="9.83203125" style="7" customWidth="1"/>
+    <col min="3333" max="3584" width="8.83203125" style="7"/>
+    <col min="3585" max="3585" width="13.1640625" style="7" customWidth="1"/>
+    <col min="3586" max="3586" width="10.1640625" style="7" customWidth="1"/>
+    <col min="3587" max="3587" width="14.1640625" style="7" customWidth="1"/>
+    <col min="3588" max="3588" width="9.83203125" style="7" customWidth="1"/>
+    <col min="3589" max="3840" width="8.83203125" style="7"/>
+    <col min="3841" max="3841" width="13.1640625" style="7" customWidth="1"/>
+    <col min="3842" max="3842" width="10.1640625" style="7" customWidth="1"/>
+    <col min="3843" max="3843" width="14.1640625" style="7" customWidth="1"/>
+    <col min="3844" max="3844" width="9.83203125" style="7" customWidth="1"/>
+    <col min="3845" max="4096" width="8.83203125" style="7"/>
+    <col min="4097" max="4097" width="13.1640625" style="7" customWidth="1"/>
+    <col min="4098" max="4098" width="10.1640625" style="7" customWidth="1"/>
+    <col min="4099" max="4099" width="14.1640625" style="7" customWidth="1"/>
+    <col min="4100" max="4100" width="9.83203125" style="7" customWidth="1"/>
+    <col min="4101" max="4352" width="8.83203125" style="7"/>
+    <col min="4353" max="4353" width="13.1640625" style="7" customWidth="1"/>
+    <col min="4354" max="4354" width="10.1640625" style="7" customWidth="1"/>
+    <col min="4355" max="4355" width="14.1640625" style="7" customWidth="1"/>
+    <col min="4356" max="4356" width="9.83203125" style="7" customWidth="1"/>
+    <col min="4357" max="4608" width="8.83203125" style="7"/>
+    <col min="4609" max="4609" width="13.1640625" style="7" customWidth="1"/>
+    <col min="4610" max="4610" width="10.1640625" style="7" customWidth="1"/>
+    <col min="4611" max="4611" width="14.1640625" style="7" customWidth="1"/>
+    <col min="4612" max="4612" width="9.83203125" style="7" customWidth="1"/>
+    <col min="4613" max="4864" width="8.83203125" style="7"/>
+    <col min="4865" max="4865" width="13.1640625" style="7" customWidth="1"/>
+    <col min="4866" max="4866" width="10.1640625" style="7" customWidth="1"/>
+    <col min="4867" max="4867" width="14.1640625" style="7" customWidth="1"/>
+    <col min="4868" max="4868" width="9.83203125" style="7" customWidth="1"/>
+    <col min="4869" max="5120" width="8.83203125" style="7"/>
+    <col min="5121" max="5121" width="13.1640625" style="7" customWidth="1"/>
+    <col min="5122" max="5122" width="10.1640625" style="7" customWidth="1"/>
+    <col min="5123" max="5123" width="14.1640625" style="7" customWidth="1"/>
+    <col min="5124" max="5124" width="9.83203125" style="7" customWidth="1"/>
+    <col min="5125" max="5376" width="8.83203125" style="7"/>
+    <col min="5377" max="5377" width="13.1640625" style="7" customWidth="1"/>
+    <col min="5378" max="5378" width="10.1640625" style="7" customWidth="1"/>
+    <col min="5379" max="5379" width="14.1640625" style="7" customWidth="1"/>
+    <col min="5380" max="5380" width="9.83203125" style="7" customWidth="1"/>
+    <col min="5381" max="5632" width="8.83203125" style="7"/>
+    <col min="5633" max="5633" width="13.1640625" style="7" customWidth="1"/>
+    <col min="5634" max="5634" width="10.1640625" style="7" customWidth="1"/>
+    <col min="5635" max="5635" width="14.1640625" style="7" customWidth="1"/>
+    <col min="5636" max="5636" width="9.83203125" style="7" customWidth="1"/>
+    <col min="5637" max="5888" width="8.83203125" style="7"/>
+    <col min="5889" max="5889" width="13.1640625" style="7" customWidth="1"/>
+    <col min="5890" max="5890" width="10.1640625" style="7" customWidth="1"/>
+    <col min="5891" max="5891" width="14.1640625" style="7" customWidth="1"/>
+    <col min="5892" max="5892" width="9.83203125" style="7" customWidth="1"/>
+    <col min="5893" max="6144" width="8.83203125" style="7"/>
+    <col min="6145" max="6145" width="13.1640625" style="7" customWidth="1"/>
+    <col min="6146" max="6146" width="10.1640625" style="7" customWidth="1"/>
+    <col min="6147" max="6147" width="14.1640625" style="7" customWidth="1"/>
+    <col min="6148" max="6148" width="9.83203125" style="7" customWidth="1"/>
+    <col min="6149" max="6400" width="8.83203125" style="7"/>
+    <col min="6401" max="6401" width="13.1640625" style="7" customWidth="1"/>
+    <col min="6402" max="6402" width="10.1640625" style="7" customWidth="1"/>
+    <col min="6403" max="6403" width="14.1640625" style="7" customWidth="1"/>
+    <col min="6404" max="6404" width="9.83203125" style="7" customWidth="1"/>
+    <col min="6405" max="6656" width="8.83203125" style="7"/>
+    <col min="6657" max="6657" width="13.1640625" style="7" customWidth="1"/>
+    <col min="6658" max="6658" width="10.1640625" style="7" customWidth="1"/>
+    <col min="6659" max="6659" width="14.1640625" style="7" customWidth="1"/>
+    <col min="6660" max="6660" width="9.83203125" style="7" customWidth="1"/>
+    <col min="6661" max="6912" width="8.83203125" style="7"/>
+    <col min="6913" max="6913" width="13.1640625" style="7" customWidth="1"/>
+    <col min="6914" max="6914" width="10.1640625" style="7" customWidth="1"/>
+    <col min="6915" max="6915" width="14.1640625" style="7" customWidth="1"/>
+    <col min="6916" max="6916" width="9.83203125" style="7" customWidth="1"/>
+    <col min="6917" max="7168" width="8.83203125" style="7"/>
+    <col min="7169" max="7169" width="13.1640625" style="7" customWidth="1"/>
+    <col min="7170" max="7170" width="10.1640625" style="7" customWidth="1"/>
+    <col min="7171" max="7171" width="14.1640625" style="7" customWidth="1"/>
+    <col min="7172" max="7172" width="9.83203125" style="7" customWidth="1"/>
+    <col min="7173" max="7424" width="8.83203125" style="7"/>
+    <col min="7425" max="7425" width="13.1640625" style="7" customWidth="1"/>
+    <col min="7426" max="7426" width="10.1640625" style="7" customWidth="1"/>
+    <col min="7427" max="7427" width="14.1640625" style="7" customWidth="1"/>
+    <col min="7428" max="7428" width="9.83203125" style="7" customWidth="1"/>
+    <col min="7429" max="7680" width="8.83203125" style="7"/>
+    <col min="7681" max="7681" width="13.1640625" style="7" customWidth="1"/>
+    <col min="7682" max="7682" width="10.1640625" style="7" customWidth="1"/>
+    <col min="7683" max="7683" width="14.1640625" style="7" customWidth="1"/>
+    <col min="7684" max="7684" width="9.83203125" style="7" customWidth="1"/>
+    <col min="7685" max="7936" width="8.83203125" style="7"/>
+    <col min="7937" max="7937" width="13.1640625" style="7" customWidth="1"/>
+    <col min="7938" max="7938" width="10.1640625" style="7" customWidth="1"/>
+    <col min="7939" max="7939" width="14.1640625" style="7" customWidth="1"/>
+    <col min="7940" max="7940" width="9.83203125" style="7" customWidth="1"/>
+    <col min="7941" max="8192" width="8.83203125" style="7"/>
+    <col min="8193" max="8193" width="13.1640625" style="7" customWidth="1"/>
+    <col min="8194" max="8194" width="10.1640625" style="7" customWidth="1"/>
+    <col min="8195" max="8195" width="14.1640625" style="7" customWidth="1"/>
+    <col min="8196" max="8196" width="9.83203125" style="7" customWidth="1"/>
+    <col min="8197" max="8448" width="8.83203125" style="7"/>
+    <col min="8449" max="8449" width="13.1640625" style="7" customWidth="1"/>
+    <col min="8450" max="8450" width="10.1640625" style="7" customWidth="1"/>
+    <col min="8451" max="8451" width="14.1640625" style="7" customWidth="1"/>
+    <col min="8452" max="8452" width="9.83203125" style="7" customWidth="1"/>
+    <col min="8453" max="8704" width="8.83203125" style="7"/>
+    <col min="8705" max="8705" width="13.1640625" style="7" customWidth="1"/>
+    <col min="8706" max="8706" width="10.1640625" style="7" customWidth="1"/>
+    <col min="8707" max="8707" width="14.1640625" style="7" customWidth="1"/>
+    <col min="8708" max="8708" width="9.83203125" style="7" customWidth="1"/>
+    <col min="8709" max="8960" width="8.83203125" style="7"/>
+    <col min="8961" max="8961" width="13.1640625" style="7" customWidth="1"/>
+    <col min="8962" max="8962" width="10.1640625" style="7" customWidth="1"/>
+    <col min="8963" max="8963" width="14.1640625" style="7" customWidth="1"/>
+    <col min="8964" max="8964" width="9.83203125" style="7" customWidth="1"/>
+    <col min="8965" max="9216" width="8.83203125" style="7"/>
+    <col min="9217" max="9217" width="13.1640625" style="7" customWidth="1"/>
+    <col min="9218" max="9218" width="10.1640625" style="7" customWidth="1"/>
+    <col min="9219" max="9219" width="14.1640625" style="7" customWidth="1"/>
+    <col min="9220" max="9220" width="9.83203125" style="7" customWidth="1"/>
+    <col min="9221" max="9472" width="8.83203125" style="7"/>
+    <col min="9473" max="9473" width="13.1640625" style="7" customWidth="1"/>
+    <col min="9474" max="9474" width="10.1640625" style="7" customWidth="1"/>
+    <col min="9475" max="9475" width="14.1640625" style="7" customWidth="1"/>
+    <col min="9476" max="9476" width="9.83203125" style="7" customWidth="1"/>
+    <col min="9477" max="9728" width="8.83203125" style="7"/>
+    <col min="9729" max="9729" width="13.1640625" style="7" customWidth="1"/>
+    <col min="9730" max="9730" width="10.1640625" style="7" customWidth="1"/>
+    <col min="9731" max="9731" width="14.1640625" style="7" customWidth="1"/>
+    <col min="9732" max="9732" width="9.83203125" style="7" customWidth="1"/>
+    <col min="9733" max="9984" width="8.83203125" style="7"/>
+    <col min="9985" max="9985" width="13.1640625" style="7" customWidth="1"/>
+    <col min="9986" max="9986" width="10.1640625" style="7" customWidth="1"/>
+    <col min="9987" max="9987" width="14.1640625" style="7" customWidth="1"/>
+    <col min="9988" max="9988" width="9.83203125" style="7" customWidth="1"/>
+    <col min="9989" max="10240" width="8.83203125" style="7"/>
+    <col min="10241" max="10241" width="13.1640625" style="7" customWidth="1"/>
+    <col min="10242" max="10242" width="10.1640625" style="7" customWidth="1"/>
+    <col min="10243" max="10243" width="14.1640625" style="7" customWidth="1"/>
+    <col min="10244" max="10244" width="9.83203125" style="7" customWidth="1"/>
+    <col min="10245" max="10496" width="8.83203125" style="7"/>
+    <col min="10497" max="10497" width="13.1640625" style="7" customWidth="1"/>
+    <col min="10498" max="10498" width="10.1640625" style="7" customWidth="1"/>
+    <col min="10499" max="10499" width="14.1640625" style="7" customWidth="1"/>
+    <col min="10500" max="10500" width="9.83203125" style="7" customWidth="1"/>
+    <col min="10501" max="10752" width="8.83203125" style="7"/>
+    <col min="10753" max="10753" width="13.1640625" style="7" customWidth="1"/>
+    <col min="10754" max="10754" width="10.1640625" style="7" customWidth="1"/>
+    <col min="10755" max="10755" width="14.1640625" style="7" customWidth="1"/>
+    <col min="10756" max="10756" width="9.83203125" style="7" customWidth="1"/>
+    <col min="10757" max="11008" width="8.83203125" style="7"/>
+    <col min="11009" max="11009" width="13.1640625" style="7" customWidth="1"/>
+    <col min="11010" max="11010" width="10.1640625" style="7" customWidth="1"/>
+    <col min="11011" max="11011" width="14.1640625" style="7" customWidth="1"/>
+    <col min="11012" max="11012" width="9.83203125" style="7" customWidth="1"/>
+    <col min="11013" max="11264" width="8.83203125" style="7"/>
+    <col min="11265" max="11265" width="13.1640625" style="7" customWidth="1"/>
+    <col min="11266" max="11266" width="10.1640625" style="7" customWidth="1"/>
+    <col min="11267" max="11267" width="14.1640625" style="7" customWidth="1"/>
+    <col min="11268" max="11268" width="9.83203125" style="7" customWidth="1"/>
+    <col min="11269" max="11520" width="8.83203125" style="7"/>
+    <col min="11521" max="11521" width="13.1640625" style="7" customWidth="1"/>
+    <col min="11522" max="11522" width="10.1640625" style="7" customWidth="1"/>
+    <col min="11523" max="11523" width="14.1640625" style="7" customWidth="1"/>
+    <col min="11524" max="11524" width="9.83203125" style="7" customWidth="1"/>
+    <col min="11525" max="11776" width="8.83203125" style="7"/>
+    <col min="11777" max="11777" width="13.1640625" style="7" customWidth="1"/>
+    <col min="11778" max="11778" width="10.1640625" style="7" customWidth="1"/>
+    <col min="11779" max="11779" width="14.1640625" style="7" customWidth="1"/>
+    <col min="11780" max="11780" width="9.83203125" style="7" customWidth="1"/>
+    <col min="11781" max="12032" width="8.83203125" style="7"/>
+    <col min="12033" max="12033" width="13.1640625" style="7" customWidth="1"/>
+    <col min="12034" max="12034" width="10.1640625" style="7" customWidth="1"/>
+    <col min="12035" max="12035" width="14.1640625" style="7" customWidth="1"/>
+    <col min="12036" max="12036" width="9.83203125" style="7" customWidth="1"/>
+    <col min="12037" max="12288" width="8.83203125" style="7"/>
+    <col min="12289" max="12289" width="13.1640625" style="7" customWidth="1"/>
+    <col min="12290" max="12290" width="10.1640625" style="7" customWidth="1"/>
+    <col min="12291" max="12291" width="14.1640625" style="7" customWidth="1"/>
+    <col min="12292" max="12292" width="9.83203125" style="7" customWidth="1"/>
+    <col min="12293" max="12544" width="8.83203125" style="7"/>
+    <col min="12545" max="12545" width="13.1640625" style="7" customWidth="1"/>
+    <col min="12546" max="12546" width="10.1640625" style="7" customWidth="1"/>
+    <col min="12547" max="12547" width="14.1640625" style="7" customWidth="1"/>
+    <col min="12548" max="12548" width="9.83203125" style="7" customWidth="1"/>
+    <col min="12549" max="12800" width="8.83203125" style="7"/>
+    <col min="12801" max="12801" width="13.1640625" style="7" customWidth="1"/>
+    <col min="12802" max="12802" width="10.1640625" style="7" customWidth="1"/>
+    <col min="12803" max="12803" width="14.1640625" style="7" customWidth="1"/>
+    <col min="12804" max="12804" width="9.83203125" style="7" customWidth="1"/>
+    <col min="12805" max="13056" width="8.83203125" style="7"/>
+    <col min="13057" max="13057" width="13.1640625" style="7" customWidth="1"/>
+    <col min="13058" max="13058" width="10.1640625" style="7" customWidth="1"/>
+    <col min="13059" max="13059" width="14.1640625" style="7" customWidth="1"/>
+    <col min="13060" max="13060" width="9.83203125" style="7" customWidth="1"/>
+    <col min="13061" max="13312" width="8.83203125" style="7"/>
+    <col min="13313" max="13313" width="13.1640625" style="7" customWidth="1"/>
+    <col min="13314" max="13314" width="10.1640625" style="7" customWidth="1"/>
+    <col min="13315" max="13315" width="14.1640625" style="7" customWidth="1"/>
+    <col min="13316" max="13316" width="9.83203125" style="7" customWidth="1"/>
+    <col min="13317" max="13568" width="8.83203125" style="7"/>
+    <col min="13569" max="13569" width="13.1640625" style="7" customWidth="1"/>
+    <col min="13570" max="13570" width="10.1640625" style="7" customWidth="1"/>
+    <col min="13571" max="13571" width="14.1640625" style="7" customWidth="1"/>
+    <col min="13572" max="13572" width="9.83203125" style="7" customWidth="1"/>
+    <col min="13573" max="13824" width="8.83203125" style="7"/>
+    <col min="13825" max="13825" width="13.1640625" style="7" customWidth="1"/>
+    <col min="13826" max="13826" width="10.1640625" style="7" customWidth="1"/>
+    <col min="13827" max="13827" width="14.1640625" style="7" customWidth="1"/>
+    <col min="13828" max="13828" width="9.83203125" style="7" customWidth="1"/>
+    <col min="13829" max="14080" width="8.83203125" style="7"/>
+    <col min="14081" max="14081" width="13.1640625" style="7" customWidth="1"/>
+    <col min="14082" max="14082" width="10.1640625" style="7" customWidth="1"/>
+    <col min="14083" max="14083" width="14.1640625" style="7" customWidth="1"/>
+    <col min="14084" max="14084" width="9.83203125" style="7" customWidth="1"/>
+    <col min="14085" max="14336" width="8.83203125" style="7"/>
+    <col min="14337" max="14337" width="13.1640625" style="7" customWidth="1"/>
+    <col min="14338" max="14338" width="10.1640625" style="7" customWidth="1"/>
+    <col min="14339" max="14339" width="14.1640625" style="7" customWidth="1"/>
+    <col min="14340" max="14340" width="9.83203125" style="7" customWidth="1"/>
+    <col min="14341" max="14592" width="8.83203125" style="7"/>
+    <col min="14593" max="14593" width="13.1640625" style="7" customWidth="1"/>
+    <col min="14594" max="14594" width="10.1640625" style="7" customWidth="1"/>
+    <col min="14595" max="14595" width="14.1640625" style="7" customWidth="1"/>
+    <col min="14596" max="14596" width="9.83203125" style="7" customWidth="1"/>
+    <col min="14597" max="14848" width="8.83203125" style="7"/>
+    <col min="14849" max="14849" width="13.1640625" style="7" customWidth="1"/>
+    <col min="14850" max="14850" width="10.1640625" style="7" customWidth="1"/>
+    <col min="14851" max="14851" width="14.1640625" style="7" customWidth="1"/>
+    <col min="14852" max="14852" width="9.83203125" style="7" customWidth="1"/>
+    <col min="14853" max="15104" width="8.83203125" style="7"/>
+    <col min="15105" max="15105" width="13.1640625" style="7" customWidth="1"/>
+    <col min="15106" max="15106" width="10.1640625" style="7" customWidth="1"/>
+    <col min="15107" max="15107" width="14.1640625" style="7" customWidth="1"/>
+    <col min="15108" max="15108" width="9.83203125" style="7" customWidth="1"/>
+    <col min="15109" max="15360" width="8.83203125" style="7"/>
+    <col min="15361" max="15361" width="13.1640625" style="7" customWidth="1"/>
+    <col min="15362" max="15362" width="10.1640625" style="7" customWidth="1"/>
+    <col min="15363" max="15363" width="14.1640625" style="7" customWidth="1"/>
+    <col min="15364" max="15364" width="9.83203125" style="7" customWidth="1"/>
+    <col min="15365" max="15616" width="8.83203125" style="7"/>
+    <col min="15617" max="15617" width="13.1640625" style="7" customWidth="1"/>
+    <col min="15618" max="15618" width="10.1640625" style="7" customWidth="1"/>
+    <col min="15619" max="15619" width="14.1640625" style="7" customWidth="1"/>
+    <col min="15620" max="15620" width="9.83203125" style="7" customWidth="1"/>
+    <col min="15621" max="15872" width="8.83203125" style="7"/>
+    <col min="15873" max="15873" width="13.1640625" style="7" customWidth="1"/>
+    <col min="15874" max="15874" width="10.1640625" style="7" customWidth="1"/>
+    <col min="15875" max="15875" width="14.1640625" style="7" customWidth="1"/>
+    <col min="15876" max="15876" width="9.83203125" style="7" customWidth="1"/>
+    <col min="15877" max="16128" width="8.83203125" style="7"/>
+    <col min="16129" max="16129" width="13.1640625" style="7" customWidth="1"/>
+    <col min="16130" max="16130" width="10.1640625" style="7" customWidth="1"/>
+    <col min="16131" max="16131" width="14.1640625" style="7" customWidth="1"/>
+    <col min="16132" max="16132" width="9.83203125" style="7" customWidth="1"/>
+    <col min="16133" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="62" t="str">
+      <c r="A2" s="61" t="str">
         <f>CONCATENATE("Name: ", Common!E6)</f>
         <v xml:space="preserve">Name: </v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="64">
         <f>Common!E7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="66">
         <f>Common!E8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="64">
         <f>Common!E9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="99">
+      <c r="B6" s="47">
         <f>Common!E10</f>
         <v>0</v>
       </c>
@@ -3060,7 +3117,7 @@
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="99">
+      <c r="B7" s="47">
         <f>Common!E11</f>
         <v>0</v>
       </c>
@@ -3073,18 +3130,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3104,392 +3161,392 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="12" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="13" customWidth="1"/>
-    <col min="5" max="256" width="8.875" style="7"/>
-    <col min="257" max="257" width="12.875" style="7" customWidth="1"/>
-    <col min="258" max="258" width="10.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="13" customWidth="1"/>
+    <col min="5" max="256" width="8.83203125" style="7"/>
+    <col min="257" max="257" width="12.83203125" style="7" customWidth="1"/>
+    <col min="258" max="258" width="10.6640625" style="7" customWidth="1"/>
     <col min="259" max="259" width="12.5" style="7" customWidth="1"/>
-    <col min="260" max="260" width="8.375" style="7" customWidth="1"/>
-    <col min="261" max="512" width="8.875" style="7"/>
-    <col min="513" max="513" width="12.875" style="7" customWidth="1"/>
-    <col min="514" max="514" width="10.625" style="7" customWidth="1"/>
+    <col min="260" max="260" width="8.33203125" style="7" customWidth="1"/>
+    <col min="261" max="512" width="8.83203125" style="7"/>
+    <col min="513" max="513" width="12.83203125" style="7" customWidth="1"/>
+    <col min="514" max="514" width="10.6640625" style="7" customWidth="1"/>
     <col min="515" max="515" width="12.5" style="7" customWidth="1"/>
-    <col min="516" max="516" width="8.375" style="7" customWidth="1"/>
-    <col min="517" max="768" width="8.875" style="7"/>
-    <col min="769" max="769" width="12.875" style="7" customWidth="1"/>
-    <col min="770" max="770" width="10.625" style="7" customWidth="1"/>
+    <col min="516" max="516" width="8.33203125" style="7" customWidth="1"/>
+    <col min="517" max="768" width="8.83203125" style="7"/>
+    <col min="769" max="769" width="12.83203125" style="7" customWidth="1"/>
+    <col min="770" max="770" width="10.6640625" style="7" customWidth="1"/>
     <col min="771" max="771" width="12.5" style="7" customWidth="1"/>
-    <col min="772" max="772" width="8.375" style="7" customWidth="1"/>
-    <col min="773" max="1024" width="8.875" style="7"/>
-    <col min="1025" max="1025" width="12.875" style="7" customWidth="1"/>
-    <col min="1026" max="1026" width="10.625" style="7" customWidth="1"/>
+    <col min="772" max="772" width="8.33203125" style="7" customWidth="1"/>
+    <col min="773" max="1024" width="8.83203125" style="7"/>
+    <col min="1025" max="1025" width="12.83203125" style="7" customWidth="1"/>
+    <col min="1026" max="1026" width="10.6640625" style="7" customWidth="1"/>
     <col min="1027" max="1027" width="12.5" style="7" customWidth="1"/>
-    <col min="1028" max="1028" width="8.375" style="7" customWidth="1"/>
-    <col min="1029" max="1280" width="8.875" style="7"/>
-    <col min="1281" max="1281" width="12.875" style="7" customWidth="1"/>
-    <col min="1282" max="1282" width="10.625" style="7" customWidth="1"/>
+    <col min="1028" max="1028" width="8.33203125" style="7" customWidth="1"/>
+    <col min="1029" max="1280" width="8.83203125" style="7"/>
+    <col min="1281" max="1281" width="12.83203125" style="7" customWidth="1"/>
+    <col min="1282" max="1282" width="10.6640625" style="7" customWidth="1"/>
     <col min="1283" max="1283" width="12.5" style="7" customWidth="1"/>
-    <col min="1284" max="1284" width="8.375" style="7" customWidth="1"/>
-    <col min="1285" max="1536" width="8.875" style="7"/>
-    <col min="1537" max="1537" width="12.875" style="7" customWidth="1"/>
-    <col min="1538" max="1538" width="10.625" style="7" customWidth="1"/>
+    <col min="1284" max="1284" width="8.33203125" style="7" customWidth="1"/>
+    <col min="1285" max="1536" width="8.83203125" style="7"/>
+    <col min="1537" max="1537" width="12.83203125" style="7" customWidth="1"/>
+    <col min="1538" max="1538" width="10.6640625" style="7" customWidth="1"/>
     <col min="1539" max="1539" width="12.5" style="7" customWidth="1"/>
-    <col min="1540" max="1540" width="8.375" style="7" customWidth="1"/>
-    <col min="1541" max="1792" width="8.875" style="7"/>
-    <col min="1793" max="1793" width="12.875" style="7" customWidth="1"/>
-    <col min="1794" max="1794" width="10.625" style="7" customWidth="1"/>
+    <col min="1540" max="1540" width="8.33203125" style="7" customWidth="1"/>
+    <col min="1541" max="1792" width="8.83203125" style="7"/>
+    <col min="1793" max="1793" width="12.83203125" style="7" customWidth="1"/>
+    <col min="1794" max="1794" width="10.6640625" style="7" customWidth="1"/>
     <col min="1795" max="1795" width="12.5" style="7" customWidth="1"/>
-    <col min="1796" max="1796" width="8.375" style="7" customWidth="1"/>
-    <col min="1797" max="2048" width="8.875" style="7"/>
-    <col min="2049" max="2049" width="12.875" style="7" customWidth="1"/>
-    <col min="2050" max="2050" width="10.625" style="7" customWidth="1"/>
+    <col min="1796" max="1796" width="8.33203125" style="7" customWidth="1"/>
+    <col min="1797" max="2048" width="8.83203125" style="7"/>
+    <col min="2049" max="2049" width="12.83203125" style="7" customWidth="1"/>
+    <col min="2050" max="2050" width="10.6640625" style="7" customWidth="1"/>
     <col min="2051" max="2051" width="12.5" style="7" customWidth="1"/>
-    <col min="2052" max="2052" width="8.375" style="7" customWidth="1"/>
-    <col min="2053" max="2304" width="8.875" style="7"/>
-    <col min="2305" max="2305" width="12.875" style="7" customWidth="1"/>
-    <col min="2306" max="2306" width="10.625" style="7" customWidth="1"/>
+    <col min="2052" max="2052" width="8.33203125" style="7" customWidth="1"/>
+    <col min="2053" max="2304" width="8.83203125" style="7"/>
+    <col min="2305" max="2305" width="12.83203125" style="7" customWidth="1"/>
+    <col min="2306" max="2306" width="10.6640625" style="7" customWidth="1"/>
     <col min="2307" max="2307" width="12.5" style="7" customWidth="1"/>
-    <col min="2308" max="2308" width="8.375" style="7" customWidth="1"/>
-    <col min="2309" max="2560" width="8.875" style="7"/>
-    <col min="2561" max="2561" width="12.875" style="7" customWidth="1"/>
-    <col min="2562" max="2562" width="10.625" style="7" customWidth="1"/>
+    <col min="2308" max="2308" width="8.33203125" style="7" customWidth="1"/>
+    <col min="2309" max="2560" width="8.83203125" style="7"/>
+    <col min="2561" max="2561" width="12.83203125" style="7" customWidth="1"/>
+    <col min="2562" max="2562" width="10.6640625" style="7" customWidth="1"/>
     <col min="2563" max="2563" width="12.5" style="7" customWidth="1"/>
-    <col min="2564" max="2564" width="8.375" style="7" customWidth="1"/>
-    <col min="2565" max="2816" width="8.875" style="7"/>
-    <col min="2817" max="2817" width="12.875" style="7" customWidth="1"/>
-    <col min="2818" max="2818" width="10.625" style="7" customWidth="1"/>
+    <col min="2564" max="2564" width="8.33203125" style="7" customWidth="1"/>
+    <col min="2565" max="2816" width="8.83203125" style="7"/>
+    <col min="2817" max="2817" width="12.83203125" style="7" customWidth="1"/>
+    <col min="2818" max="2818" width="10.6640625" style="7" customWidth="1"/>
     <col min="2819" max="2819" width="12.5" style="7" customWidth="1"/>
-    <col min="2820" max="2820" width="8.375" style="7" customWidth="1"/>
-    <col min="2821" max="3072" width="8.875" style="7"/>
-    <col min="3073" max="3073" width="12.875" style="7" customWidth="1"/>
-    <col min="3074" max="3074" width="10.625" style="7" customWidth="1"/>
+    <col min="2820" max="2820" width="8.33203125" style="7" customWidth="1"/>
+    <col min="2821" max="3072" width="8.83203125" style="7"/>
+    <col min="3073" max="3073" width="12.83203125" style="7" customWidth="1"/>
+    <col min="3074" max="3074" width="10.6640625" style="7" customWidth="1"/>
     <col min="3075" max="3075" width="12.5" style="7" customWidth="1"/>
-    <col min="3076" max="3076" width="8.375" style="7" customWidth="1"/>
-    <col min="3077" max="3328" width="8.875" style="7"/>
-    <col min="3329" max="3329" width="12.875" style="7" customWidth="1"/>
-    <col min="3330" max="3330" width="10.625" style="7" customWidth="1"/>
+    <col min="3076" max="3076" width="8.33203125" style="7" customWidth="1"/>
+    <col min="3077" max="3328" width="8.83203125" style="7"/>
+    <col min="3329" max="3329" width="12.83203125" style="7" customWidth="1"/>
+    <col min="3330" max="3330" width="10.6640625" style="7" customWidth="1"/>
     <col min="3331" max="3331" width="12.5" style="7" customWidth="1"/>
-    <col min="3332" max="3332" width="8.375" style="7" customWidth="1"/>
-    <col min="3333" max="3584" width="8.875" style="7"/>
-    <col min="3585" max="3585" width="12.875" style="7" customWidth="1"/>
-    <col min="3586" max="3586" width="10.625" style="7" customWidth="1"/>
+    <col min="3332" max="3332" width="8.33203125" style="7" customWidth="1"/>
+    <col min="3333" max="3584" width="8.83203125" style="7"/>
+    <col min="3585" max="3585" width="12.83203125" style="7" customWidth="1"/>
+    <col min="3586" max="3586" width="10.6640625" style="7" customWidth="1"/>
     <col min="3587" max="3587" width="12.5" style="7" customWidth="1"/>
-    <col min="3588" max="3588" width="8.375" style="7" customWidth="1"/>
-    <col min="3589" max="3840" width="8.875" style="7"/>
-    <col min="3841" max="3841" width="12.875" style="7" customWidth="1"/>
-    <col min="3842" max="3842" width="10.625" style="7" customWidth="1"/>
+    <col min="3588" max="3588" width="8.33203125" style="7" customWidth="1"/>
+    <col min="3589" max="3840" width="8.83203125" style="7"/>
+    <col min="3841" max="3841" width="12.83203125" style="7" customWidth="1"/>
+    <col min="3842" max="3842" width="10.6640625" style="7" customWidth="1"/>
     <col min="3843" max="3843" width="12.5" style="7" customWidth="1"/>
-    <col min="3844" max="3844" width="8.375" style="7" customWidth="1"/>
-    <col min="3845" max="4096" width="8.875" style="7"/>
-    <col min="4097" max="4097" width="12.875" style="7" customWidth="1"/>
-    <col min="4098" max="4098" width="10.625" style="7" customWidth="1"/>
+    <col min="3844" max="3844" width="8.33203125" style="7" customWidth="1"/>
+    <col min="3845" max="4096" width="8.83203125" style="7"/>
+    <col min="4097" max="4097" width="12.83203125" style="7" customWidth="1"/>
+    <col min="4098" max="4098" width="10.6640625" style="7" customWidth="1"/>
     <col min="4099" max="4099" width="12.5" style="7" customWidth="1"/>
-    <col min="4100" max="4100" width="8.375" style="7" customWidth="1"/>
-    <col min="4101" max="4352" width="8.875" style="7"/>
-    <col min="4353" max="4353" width="12.875" style="7" customWidth="1"/>
-    <col min="4354" max="4354" width="10.625" style="7" customWidth="1"/>
+    <col min="4100" max="4100" width="8.33203125" style="7" customWidth="1"/>
+    <col min="4101" max="4352" width="8.83203125" style="7"/>
+    <col min="4353" max="4353" width="12.83203125" style="7" customWidth="1"/>
+    <col min="4354" max="4354" width="10.6640625" style="7" customWidth="1"/>
     <col min="4355" max="4355" width="12.5" style="7" customWidth="1"/>
-    <col min="4356" max="4356" width="8.375" style="7" customWidth="1"/>
-    <col min="4357" max="4608" width="8.875" style="7"/>
-    <col min="4609" max="4609" width="12.875" style="7" customWidth="1"/>
-    <col min="4610" max="4610" width="10.625" style="7" customWidth="1"/>
+    <col min="4356" max="4356" width="8.33203125" style="7" customWidth="1"/>
+    <col min="4357" max="4608" width="8.83203125" style="7"/>
+    <col min="4609" max="4609" width="12.83203125" style="7" customWidth="1"/>
+    <col min="4610" max="4610" width="10.6640625" style="7" customWidth="1"/>
     <col min="4611" max="4611" width="12.5" style="7" customWidth="1"/>
-    <col min="4612" max="4612" width="8.375" style="7" customWidth="1"/>
-    <col min="4613" max="4864" width="8.875" style="7"/>
-    <col min="4865" max="4865" width="12.875" style="7" customWidth="1"/>
-    <col min="4866" max="4866" width="10.625" style="7" customWidth="1"/>
+    <col min="4612" max="4612" width="8.33203125" style="7" customWidth="1"/>
+    <col min="4613" max="4864" width="8.83203125" style="7"/>
+    <col min="4865" max="4865" width="12.83203125" style="7" customWidth="1"/>
+    <col min="4866" max="4866" width="10.6640625" style="7" customWidth="1"/>
     <col min="4867" max="4867" width="12.5" style="7" customWidth="1"/>
-    <col min="4868" max="4868" width="8.375" style="7" customWidth="1"/>
-    <col min="4869" max="5120" width="8.875" style="7"/>
-    <col min="5121" max="5121" width="12.875" style="7" customWidth="1"/>
-    <col min="5122" max="5122" width="10.625" style="7" customWidth="1"/>
+    <col min="4868" max="4868" width="8.33203125" style="7" customWidth="1"/>
+    <col min="4869" max="5120" width="8.83203125" style="7"/>
+    <col min="5121" max="5121" width="12.83203125" style="7" customWidth="1"/>
+    <col min="5122" max="5122" width="10.6640625" style="7" customWidth="1"/>
     <col min="5123" max="5123" width="12.5" style="7" customWidth="1"/>
-    <col min="5124" max="5124" width="8.375" style="7" customWidth="1"/>
-    <col min="5125" max="5376" width="8.875" style="7"/>
-    <col min="5377" max="5377" width="12.875" style="7" customWidth="1"/>
-    <col min="5378" max="5378" width="10.625" style="7" customWidth="1"/>
+    <col min="5124" max="5124" width="8.33203125" style="7" customWidth="1"/>
+    <col min="5125" max="5376" width="8.83203125" style="7"/>
+    <col min="5377" max="5377" width="12.83203125" style="7" customWidth="1"/>
+    <col min="5378" max="5378" width="10.6640625" style="7" customWidth="1"/>
     <col min="5379" max="5379" width="12.5" style="7" customWidth="1"/>
-    <col min="5380" max="5380" width="8.375" style="7" customWidth="1"/>
-    <col min="5381" max="5632" width="8.875" style="7"/>
-    <col min="5633" max="5633" width="12.875" style="7" customWidth="1"/>
-    <col min="5634" max="5634" width="10.625" style="7" customWidth="1"/>
+    <col min="5380" max="5380" width="8.33203125" style="7" customWidth="1"/>
+    <col min="5381" max="5632" width="8.83203125" style="7"/>
+    <col min="5633" max="5633" width="12.83203125" style="7" customWidth="1"/>
+    <col min="5634" max="5634" width="10.6640625" style="7" customWidth="1"/>
     <col min="5635" max="5635" width="12.5" style="7" customWidth="1"/>
-    <col min="5636" max="5636" width="8.375" style="7" customWidth="1"/>
-    <col min="5637" max="5888" width="8.875" style="7"/>
-    <col min="5889" max="5889" width="12.875" style="7" customWidth="1"/>
-    <col min="5890" max="5890" width="10.625" style="7" customWidth="1"/>
+    <col min="5636" max="5636" width="8.33203125" style="7" customWidth="1"/>
+    <col min="5637" max="5888" width="8.83203125" style="7"/>
+    <col min="5889" max="5889" width="12.83203125" style="7" customWidth="1"/>
+    <col min="5890" max="5890" width="10.6640625" style="7" customWidth="1"/>
     <col min="5891" max="5891" width="12.5" style="7" customWidth="1"/>
-    <col min="5892" max="5892" width="8.375" style="7" customWidth="1"/>
-    <col min="5893" max="6144" width="8.875" style="7"/>
-    <col min="6145" max="6145" width="12.875" style="7" customWidth="1"/>
-    <col min="6146" max="6146" width="10.625" style="7" customWidth="1"/>
+    <col min="5892" max="5892" width="8.33203125" style="7" customWidth="1"/>
+    <col min="5893" max="6144" width="8.83203125" style="7"/>
+    <col min="6145" max="6145" width="12.83203125" style="7" customWidth="1"/>
+    <col min="6146" max="6146" width="10.6640625" style="7" customWidth="1"/>
     <col min="6147" max="6147" width="12.5" style="7" customWidth="1"/>
-    <col min="6148" max="6148" width="8.375" style="7" customWidth="1"/>
-    <col min="6149" max="6400" width="8.875" style="7"/>
-    <col min="6401" max="6401" width="12.875" style="7" customWidth="1"/>
-    <col min="6402" max="6402" width="10.625" style="7" customWidth="1"/>
+    <col min="6148" max="6148" width="8.33203125" style="7" customWidth="1"/>
+    <col min="6149" max="6400" width="8.83203125" style="7"/>
+    <col min="6401" max="6401" width="12.83203125" style="7" customWidth="1"/>
+    <col min="6402" max="6402" width="10.6640625" style="7" customWidth="1"/>
     <col min="6403" max="6403" width="12.5" style="7" customWidth="1"/>
-    <col min="6404" max="6404" width="8.375" style="7" customWidth="1"/>
-    <col min="6405" max="6656" width="8.875" style="7"/>
-    <col min="6657" max="6657" width="12.875" style="7" customWidth="1"/>
-    <col min="6658" max="6658" width="10.625" style="7" customWidth="1"/>
+    <col min="6404" max="6404" width="8.33203125" style="7" customWidth="1"/>
+    <col min="6405" max="6656" width="8.83203125" style="7"/>
+    <col min="6657" max="6657" width="12.83203125" style="7" customWidth="1"/>
+    <col min="6658" max="6658" width="10.6640625" style="7" customWidth="1"/>
     <col min="6659" max="6659" width="12.5" style="7" customWidth="1"/>
-    <col min="6660" max="6660" width="8.375" style="7" customWidth="1"/>
-    <col min="6661" max="6912" width="8.875" style="7"/>
-    <col min="6913" max="6913" width="12.875" style="7" customWidth="1"/>
-    <col min="6914" max="6914" width="10.625" style="7" customWidth="1"/>
+    <col min="6660" max="6660" width="8.33203125" style="7" customWidth="1"/>
+    <col min="6661" max="6912" width="8.83203125" style="7"/>
+    <col min="6913" max="6913" width="12.83203125" style="7" customWidth="1"/>
+    <col min="6914" max="6914" width="10.6640625" style="7" customWidth="1"/>
     <col min="6915" max="6915" width="12.5" style="7" customWidth="1"/>
-    <col min="6916" max="6916" width="8.375" style="7" customWidth="1"/>
-    <col min="6917" max="7168" width="8.875" style="7"/>
-    <col min="7169" max="7169" width="12.875" style="7" customWidth="1"/>
-    <col min="7170" max="7170" width="10.625" style="7" customWidth="1"/>
+    <col min="6916" max="6916" width="8.33203125" style="7" customWidth="1"/>
+    <col min="6917" max="7168" width="8.83203125" style="7"/>
+    <col min="7169" max="7169" width="12.83203125" style="7" customWidth="1"/>
+    <col min="7170" max="7170" width="10.6640625" style="7" customWidth="1"/>
     <col min="7171" max="7171" width="12.5" style="7" customWidth="1"/>
-    <col min="7172" max="7172" width="8.375" style="7" customWidth="1"/>
-    <col min="7173" max="7424" width="8.875" style="7"/>
-    <col min="7425" max="7425" width="12.875" style="7" customWidth="1"/>
-    <col min="7426" max="7426" width="10.625" style="7" customWidth="1"/>
+    <col min="7172" max="7172" width="8.33203125" style="7" customWidth="1"/>
+    <col min="7173" max="7424" width="8.83203125" style="7"/>
+    <col min="7425" max="7425" width="12.83203125" style="7" customWidth="1"/>
+    <col min="7426" max="7426" width="10.6640625" style="7" customWidth="1"/>
     <col min="7427" max="7427" width="12.5" style="7" customWidth="1"/>
-    <col min="7428" max="7428" width="8.375" style="7" customWidth="1"/>
-    <col min="7429" max="7680" width="8.875" style="7"/>
-    <col min="7681" max="7681" width="12.875" style="7" customWidth="1"/>
-    <col min="7682" max="7682" width="10.625" style="7" customWidth="1"/>
+    <col min="7428" max="7428" width="8.33203125" style="7" customWidth="1"/>
+    <col min="7429" max="7680" width="8.83203125" style="7"/>
+    <col min="7681" max="7681" width="12.83203125" style="7" customWidth="1"/>
+    <col min="7682" max="7682" width="10.6640625" style="7" customWidth="1"/>
     <col min="7683" max="7683" width="12.5" style="7" customWidth="1"/>
-    <col min="7684" max="7684" width="8.375" style="7" customWidth="1"/>
-    <col min="7685" max="7936" width="8.875" style="7"/>
-    <col min="7937" max="7937" width="12.875" style="7" customWidth="1"/>
-    <col min="7938" max="7938" width="10.625" style="7" customWidth="1"/>
+    <col min="7684" max="7684" width="8.33203125" style="7" customWidth="1"/>
+    <col min="7685" max="7936" width="8.83203125" style="7"/>
+    <col min="7937" max="7937" width="12.83203125" style="7" customWidth="1"/>
+    <col min="7938" max="7938" width="10.6640625" style="7" customWidth="1"/>
     <col min="7939" max="7939" width="12.5" style="7" customWidth="1"/>
-    <col min="7940" max="7940" width="8.375" style="7" customWidth="1"/>
-    <col min="7941" max="8192" width="8.875" style="7"/>
-    <col min="8193" max="8193" width="12.875" style="7" customWidth="1"/>
-    <col min="8194" max="8194" width="10.625" style="7" customWidth="1"/>
+    <col min="7940" max="7940" width="8.33203125" style="7" customWidth="1"/>
+    <col min="7941" max="8192" width="8.83203125" style="7"/>
+    <col min="8193" max="8193" width="12.83203125" style="7" customWidth="1"/>
+    <col min="8194" max="8194" width="10.6640625" style="7" customWidth="1"/>
     <col min="8195" max="8195" width="12.5" style="7" customWidth="1"/>
-    <col min="8196" max="8196" width="8.375" style="7" customWidth="1"/>
-    <col min="8197" max="8448" width="8.875" style="7"/>
-    <col min="8449" max="8449" width="12.875" style="7" customWidth="1"/>
-    <col min="8450" max="8450" width="10.625" style="7" customWidth="1"/>
+    <col min="8196" max="8196" width="8.33203125" style="7" customWidth="1"/>
+    <col min="8197" max="8448" width="8.83203125" style="7"/>
+    <col min="8449" max="8449" width="12.83203125" style="7" customWidth="1"/>
+    <col min="8450" max="8450" width="10.6640625" style="7" customWidth="1"/>
     <col min="8451" max="8451" width="12.5" style="7" customWidth="1"/>
-    <col min="8452" max="8452" width="8.375" style="7" customWidth="1"/>
-    <col min="8453" max="8704" width="8.875" style="7"/>
-    <col min="8705" max="8705" width="12.875" style="7" customWidth="1"/>
-    <col min="8706" max="8706" width="10.625" style="7" customWidth="1"/>
+    <col min="8452" max="8452" width="8.33203125" style="7" customWidth="1"/>
+    <col min="8453" max="8704" width="8.83203125" style="7"/>
+    <col min="8705" max="8705" width="12.83203125" style="7" customWidth="1"/>
+    <col min="8706" max="8706" width="10.6640625" style="7" customWidth="1"/>
     <col min="8707" max="8707" width="12.5" style="7" customWidth="1"/>
-    <col min="8708" max="8708" width="8.375" style="7" customWidth="1"/>
-    <col min="8709" max="8960" width="8.875" style="7"/>
-    <col min="8961" max="8961" width="12.875" style="7" customWidth="1"/>
-    <col min="8962" max="8962" width="10.625" style="7" customWidth="1"/>
+    <col min="8708" max="8708" width="8.33203125" style="7" customWidth="1"/>
+    <col min="8709" max="8960" width="8.83203125" style="7"/>
+    <col min="8961" max="8961" width="12.83203125" style="7" customWidth="1"/>
+    <col min="8962" max="8962" width="10.6640625" style="7" customWidth="1"/>
     <col min="8963" max="8963" width="12.5" style="7" customWidth="1"/>
-    <col min="8964" max="8964" width="8.375" style="7" customWidth="1"/>
-    <col min="8965" max="9216" width="8.875" style="7"/>
-    <col min="9217" max="9217" width="12.875" style="7" customWidth="1"/>
-    <col min="9218" max="9218" width="10.625" style="7" customWidth="1"/>
+    <col min="8964" max="8964" width="8.33203125" style="7" customWidth="1"/>
+    <col min="8965" max="9216" width="8.83203125" style="7"/>
+    <col min="9217" max="9217" width="12.83203125" style="7" customWidth="1"/>
+    <col min="9218" max="9218" width="10.6640625" style="7" customWidth="1"/>
     <col min="9219" max="9219" width="12.5" style="7" customWidth="1"/>
-    <col min="9220" max="9220" width="8.375" style="7" customWidth="1"/>
-    <col min="9221" max="9472" width="8.875" style="7"/>
-    <col min="9473" max="9473" width="12.875" style="7" customWidth="1"/>
-    <col min="9474" max="9474" width="10.625" style="7" customWidth="1"/>
+    <col min="9220" max="9220" width="8.33203125" style="7" customWidth="1"/>
+    <col min="9221" max="9472" width="8.83203125" style="7"/>
+    <col min="9473" max="9473" width="12.83203125" style="7" customWidth="1"/>
+    <col min="9474" max="9474" width="10.6640625" style="7" customWidth="1"/>
     <col min="9475" max="9475" width="12.5" style="7" customWidth="1"/>
-    <col min="9476" max="9476" width="8.375" style="7" customWidth="1"/>
-    <col min="9477" max="9728" width="8.875" style="7"/>
-    <col min="9729" max="9729" width="12.875" style="7" customWidth="1"/>
-    <col min="9730" max="9730" width="10.625" style="7" customWidth="1"/>
+    <col min="9476" max="9476" width="8.33203125" style="7" customWidth="1"/>
+    <col min="9477" max="9728" width="8.83203125" style="7"/>
+    <col min="9729" max="9729" width="12.83203125" style="7" customWidth="1"/>
+    <col min="9730" max="9730" width="10.6640625" style="7" customWidth="1"/>
     <col min="9731" max="9731" width="12.5" style="7" customWidth="1"/>
-    <col min="9732" max="9732" width="8.375" style="7" customWidth="1"/>
-    <col min="9733" max="9984" width="8.875" style="7"/>
-    <col min="9985" max="9985" width="12.875" style="7" customWidth="1"/>
-    <col min="9986" max="9986" width="10.625" style="7" customWidth="1"/>
+    <col min="9732" max="9732" width="8.33203125" style="7" customWidth="1"/>
+    <col min="9733" max="9984" width="8.83203125" style="7"/>
+    <col min="9985" max="9985" width="12.83203125" style="7" customWidth="1"/>
+    <col min="9986" max="9986" width="10.6640625" style="7" customWidth="1"/>
     <col min="9987" max="9987" width="12.5" style="7" customWidth="1"/>
-    <col min="9988" max="9988" width="8.375" style="7" customWidth="1"/>
-    <col min="9989" max="10240" width="8.875" style="7"/>
-    <col min="10241" max="10241" width="12.875" style="7" customWidth="1"/>
-    <col min="10242" max="10242" width="10.625" style="7" customWidth="1"/>
+    <col min="9988" max="9988" width="8.33203125" style="7" customWidth="1"/>
+    <col min="9989" max="10240" width="8.83203125" style="7"/>
+    <col min="10241" max="10241" width="12.83203125" style="7" customWidth="1"/>
+    <col min="10242" max="10242" width="10.6640625" style="7" customWidth="1"/>
     <col min="10243" max="10243" width="12.5" style="7" customWidth="1"/>
-    <col min="10244" max="10244" width="8.375" style="7" customWidth="1"/>
-    <col min="10245" max="10496" width="8.875" style="7"/>
-    <col min="10497" max="10497" width="12.875" style="7" customWidth="1"/>
-    <col min="10498" max="10498" width="10.625" style="7" customWidth="1"/>
+    <col min="10244" max="10244" width="8.33203125" style="7" customWidth="1"/>
+    <col min="10245" max="10496" width="8.83203125" style="7"/>
+    <col min="10497" max="10497" width="12.83203125" style="7" customWidth="1"/>
+    <col min="10498" max="10498" width="10.6640625" style="7" customWidth="1"/>
     <col min="10499" max="10499" width="12.5" style="7" customWidth="1"/>
-    <col min="10500" max="10500" width="8.375" style="7" customWidth="1"/>
-    <col min="10501" max="10752" width="8.875" style="7"/>
-    <col min="10753" max="10753" width="12.875" style="7" customWidth="1"/>
-    <col min="10754" max="10754" width="10.625" style="7" customWidth="1"/>
+    <col min="10500" max="10500" width="8.33203125" style="7" customWidth="1"/>
+    <col min="10501" max="10752" width="8.83203125" style="7"/>
+    <col min="10753" max="10753" width="12.83203125" style="7" customWidth="1"/>
+    <col min="10754" max="10754" width="10.6640625" style="7" customWidth="1"/>
     <col min="10755" max="10755" width="12.5" style="7" customWidth="1"/>
-    <col min="10756" max="10756" width="8.375" style="7" customWidth="1"/>
-    <col min="10757" max="11008" width="8.875" style="7"/>
-    <col min="11009" max="11009" width="12.875" style="7" customWidth="1"/>
-    <col min="11010" max="11010" width="10.625" style="7" customWidth="1"/>
+    <col min="10756" max="10756" width="8.33203125" style="7" customWidth="1"/>
+    <col min="10757" max="11008" width="8.83203125" style="7"/>
+    <col min="11009" max="11009" width="12.83203125" style="7" customWidth="1"/>
+    <col min="11010" max="11010" width="10.6640625" style="7" customWidth="1"/>
     <col min="11011" max="11011" width="12.5" style="7" customWidth="1"/>
-    <col min="11012" max="11012" width="8.375" style="7" customWidth="1"/>
-    <col min="11013" max="11264" width="8.875" style="7"/>
-    <col min="11265" max="11265" width="12.875" style="7" customWidth="1"/>
-    <col min="11266" max="11266" width="10.625" style="7" customWidth="1"/>
+    <col min="11012" max="11012" width="8.33203125" style="7" customWidth="1"/>
+    <col min="11013" max="11264" width="8.83203125" style="7"/>
+    <col min="11265" max="11265" width="12.83203125" style="7" customWidth="1"/>
+    <col min="11266" max="11266" width="10.6640625" style="7" customWidth="1"/>
     <col min="11267" max="11267" width="12.5" style="7" customWidth="1"/>
-    <col min="11268" max="11268" width="8.375" style="7" customWidth="1"/>
-    <col min="11269" max="11520" width="8.875" style="7"/>
-    <col min="11521" max="11521" width="12.875" style="7" customWidth="1"/>
-    <col min="11522" max="11522" width="10.625" style="7" customWidth="1"/>
+    <col min="11268" max="11268" width="8.33203125" style="7" customWidth="1"/>
+    <col min="11269" max="11520" width="8.83203125" style="7"/>
+    <col min="11521" max="11521" width="12.83203125" style="7" customWidth="1"/>
+    <col min="11522" max="11522" width="10.6640625" style="7" customWidth="1"/>
     <col min="11523" max="11523" width="12.5" style="7" customWidth="1"/>
-    <col min="11524" max="11524" width="8.375" style="7" customWidth="1"/>
-    <col min="11525" max="11776" width="8.875" style="7"/>
-    <col min="11777" max="11777" width="12.875" style="7" customWidth="1"/>
-    <col min="11778" max="11778" width="10.625" style="7" customWidth="1"/>
+    <col min="11524" max="11524" width="8.33203125" style="7" customWidth="1"/>
+    <col min="11525" max="11776" width="8.83203125" style="7"/>
+    <col min="11777" max="11777" width="12.83203125" style="7" customWidth="1"/>
+    <col min="11778" max="11778" width="10.6640625" style="7" customWidth="1"/>
     <col min="11779" max="11779" width="12.5" style="7" customWidth="1"/>
-    <col min="11780" max="11780" width="8.375" style="7" customWidth="1"/>
-    <col min="11781" max="12032" width="8.875" style="7"/>
-    <col min="12033" max="12033" width="12.875" style="7" customWidth="1"/>
-    <col min="12034" max="12034" width="10.625" style="7" customWidth="1"/>
+    <col min="11780" max="11780" width="8.33203125" style="7" customWidth="1"/>
+    <col min="11781" max="12032" width="8.83203125" style="7"/>
+    <col min="12033" max="12033" width="12.83203125" style="7" customWidth="1"/>
+    <col min="12034" max="12034" width="10.6640625" style="7" customWidth="1"/>
     <col min="12035" max="12035" width="12.5" style="7" customWidth="1"/>
-    <col min="12036" max="12036" width="8.375" style="7" customWidth="1"/>
-    <col min="12037" max="12288" width="8.875" style="7"/>
-    <col min="12289" max="12289" width="12.875" style="7" customWidth="1"/>
-    <col min="12290" max="12290" width="10.625" style="7" customWidth="1"/>
+    <col min="12036" max="12036" width="8.33203125" style="7" customWidth="1"/>
+    <col min="12037" max="12288" width="8.83203125" style="7"/>
+    <col min="12289" max="12289" width="12.83203125" style="7" customWidth="1"/>
+    <col min="12290" max="12290" width="10.6640625" style="7" customWidth="1"/>
     <col min="12291" max="12291" width="12.5" style="7" customWidth="1"/>
-    <col min="12292" max="12292" width="8.375" style="7" customWidth="1"/>
-    <col min="12293" max="12544" width="8.875" style="7"/>
-    <col min="12545" max="12545" width="12.875" style="7" customWidth="1"/>
-    <col min="12546" max="12546" width="10.625" style="7" customWidth="1"/>
+    <col min="12292" max="12292" width="8.33203125" style="7" customWidth="1"/>
+    <col min="12293" max="12544" width="8.83203125" style="7"/>
+    <col min="12545" max="12545" width="12.83203125" style="7" customWidth="1"/>
+    <col min="12546" max="12546" width="10.6640625" style="7" customWidth="1"/>
     <col min="12547" max="12547" width="12.5" style="7" customWidth="1"/>
-    <col min="12548" max="12548" width="8.375" style="7" customWidth="1"/>
-    <col min="12549" max="12800" width="8.875" style="7"/>
-    <col min="12801" max="12801" width="12.875" style="7" customWidth="1"/>
-    <col min="12802" max="12802" width="10.625" style="7" customWidth="1"/>
+    <col min="12548" max="12548" width="8.33203125" style="7" customWidth="1"/>
+    <col min="12549" max="12800" width="8.83203125" style="7"/>
+    <col min="12801" max="12801" width="12.83203125" style="7" customWidth="1"/>
+    <col min="12802" max="12802" width="10.6640625" style="7" customWidth="1"/>
     <col min="12803" max="12803" width="12.5" style="7" customWidth="1"/>
-    <col min="12804" max="12804" width="8.375" style="7" customWidth="1"/>
-    <col min="12805" max="13056" width="8.875" style="7"/>
-    <col min="13057" max="13057" width="12.875" style="7" customWidth="1"/>
-    <col min="13058" max="13058" width="10.625" style="7" customWidth="1"/>
+    <col min="12804" max="12804" width="8.33203125" style="7" customWidth="1"/>
+    <col min="12805" max="13056" width="8.83203125" style="7"/>
+    <col min="13057" max="13057" width="12.83203125" style="7" customWidth="1"/>
+    <col min="13058" max="13058" width="10.6640625" style="7" customWidth="1"/>
     <col min="13059" max="13059" width="12.5" style="7" customWidth="1"/>
-    <col min="13060" max="13060" width="8.375" style="7" customWidth="1"/>
-    <col min="13061" max="13312" width="8.875" style="7"/>
-    <col min="13313" max="13313" width="12.875" style="7" customWidth="1"/>
-    <col min="13314" max="13314" width="10.625" style="7" customWidth="1"/>
+    <col min="13060" max="13060" width="8.33203125" style="7" customWidth="1"/>
+    <col min="13061" max="13312" width="8.83203125" style="7"/>
+    <col min="13313" max="13313" width="12.83203125" style="7" customWidth="1"/>
+    <col min="13314" max="13314" width="10.6640625" style="7" customWidth="1"/>
     <col min="13315" max="13315" width="12.5" style="7" customWidth="1"/>
-    <col min="13316" max="13316" width="8.375" style="7" customWidth="1"/>
-    <col min="13317" max="13568" width="8.875" style="7"/>
-    <col min="13569" max="13569" width="12.875" style="7" customWidth="1"/>
-    <col min="13570" max="13570" width="10.625" style="7" customWidth="1"/>
+    <col min="13316" max="13316" width="8.33203125" style="7" customWidth="1"/>
+    <col min="13317" max="13568" width="8.83203125" style="7"/>
+    <col min="13569" max="13569" width="12.83203125" style="7" customWidth="1"/>
+    <col min="13570" max="13570" width="10.6640625" style="7" customWidth="1"/>
     <col min="13571" max="13571" width="12.5" style="7" customWidth="1"/>
-    <col min="13572" max="13572" width="8.375" style="7" customWidth="1"/>
-    <col min="13573" max="13824" width="8.875" style="7"/>
-    <col min="13825" max="13825" width="12.875" style="7" customWidth="1"/>
-    <col min="13826" max="13826" width="10.625" style="7" customWidth="1"/>
+    <col min="13572" max="13572" width="8.33203125" style="7" customWidth="1"/>
+    <col min="13573" max="13824" width="8.83203125" style="7"/>
+    <col min="13825" max="13825" width="12.83203125" style="7" customWidth="1"/>
+    <col min="13826" max="13826" width="10.6640625" style="7" customWidth="1"/>
     <col min="13827" max="13827" width="12.5" style="7" customWidth="1"/>
-    <col min="13828" max="13828" width="8.375" style="7" customWidth="1"/>
-    <col min="13829" max="14080" width="8.875" style="7"/>
-    <col min="14081" max="14081" width="12.875" style="7" customWidth="1"/>
-    <col min="14082" max="14082" width="10.625" style="7" customWidth="1"/>
+    <col min="13828" max="13828" width="8.33203125" style="7" customWidth="1"/>
+    <col min="13829" max="14080" width="8.83203125" style="7"/>
+    <col min="14081" max="14081" width="12.83203125" style="7" customWidth="1"/>
+    <col min="14082" max="14082" width="10.6640625" style="7" customWidth="1"/>
     <col min="14083" max="14083" width="12.5" style="7" customWidth="1"/>
-    <col min="14084" max="14084" width="8.375" style="7" customWidth="1"/>
-    <col min="14085" max="14336" width="8.875" style="7"/>
-    <col min="14337" max="14337" width="12.875" style="7" customWidth="1"/>
-    <col min="14338" max="14338" width="10.625" style="7" customWidth="1"/>
+    <col min="14084" max="14084" width="8.33203125" style="7" customWidth="1"/>
+    <col min="14085" max="14336" width="8.83203125" style="7"/>
+    <col min="14337" max="14337" width="12.83203125" style="7" customWidth="1"/>
+    <col min="14338" max="14338" width="10.6640625" style="7" customWidth="1"/>
     <col min="14339" max="14339" width="12.5" style="7" customWidth="1"/>
-    <col min="14340" max="14340" width="8.375" style="7" customWidth="1"/>
-    <col min="14341" max="14592" width="8.875" style="7"/>
-    <col min="14593" max="14593" width="12.875" style="7" customWidth="1"/>
-    <col min="14594" max="14594" width="10.625" style="7" customWidth="1"/>
+    <col min="14340" max="14340" width="8.33203125" style="7" customWidth="1"/>
+    <col min="14341" max="14592" width="8.83203125" style="7"/>
+    <col min="14593" max="14593" width="12.83203125" style="7" customWidth="1"/>
+    <col min="14594" max="14594" width="10.6640625" style="7" customWidth="1"/>
     <col min="14595" max="14595" width="12.5" style="7" customWidth="1"/>
-    <col min="14596" max="14596" width="8.375" style="7" customWidth="1"/>
-    <col min="14597" max="14848" width="8.875" style="7"/>
-    <col min="14849" max="14849" width="12.875" style="7" customWidth="1"/>
-    <col min="14850" max="14850" width="10.625" style="7" customWidth="1"/>
+    <col min="14596" max="14596" width="8.33203125" style="7" customWidth="1"/>
+    <col min="14597" max="14848" width="8.83203125" style="7"/>
+    <col min="14849" max="14849" width="12.83203125" style="7" customWidth="1"/>
+    <col min="14850" max="14850" width="10.6640625" style="7" customWidth="1"/>
     <col min="14851" max="14851" width="12.5" style="7" customWidth="1"/>
-    <col min="14852" max="14852" width="8.375" style="7" customWidth="1"/>
-    <col min="14853" max="15104" width="8.875" style="7"/>
-    <col min="15105" max="15105" width="12.875" style="7" customWidth="1"/>
-    <col min="15106" max="15106" width="10.625" style="7" customWidth="1"/>
+    <col min="14852" max="14852" width="8.33203125" style="7" customWidth="1"/>
+    <col min="14853" max="15104" width="8.83203125" style="7"/>
+    <col min="15105" max="15105" width="12.83203125" style="7" customWidth="1"/>
+    <col min="15106" max="15106" width="10.6640625" style="7" customWidth="1"/>
     <col min="15107" max="15107" width="12.5" style="7" customWidth="1"/>
-    <col min="15108" max="15108" width="8.375" style="7" customWidth="1"/>
-    <col min="15109" max="15360" width="8.875" style="7"/>
-    <col min="15361" max="15361" width="12.875" style="7" customWidth="1"/>
-    <col min="15362" max="15362" width="10.625" style="7" customWidth="1"/>
+    <col min="15108" max="15108" width="8.33203125" style="7" customWidth="1"/>
+    <col min="15109" max="15360" width="8.83203125" style="7"/>
+    <col min="15361" max="15361" width="12.83203125" style="7" customWidth="1"/>
+    <col min="15362" max="15362" width="10.6640625" style="7" customWidth="1"/>
     <col min="15363" max="15363" width="12.5" style="7" customWidth="1"/>
-    <col min="15364" max="15364" width="8.375" style="7" customWidth="1"/>
-    <col min="15365" max="15616" width="8.875" style="7"/>
-    <col min="15617" max="15617" width="12.875" style="7" customWidth="1"/>
-    <col min="15618" max="15618" width="10.625" style="7" customWidth="1"/>
+    <col min="15364" max="15364" width="8.33203125" style="7" customWidth="1"/>
+    <col min="15365" max="15616" width="8.83203125" style="7"/>
+    <col min="15617" max="15617" width="12.83203125" style="7" customWidth="1"/>
+    <col min="15618" max="15618" width="10.6640625" style="7" customWidth="1"/>
     <col min="15619" max="15619" width="12.5" style="7" customWidth="1"/>
-    <col min="15620" max="15620" width="8.375" style="7" customWidth="1"/>
-    <col min="15621" max="15872" width="8.875" style="7"/>
-    <col min="15873" max="15873" width="12.875" style="7" customWidth="1"/>
-    <col min="15874" max="15874" width="10.625" style="7" customWidth="1"/>
+    <col min="15620" max="15620" width="8.33203125" style="7" customWidth="1"/>
+    <col min="15621" max="15872" width="8.83203125" style="7"/>
+    <col min="15873" max="15873" width="12.83203125" style="7" customWidth="1"/>
+    <col min="15874" max="15874" width="10.6640625" style="7" customWidth="1"/>
     <col min="15875" max="15875" width="12.5" style="7" customWidth="1"/>
-    <col min="15876" max="15876" width="8.375" style="7" customWidth="1"/>
-    <col min="15877" max="16128" width="8.875" style="7"/>
-    <col min="16129" max="16129" width="12.875" style="7" customWidth="1"/>
-    <col min="16130" max="16130" width="10.625" style="7" customWidth="1"/>
+    <col min="15876" max="15876" width="8.33203125" style="7" customWidth="1"/>
+    <col min="15877" max="16128" width="8.83203125" style="7"/>
+    <col min="16129" max="16129" width="12.83203125" style="7" customWidth="1"/>
+    <col min="16130" max="16130" width="10.6640625" style="7" customWidth="1"/>
     <col min="16131" max="16131" width="12.5" style="7" customWidth="1"/>
-    <col min="16132" max="16132" width="8.375" style="7" customWidth="1"/>
-    <col min="16133" max="16384" width="8.875" style="7"/>
+    <col min="16132" max="16132" width="8.33203125" style="7" customWidth="1"/>
+    <col min="16133" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="62" t="str">
+      <c r="A2" s="61" t="str">
         <f>CONCATENATE("产品名称：", Common!B6)</f>
         <v>产品名称：</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="64">
         <f>Common!B7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="66">
         <f>Common!B8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="64">
         <f>Common!B9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="99">
+      <c r="B6" s="47">
         <f>Common!B10</f>
         <v>0</v>
       </c>
@@ -3505,7 +3562,7 @@
       <c r="A7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="99">
+      <c r="B7" s="47">
         <f>Common!B11</f>
         <v>0</v>
       </c>
@@ -3521,19 +3578,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
       <c r="F8" s="35"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="53" t="s">
+    <row r="9" spans="1:6" ht="16" thickBot="1">
+      <c r="A9" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3553,386 +3610,386 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="12" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="13" customWidth="1"/>
-    <col min="5" max="256" width="8.875" style="7"/>
-    <col min="257" max="257" width="12.875" style="7" customWidth="1"/>
-    <col min="258" max="258" width="10.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="13" customWidth="1"/>
+    <col min="5" max="256" width="8.83203125" style="7"/>
+    <col min="257" max="257" width="12.83203125" style="7" customWidth="1"/>
+    <col min="258" max="258" width="10.6640625" style="7" customWidth="1"/>
     <col min="259" max="259" width="12.5" style="7" customWidth="1"/>
-    <col min="260" max="260" width="8.375" style="7" customWidth="1"/>
-    <col min="261" max="512" width="8.875" style="7"/>
-    <col min="513" max="513" width="12.875" style="7" customWidth="1"/>
-    <col min="514" max="514" width="10.625" style="7" customWidth="1"/>
+    <col min="260" max="260" width="8.33203125" style="7" customWidth="1"/>
+    <col min="261" max="512" width="8.83203125" style="7"/>
+    <col min="513" max="513" width="12.83203125" style="7" customWidth="1"/>
+    <col min="514" max="514" width="10.6640625" style="7" customWidth="1"/>
     <col min="515" max="515" width="12.5" style="7" customWidth="1"/>
-    <col min="516" max="516" width="8.375" style="7" customWidth="1"/>
-    <col min="517" max="768" width="8.875" style="7"/>
-    <col min="769" max="769" width="12.875" style="7" customWidth="1"/>
-    <col min="770" max="770" width="10.625" style="7" customWidth="1"/>
+    <col min="516" max="516" width="8.33203125" style="7" customWidth="1"/>
+    <col min="517" max="768" width="8.83203125" style="7"/>
+    <col min="769" max="769" width="12.83203125" style="7" customWidth="1"/>
+    <col min="770" max="770" width="10.6640625" style="7" customWidth="1"/>
     <col min="771" max="771" width="12.5" style="7" customWidth="1"/>
-    <col min="772" max="772" width="8.375" style="7" customWidth="1"/>
-    <col min="773" max="1024" width="8.875" style="7"/>
-    <col min="1025" max="1025" width="12.875" style="7" customWidth="1"/>
-    <col min="1026" max="1026" width="10.625" style="7" customWidth="1"/>
+    <col min="772" max="772" width="8.33203125" style="7" customWidth="1"/>
+    <col min="773" max="1024" width="8.83203125" style="7"/>
+    <col min="1025" max="1025" width="12.83203125" style="7" customWidth="1"/>
+    <col min="1026" max="1026" width="10.6640625" style="7" customWidth="1"/>
     <col min="1027" max="1027" width="12.5" style="7" customWidth="1"/>
-    <col min="1028" max="1028" width="8.375" style="7" customWidth="1"/>
-    <col min="1029" max="1280" width="8.875" style="7"/>
-    <col min="1281" max="1281" width="12.875" style="7" customWidth="1"/>
-    <col min="1282" max="1282" width="10.625" style="7" customWidth="1"/>
+    <col min="1028" max="1028" width="8.33203125" style="7" customWidth="1"/>
+    <col min="1029" max="1280" width="8.83203125" style="7"/>
+    <col min="1281" max="1281" width="12.83203125" style="7" customWidth="1"/>
+    <col min="1282" max="1282" width="10.6640625" style="7" customWidth="1"/>
     <col min="1283" max="1283" width="12.5" style="7" customWidth="1"/>
-    <col min="1284" max="1284" width="8.375" style="7" customWidth="1"/>
-    <col min="1285" max="1536" width="8.875" style="7"/>
-    <col min="1537" max="1537" width="12.875" style="7" customWidth="1"/>
-    <col min="1538" max="1538" width="10.625" style="7" customWidth="1"/>
+    <col min="1284" max="1284" width="8.33203125" style="7" customWidth="1"/>
+    <col min="1285" max="1536" width="8.83203125" style="7"/>
+    <col min="1537" max="1537" width="12.83203125" style="7" customWidth="1"/>
+    <col min="1538" max="1538" width="10.6640625" style="7" customWidth="1"/>
     <col min="1539" max="1539" width="12.5" style="7" customWidth="1"/>
-    <col min="1540" max="1540" width="8.375" style="7" customWidth="1"/>
-    <col min="1541" max="1792" width="8.875" style="7"/>
-    <col min="1793" max="1793" width="12.875" style="7" customWidth="1"/>
-    <col min="1794" max="1794" width="10.625" style="7" customWidth="1"/>
+    <col min="1540" max="1540" width="8.33203125" style="7" customWidth="1"/>
+    <col min="1541" max="1792" width="8.83203125" style="7"/>
+    <col min="1793" max="1793" width="12.83203125" style="7" customWidth="1"/>
+    <col min="1794" max="1794" width="10.6640625" style="7" customWidth="1"/>
     <col min="1795" max="1795" width="12.5" style="7" customWidth="1"/>
-    <col min="1796" max="1796" width="8.375" style="7" customWidth="1"/>
-    <col min="1797" max="2048" width="8.875" style="7"/>
-    <col min="2049" max="2049" width="12.875" style="7" customWidth="1"/>
-    <col min="2050" max="2050" width="10.625" style="7" customWidth="1"/>
+    <col min="1796" max="1796" width="8.33203125" style="7" customWidth="1"/>
+    <col min="1797" max="2048" width="8.83203125" style="7"/>
+    <col min="2049" max="2049" width="12.83203125" style="7" customWidth="1"/>
+    <col min="2050" max="2050" width="10.6640625" style="7" customWidth="1"/>
     <col min="2051" max="2051" width="12.5" style="7" customWidth="1"/>
-    <col min="2052" max="2052" width="8.375" style="7" customWidth="1"/>
-    <col min="2053" max="2304" width="8.875" style="7"/>
-    <col min="2305" max="2305" width="12.875" style="7" customWidth="1"/>
-    <col min="2306" max="2306" width="10.625" style="7" customWidth="1"/>
+    <col min="2052" max="2052" width="8.33203125" style="7" customWidth="1"/>
+    <col min="2053" max="2304" width="8.83203125" style="7"/>
+    <col min="2305" max="2305" width="12.83203125" style="7" customWidth="1"/>
+    <col min="2306" max="2306" width="10.6640625" style="7" customWidth="1"/>
     <col min="2307" max="2307" width="12.5" style="7" customWidth="1"/>
-    <col min="2308" max="2308" width="8.375" style="7" customWidth="1"/>
-    <col min="2309" max="2560" width="8.875" style="7"/>
-    <col min="2561" max="2561" width="12.875" style="7" customWidth="1"/>
-    <col min="2562" max="2562" width="10.625" style="7" customWidth="1"/>
+    <col min="2308" max="2308" width="8.33203125" style="7" customWidth="1"/>
+    <col min="2309" max="2560" width="8.83203125" style="7"/>
+    <col min="2561" max="2561" width="12.83203125" style="7" customWidth="1"/>
+    <col min="2562" max="2562" width="10.6640625" style="7" customWidth="1"/>
     <col min="2563" max="2563" width="12.5" style="7" customWidth="1"/>
-    <col min="2564" max="2564" width="8.375" style="7" customWidth="1"/>
-    <col min="2565" max="2816" width="8.875" style="7"/>
-    <col min="2817" max="2817" width="12.875" style="7" customWidth="1"/>
-    <col min="2818" max="2818" width="10.625" style="7" customWidth="1"/>
+    <col min="2564" max="2564" width="8.33203125" style="7" customWidth="1"/>
+    <col min="2565" max="2816" width="8.83203125" style="7"/>
+    <col min="2817" max="2817" width="12.83203125" style="7" customWidth="1"/>
+    <col min="2818" max="2818" width="10.6640625" style="7" customWidth="1"/>
     <col min="2819" max="2819" width="12.5" style="7" customWidth="1"/>
-    <col min="2820" max="2820" width="8.375" style="7" customWidth="1"/>
-    <col min="2821" max="3072" width="8.875" style="7"/>
-    <col min="3073" max="3073" width="12.875" style="7" customWidth="1"/>
-    <col min="3074" max="3074" width="10.625" style="7" customWidth="1"/>
+    <col min="2820" max="2820" width="8.33203125" style="7" customWidth="1"/>
+    <col min="2821" max="3072" width="8.83203125" style="7"/>
+    <col min="3073" max="3073" width="12.83203125" style="7" customWidth="1"/>
+    <col min="3074" max="3074" width="10.6640625" style="7" customWidth="1"/>
     <col min="3075" max="3075" width="12.5" style="7" customWidth="1"/>
-    <col min="3076" max="3076" width="8.375" style="7" customWidth="1"/>
-    <col min="3077" max="3328" width="8.875" style="7"/>
-    <col min="3329" max="3329" width="12.875" style="7" customWidth="1"/>
-    <col min="3330" max="3330" width="10.625" style="7" customWidth="1"/>
+    <col min="3076" max="3076" width="8.33203125" style="7" customWidth="1"/>
+    <col min="3077" max="3328" width="8.83203125" style="7"/>
+    <col min="3329" max="3329" width="12.83203125" style="7" customWidth="1"/>
+    <col min="3330" max="3330" width="10.6640625" style="7" customWidth="1"/>
     <col min="3331" max="3331" width="12.5" style="7" customWidth="1"/>
-    <col min="3332" max="3332" width="8.375" style="7" customWidth="1"/>
-    <col min="3333" max="3584" width="8.875" style="7"/>
-    <col min="3585" max="3585" width="12.875" style="7" customWidth="1"/>
-    <col min="3586" max="3586" width="10.625" style="7" customWidth="1"/>
+    <col min="3332" max="3332" width="8.33203125" style="7" customWidth="1"/>
+    <col min="3333" max="3584" width="8.83203125" style="7"/>
+    <col min="3585" max="3585" width="12.83203125" style="7" customWidth="1"/>
+    <col min="3586" max="3586" width="10.6640625" style="7" customWidth="1"/>
     <col min="3587" max="3587" width="12.5" style="7" customWidth="1"/>
-    <col min="3588" max="3588" width="8.375" style="7" customWidth="1"/>
-    <col min="3589" max="3840" width="8.875" style="7"/>
-    <col min="3841" max="3841" width="12.875" style="7" customWidth="1"/>
-    <col min="3842" max="3842" width="10.625" style="7" customWidth="1"/>
+    <col min="3588" max="3588" width="8.33203125" style="7" customWidth="1"/>
+    <col min="3589" max="3840" width="8.83203125" style="7"/>
+    <col min="3841" max="3841" width="12.83203125" style="7" customWidth="1"/>
+    <col min="3842" max="3842" width="10.6640625" style="7" customWidth="1"/>
     <col min="3843" max="3843" width="12.5" style="7" customWidth="1"/>
-    <col min="3844" max="3844" width="8.375" style="7" customWidth="1"/>
-    <col min="3845" max="4096" width="8.875" style="7"/>
-    <col min="4097" max="4097" width="12.875" style="7" customWidth="1"/>
-    <col min="4098" max="4098" width="10.625" style="7" customWidth="1"/>
+    <col min="3844" max="3844" width="8.33203125" style="7" customWidth="1"/>
+    <col min="3845" max="4096" width="8.83203125" style="7"/>
+    <col min="4097" max="4097" width="12.83203125" style="7" customWidth="1"/>
+    <col min="4098" max="4098" width="10.6640625" style="7" customWidth="1"/>
     <col min="4099" max="4099" width="12.5" style="7" customWidth="1"/>
-    <col min="4100" max="4100" width="8.375" style="7" customWidth="1"/>
-    <col min="4101" max="4352" width="8.875" style="7"/>
-    <col min="4353" max="4353" width="12.875" style="7" customWidth="1"/>
-    <col min="4354" max="4354" width="10.625" style="7" customWidth="1"/>
+    <col min="4100" max="4100" width="8.33203125" style="7" customWidth="1"/>
+    <col min="4101" max="4352" width="8.83203125" style="7"/>
+    <col min="4353" max="4353" width="12.83203125" style="7" customWidth="1"/>
+    <col min="4354" max="4354" width="10.6640625" style="7" customWidth="1"/>
     <col min="4355" max="4355" width="12.5" style="7" customWidth="1"/>
-    <col min="4356" max="4356" width="8.375" style="7" customWidth="1"/>
-    <col min="4357" max="4608" width="8.875" style="7"/>
-    <col min="4609" max="4609" width="12.875" style="7" customWidth="1"/>
-    <col min="4610" max="4610" width="10.625" style="7" customWidth="1"/>
+    <col min="4356" max="4356" width="8.33203125" style="7" customWidth="1"/>
+    <col min="4357" max="4608" width="8.83203125" style="7"/>
+    <col min="4609" max="4609" width="12.83203125" style="7" customWidth="1"/>
+    <col min="4610" max="4610" width="10.6640625" style="7" customWidth="1"/>
     <col min="4611" max="4611" width="12.5" style="7" customWidth="1"/>
-    <col min="4612" max="4612" width="8.375" style="7" customWidth="1"/>
-    <col min="4613" max="4864" width="8.875" style="7"/>
-    <col min="4865" max="4865" width="12.875" style="7" customWidth="1"/>
-    <col min="4866" max="4866" width="10.625" style="7" customWidth="1"/>
+    <col min="4612" max="4612" width="8.33203125" style="7" customWidth="1"/>
+    <col min="4613" max="4864" width="8.83203125" style="7"/>
+    <col min="4865" max="4865" width="12.83203125" style="7" customWidth="1"/>
+    <col min="4866" max="4866" width="10.6640625" style="7" customWidth="1"/>
     <col min="4867" max="4867" width="12.5" style="7" customWidth="1"/>
-    <col min="4868" max="4868" width="8.375" style="7" customWidth="1"/>
-    <col min="4869" max="5120" width="8.875" style="7"/>
-    <col min="5121" max="5121" width="12.875" style="7" customWidth="1"/>
-    <col min="5122" max="5122" width="10.625" style="7" customWidth="1"/>
+    <col min="4868" max="4868" width="8.33203125" style="7" customWidth="1"/>
+    <col min="4869" max="5120" width="8.83203125" style="7"/>
+    <col min="5121" max="5121" width="12.83203125" style="7" customWidth="1"/>
+    <col min="5122" max="5122" width="10.6640625" style="7" customWidth="1"/>
     <col min="5123" max="5123" width="12.5" style="7" customWidth="1"/>
-    <col min="5124" max="5124" width="8.375" style="7" customWidth="1"/>
-    <col min="5125" max="5376" width="8.875" style="7"/>
-    <col min="5377" max="5377" width="12.875" style="7" customWidth="1"/>
-    <col min="5378" max="5378" width="10.625" style="7" customWidth="1"/>
+    <col min="5124" max="5124" width="8.33203125" style="7" customWidth="1"/>
+    <col min="5125" max="5376" width="8.83203125" style="7"/>
+    <col min="5377" max="5377" width="12.83203125" style="7" customWidth="1"/>
+    <col min="5378" max="5378" width="10.6640625" style="7" customWidth="1"/>
     <col min="5379" max="5379" width="12.5" style="7" customWidth="1"/>
-    <col min="5380" max="5380" width="8.375" style="7" customWidth="1"/>
-    <col min="5381" max="5632" width="8.875" style="7"/>
-    <col min="5633" max="5633" width="12.875" style="7" customWidth="1"/>
-    <col min="5634" max="5634" width="10.625" style="7" customWidth="1"/>
+    <col min="5380" max="5380" width="8.33203125" style="7" customWidth="1"/>
+    <col min="5381" max="5632" width="8.83203125" style="7"/>
+    <col min="5633" max="5633" width="12.83203125" style="7" customWidth="1"/>
+    <col min="5634" max="5634" width="10.6640625" style="7" customWidth="1"/>
     <col min="5635" max="5635" width="12.5" style="7" customWidth="1"/>
-    <col min="5636" max="5636" width="8.375" style="7" customWidth="1"/>
-    <col min="5637" max="5888" width="8.875" style="7"/>
-    <col min="5889" max="5889" width="12.875" style="7" customWidth="1"/>
-    <col min="5890" max="5890" width="10.625" style="7" customWidth="1"/>
+    <col min="5636" max="5636" width="8.33203125" style="7" customWidth="1"/>
+    <col min="5637" max="5888" width="8.83203125" style="7"/>
+    <col min="5889" max="5889" width="12.83203125" style="7" customWidth="1"/>
+    <col min="5890" max="5890" width="10.6640625" style="7" customWidth="1"/>
     <col min="5891" max="5891" width="12.5" style="7" customWidth="1"/>
-    <col min="5892" max="5892" width="8.375" style="7" customWidth="1"/>
-    <col min="5893" max="6144" width="8.875" style="7"/>
-    <col min="6145" max="6145" width="12.875" style="7" customWidth="1"/>
-    <col min="6146" max="6146" width="10.625" style="7" customWidth="1"/>
+    <col min="5892" max="5892" width="8.33203125" style="7" customWidth="1"/>
+    <col min="5893" max="6144" width="8.83203125" style="7"/>
+    <col min="6145" max="6145" width="12.83203125" style="7" customWidth="1"/>
+    <col min="6146" max="6146" width="10.6640625" style="7" customWidth="1"/>
     <col min="6147" max="6147" width="12.5" style="7" customWidth="1"/>
-    <col min="6148" max="6148" width="8.375" style="7" customWidth="1"/>
-    <col min="6149" max="6400" width="8.875" style="7"/>
-    <col min="6401" max="6401" width="12.875" style="7" customWidth="1"/>
-    <col min="6402" max="6402" width="10.625" style="7" customWidth="1"/>
+    <col min="6148" max="6148" width="8.33203125" style="7" customWidth="1"/>
+    <col min="6149" max="6400" width="8.83203125" style="7"/>
+    <col min="6401" max="6401" width="12.83203125" style="7" customWidth="1"/>
+    <col min="6402" max="6402" width="10.6640625" style="7" customWidth="1"/>
     <col min="6403" max="6403" width="12.5" style="7" customWidth="1"/>
-    <col min="6404" max="6404" width="8.375" style="7" customWidth="1"/>
-    <col min="6405" max="6656" width="8.875" style="7"/>
-    <col min="6657" max="6657" width="12.875" style="7" customWidth="1"/>
-    <col min="6658" max="6658" width="10.625" style="7" customWidth="1"/>
+    <col min="6404" max="6404" width="8.33203125" style="7" customWidth="1"/>
+    <col min="6405" max="6656" width="8.83203125" style="7"/>
+    <col min="6657" max="6657" width="12.83203125" style="7" customWidth="1"/>
+    <col min="6658" max="6658" width="10.6640625" style="7" customWidth="1"/>
     <col min="6659" max="6659" width="12.5" style="7" customWidth="1"/>
-    <col min="6660" max="6660" width="8.375" style="7" customWidth="1"/>
-    <col min="6661" max="6912" width="8.875" style="7"/>
-    <col min="6913" max="6913" width="12.875" style="7" customWidth="1"/>
-    <col min="6914" max="6914" width="10.625" style="7" customWidth="1"/>
+    <col min="6660" max="6660" width="8.33203125" style="7" customWidth="1"/>
+    <col min="6661" max="6912" width="8.83203125" style="7"/>
+    <col min="6913" max="6913" width="12.83203125" style="7" customWidth="1"/>
+    <col min="6914" max="6914" width="10.6640625" style="7" customWidth="1"/>
     <col min="6915" max="6915" width="12.5" style="7" customWidth="1"/>
-    <col min="6916" max="6916" width="8.375" style="7" customWidth="1"/>
-    <col min="6917" max="7168" width="8.875" style="7"/>
-    <col min="7169" max="7169" width="12.875" style="7" customWidth="1"/>
-    <col min="7170" max="7170" width="10.625" style="7" customWidth="1"/>
+    <col min="6916" max="6916" width="8.33203125" style="7" customWidth="1"/>
+    <col min="6917" max="7168" width="8.83203125" style="7"/>
+    <col min="7169" max="7169" width="12.83203125" style="7" customWidth="1"/>
+    <col min="7170" max="7170" width="10.6640625" style="7" customWidth="1"/>
     <col min="7171" max="7171" width="12.5" style="7" customWidth="1"/>
-    <col min="7172" max="7172" width="8.375" style="7" customWidth="1"/>
-    <col min="7173" max="7424" width="8.875" style="7"/>
-    <col min="7425" max="7425" width="12.875" style="7" customWidth="1"/>
-    <col min="7426" max="7426" width="10.625" style="7" customWidth="1"/>
+    <col min="7172" max="7172" width="8.33203125" style="7" customWidth="1"/>
+    <col min="7173" max="7424" width="8.83203125" style="7"/>
+    <col min="7425" max="7425" width="12.83203125" style="7" customWidth="1"/>
+    <col min="7426" max="7426" width="10.6640625" style="7" customWidth="1"/>
     <col min="7427" max="7427" width="12.5" style="7" customWidth="1"/>
-    <col min="7428" max="7428" width="8.375" style="7" customWidth="1"/>
-    <col min="7429" max="7680" width="8.875" style="7"/>
-    <col min="7681" max="7681" width="12.875" style="7" customWidth="1"/>
-    <col min="7682" max="7682" width="10.625" style="7" customWidth="1"/>
+    <col min="7428" max="7428" width="8.33203125" style="7" customWidth="1"/>
+    <col min="7429" max="7680" width="8.83203125" style="7"/>
+    <col min="7681" max="7681" width="12.83203125" style="7" customWidth="1"/>
+    <col min="7682" max="7682" width="10.6640625" style="7" customWidth="1"/>
     <col min="7683" max="7683" width="12.5" style="7" customWidth="1"/>
-    <col min="7684" max="7684" width="8.375" style="7" customWidth="1"/>
-    <col min="7685" max="7936" width="8.875" style="7"/>
-    <col min="7937" max="7937" width="12.875" style="7" customWidth="1"/>
-    <col min="7938" max="7938" width="10.625" style="7" customWidth="1"/>
+    <col min="7684" max="7684" width="8.33203125" style="7" customWidth="1"/>
+    <col min="7685" max="7936" width="8.83203125" style="7"/>
+    <col min="7937" max="7937" width="12.83203125" style="7" customWidth="1"/>
+    <col min="7938" max="7938" width="10.6640625" style="7" customWidth="1"/>
     <col min="7939" max="7939" width="12.5" style="7" customWidth="1"/>
-    <col min="7940" max="7940" width="8.375" style="7" customWidth="1"/>
-    <col min="7941" max="8192" width="8.875" style="7"/>
-    <col min="8193" max="8193" width="12.875" style="7" customWidth="1"/>
-    <col min="8194" max="8194" width="10.625" style="7" customWidth="1"/>
+    <col min="7940" max="7940" width="8.33203125" style="7" customWidth="1"/>
+    <col min="7941" max="8192" width="8.83203125" style="7"/>
+    <col min="8193" max="8193" width="12.83203125" style="7" customWidth="1"/>
+    <col min="8194" max="8194" width="10.6640625" style="7" customWidth="1"/>
     <col min="8195" max="8195" width="12.5" style="7" customWidth="1"/>
-    <col min="8196" max="8196" width="8.375" style="7" customWidth="1"/>
-    <col min="8197" max="8448" width="8.875" style="7"/>
-    <col min="8449" max="8449" width="12.875" style="7" customWidth="1"/>
-    <col min="8450" max="8450" width="10.625" style="7" customWidth="1"/>
+    <col min="8196" max="8196" width="8.33203125" style="7" customWidth="1"/>
+    <col min="8197" max="8448" width="8.83203125" style="7"/>
+    <col min="8449" max="8449" width="12.83203125" style="7" customWidth="1"/>
+    <col min="8450" max="8450" width="10.6640625" style="7" customWidth="1"/>
     <col min="8451" max="8451" width="12.5" style="7" customWidth="1"/>
-    <col min="8452" max="8452" width="8.375" style="7" customWidth="1"/>
-    <col min="8453" max="8704" width="8.875" style="7"/>
-    <col min="8705" max="8705" width="12.875" style="7" customWidth="1"/>
-    <col min="8706" max="8706" width="10.625" style="7" customWidth="1"/>
+    <col min="8452" max="8452" width="8.33203125" style="7" customWidth="1"/>
+    <col min="8453" max="8704" width="8.83203125" style="7"/>
+    <col min="8705" max="8705" width="12.83203125" style="7" customWidth="1"/>
+    <col min="8706" max="8706" width="10.6640625" style="7" customWidth="1"/>
     <col min="8707" max="8707" width="12.5" style="7" customWidth="1"/>
-    <col min="8708" max="8708" width="8.375" style="7" customWidth="1"/>
-    <col min="8709" max="8960" width="8.875" style="7"/>
-    <col min="8961" max="8961" width="12.875" style="7" customWidth="1"/>
-    <col min="8962" max="8962" width="10.625" style="7" customWidth="1"/>
+    <col min="8708" max="8708" width="8.33203125" style="7" customWidth="1"/>
+    <col min="8709" max="8960" width="8.83203125" style="7"/>
+    <col min="8961" max="8961" width="12.83203125" style="7" customWidth="1"/>
+    <col min="8962" max="8962" width="10.6640625" style="7" customWidth="1"/>
     <col min="8963" max="8963" width="12.5" style="7" customWidth="1"/>
-    <col min="8964" max="8964" width="8.375" style="7" customWidth="1"/>
-    <col min="8965" max="9216" width="8.875" style="7"/>
-    <col min="9217" max="9217" width="12.875" style="7" customWidth="1"/>
-    <col min="9218" max="9218" width="10.625" style="7" customWidth="1"/>
+    <col min="8964" max="8964" width="8.33203125" style="7" customWidth="1"/>
+    <col min="8965" max="9216" width="8.83203125" style="7"/>
+    <col min="9217" max="9217" width="12.83203125" style="7" customWidth="1"/>
+    <col min="9218" max="9218" width="10.6640625" style="7" customWidth="1"/>
     <col min="9219" max="9219" width="12.5" style="7" customWidth="1"/>
-    <col min="9220" max="9220" width="8.375" style="7" customWidth="1"/>
-    <col min="9221" max="9472" width="8.875" style="7"/>
-    <col min="9473" max="9473" width="12.875" style="7" customWidth="1"/>
-    <col min="9474" max="9474" width="10.625" style="7" customWidth="1"/>
+    <col min="9220" max="9220" width="8.33203125" style="7" customWidth="1"/>
+    <col min="9221" max="9472" width="8.83203125" style="7"/>
+    <col min="9473" max="9473" width="12.83203125" style="7" customWidth="1"/>
+    <col min="9474" max="9474" width="10.6640625" style="7" customWidth="1"/>
     <col min="9475" max="9475" width="12.5" style="7" customWidth="1"/>
-    <col min="9476" max="9476" width="8.375" style="7" customWidth="1"/>
-    <col min="9477" max="9728" width="8.875" style="7"/>
-    <col min="9729" max="9729" width="12.875" style="7" customWidth="1"/>
-    <col min="9730" max="9730" width="10.625" style="7" customWidth="1"/>
+    <col min="9476" max="9476" width="8.33203125" style="7" customWidth="1"/>
+    <col min="9477" max="9728" width="8.83203125" style="7"/>
+    <col min="9729" max="9729" width="12.83203125" style="7" customWidth="1"/>
+    <col min="9730" max="9730" width="10.6640625" style="7" customWidth="1"/>
     <col min="9731" max="9731" width="12.5" style="7" customWidth="1"/>
-    <col min="9732" max="9732" width="8.375" style="7" customWidth="1"/>
-    <col min="9733" max="9984" width="8.875" style="7"/>
-    <col min="9985" max="9985" width="12.875" style="7" customWidth="1"/>
-    <col min="9986" max="9986" width="10.625" style="7" customWidth="1"/>
+    <col min="9732" max="9732" width="8.33203125" style="7" customWidth="1"/>
+    <col min="9733" max="9984" width="8.83203125" style="7"/>
+    <col min="9985" max="9985" width="12.83203125" style="7" customWidth="1"/>
+    <col min="9986" max="9986" width="10.6640625" style="7" customWidth="1"/>
     <col min="9987" max="9987" width="12.5" style="7" customWidth="1"/>
-    <col min="9988" max="9988" width="8.375" style="7" customWidth="1"/>
-    <col min="9989" max="10240" width="8.875" style="7"/>
-    <col min="10241" max="10241" width="12.875" style="7" customWidth="1"/>
-    <col min="10242" max="10242" width="10.625" style="7" customWidth="1"/>
+    <col min="9988" max="9988" width="8.33203125" style="7" customWidth="1"/>
+    <col min="9989" max="10240" width="8.83203125" style="7"/>
+    <col min="10241" max="10241" width="12.83203125" style="7" customWidth="1"/>
+    <col min="10242" max="10242" width="10.6640625" style="7" customWidth="1"/>
     <col min="10243" max="10243" width="12.5" style="7" customWidth="1"/>
-    <col min="10244" max="10244" width="8.375" style="7" customWidth="1"/>
-    <col min="10245" max="10496" width="8.875" style="7"/>
-    <col min="10497" max="10497" width="12.875" style="7" customWidth="1"/>
-    <col min="10498" max="10498" width="10.625" style="7" customWidth="1"/>
+    <col min="10244" max="10244" width="8.33203125" style="7" customWidth="1"/>
+    <col min="10245" max="10496" width="8.83203125" style="7"/>
+    <col min="10497" max="10497" width="12.83203125" style="7" customWidth="1"/>
+    <col min="10498" max="10498" width="10.6640625" style="7" customWidth="1"/>
     <col min="10499" max="10499" width="12.5" style="7" customWidth="1"/>
-    <col min="10500" max="10500" width="8.375" style="7" customWidth="1"/>
-    <col min="10501" max="10752" width="8.875" style="7"/>
-    <col min="10753" max="10753" width="12.875" style="7" customWidth="1"/>
-    <col min="10754" max="10754" width="10.625" style="7" customWidth="1"/>
+    <col min="10500" max="10500" width="8.33203125" style="7" customWidth="1"/>
+    <col min="10501" max="10752" width="8.83203125" style="7"/>
+    <col min="10753" max="10753" width="12.83203125" style="7" customWidth="1"/>
+    <col min="10754" max="10754" width="10.6640625" style="7" customWidth="1"/>
     <col min="10755" max="10755" width="12.5" style="7" customWidth="1"/>
-    <col min="10756" max="10756" width="8.375" style="7" customWidth="1"/>
-    <col min="10757" max="11008" width="8.875" style="7"/>
-    <col min="11009" max="11009" width="12.875" style="7" customWidth="1"/>
-    <col min="11010" max="11010" width="10.625" style="7" customWidth="1"/>
+    <col min="10756" max="10756" width="8.33203125" style="7" customWidth="1"/>
+    <col min="10757" max="11008" width="8.83203125" style="7"/>
+    <col min="11009" max="11009" width="12.83203125" style="7" customWidth="1"/>
+    <col min="11010" max="11010" width="10.6640625" style="7" customWidth="1"/>
     <col min="11011" max="11011" width="12.5" style="7" customWidth="1"/>
-    <col min="11012" max="11012" width="8.375" style="7" customWidth="1"/>
-    <col min="11013" max="11264" width="8.875" style="7"/>
-    <col min="11265" max="11265" width="12.875" style="7" customWidth="1"/>
-    <col min="11266" max="11266" width="10.625" style="7" customWidth="1"/>
+    <col min="11012" max="11012" width="8.33203125" style="7" customWidth="1"/>
+    <col min="11013" max="11264" width="8.83203125" style="7"/>
+    <col min="11265" max="11265" width="12.83203125" style="7" customWidth="1"/>
+    <col min="11266" max="11266" width="10.6640625" style="7" customWidth="1"/>
     <col min="11267" max="11267" width="12.5" style="7" customWidth="1"/>
-    <col min="11268" max="11268" width="8.375" style="7" customWidth="1"/>
-    <col min="11269" max="11520" width="8.875" style="7"/>
-    <col min="11521" max="11521" width="12.875" style="7" customWidth="1"/>
-    <col min="11522" max="11522" width="10.625" style="7" customWidth="1"/>
+    <col min="11268" max="11268" width="8.33203125" style="7" customWidth="1"/>
+    <col min="11269" max="11520" width="8.83203125" style="7"/>
+    <col min="11521" max="11521" width="12.83203125" style="7" customWidth="1"/>
+    <col min="11522" max="11522" width="10.6640625" style="7" customWidth="1"/>
     <col min="11523" max="11523" width="12.5" style="7" customWidth="1"/>
-    <col min="11524" max="11524" width="8.375" style="7" customWidth="1"/>
-    <col min="11525" max="11776" width="8.875" style="7"/>
-    <col min="11777" max="11777" width="12.875" style="7" customWidth="1"/>
-    <col min="11778" max="11778" width="10.625" style="7" customWidth="1"/>
+    <col min="11524" max="11524" width="8.33203125" style="7" customWidth="1"/>
+    <col min="11525" max="11776" width="8.83203125" style="7"/>
+    <col min="11777" max="11777" width="12.83203125" style="7" customWidth="1"/>
+    <col min="11778" max="11778" width="10.6640625" style="7" customWidth="1"/>
     <col min="11779" max="11779" width="12.5" style="7" customWidth="1"/>
-    <col min="11780" max="11780" width="8.375" style="7" customWidth="1"/>
-    <col min="11781" max="12032" width="8.875" style="7"/>
-    <col min="12033" max="12033" width="12.875" style="7" customWidth="1"/>
-    <col min="12034" max="12034" width="10.625" style="7" customWidth="1"/>
+    <col min="11780" max="11780" width="8.33203125" style="7" customWidth="1"/>
+    <col min="11781" max="12032" width="8.83203125" style="7"/>
+    <col min="12033" max="12033" width="12.83203125" style="7" customWidth="1"/>
+    <col min="12034" max="12034" width="10.6640625" style="7" customWidth="1"/>
     <col min="12035" max="12035" width="12.5" style="7" customWidth="1"/>
-    <col min="12036" max="12036" width="8.375" style="7" customWidth="1"/>
-    <col min="12037" max="12288" width="8.875" style="7"/>
-    <col min="12289" max="12289" width="12.875" style="7" customWidth="1"/>
-    <col min="12290" max="12290" width="10.625" style="7" customWidth="1"/>
+    <col min="12036" max="12036" width="8.33203125" style="7" customWidth="1"/>
+    <col min="12037" max="12288" width="8.83203125" style="7"/>
+    <col min="12289" max="12289" width="12.83203125" style="7" customWidth="1"/>
+    <col min="12290" max="12290" width="10.6640625" style="7" customWidth="1"/>
     <col min="12291" max="12291" width="12.5" style="7" customWidth="1"/>
-    <col min="12292" max="12292" width="8.375" style="7" customWidth="1"/>
-    <col min="12293" max="12544" width="8.875" style="7"/>
-    <col min="12545" max="12545" width="12.875" style="7" customWidth="1"/>
-    <col min="12546" max="12546" width="10.625" style="7" customWidth="1"/>
+    <col min="12292" max="12292" width="8.33203125" style="7" customWidth="1"/>
+    <col min="12293" max="12544" width="8.83203125" style="7"/>
+    <col min="12545" max="12545" width="12.83203125" style="7" customWidth="1"/>
+    <col min="12546" max="12546" width="10.6640625" style="7" customWidth="1"/>
     <col min="12547" max="12547" width="12.5" style="7" customWidth="1"/>
-    <col min="12548" max="12548" width="8.375" style="7" customWidth="1"/>
-    <col min="12549" max="12800" width="8.875" style="7"/>
-    <col min="12801" max="12801" width="12.875" style="7" customWidth="1"/>
-    <col min="12802" max="12802" width="10.625" style="7" customWidth="1"/>
+    <col min="12548" max="12548" width="8.33203125" style="7" customWidth="1"/>
+    <col min="12549" max="12800" width="8.83203125" style="7"/>
+    <col min="12801" max="12801" width="12.83203125" style="7" customWidth="1"/>
+    <col min="12802" max="12802" width="10.6640625" style="7" customWidth="1"/>
     <col min="12803" max="12803" width="12.5" style="7" customWidth="1"/>
-    <col min="12804" max="12804" width="8.375" style="7" customWidth="1"/>
-    <col min="12805" max="13056" width="8.875" style="7"/>
-    <col min="13057" max="13057" width="12.875" style="7" customWidth="1"/>
-    <col min="13058" max="13058" width="10.625" style="7" customWidth="1"/>
+    <col min="12804" max="12804" width="8.33203125" style="7" customWidth="1"/>
+    <col min="12805" max="13056" width="8.83203125" style="7"/>
+    <col min="13057" max="13057" width="12.83203125" style="7" customWidth="1"/>
+    <col min="13058" max="13058" width="10.6640625" style="7" customWidth="1"/>
     <col min="13059" max="13059" width="12.5" style="7" customWidth="1"/>
-    <col min="13060" max="13060" width="8.375" style="7" customWidth="1"/>
-    <col min="13061" max="13312" width="8.875" style="7"/>
-    <col min="13313" max="13313" width="12.875" style="7" customWidth="1"/>
-    <col min="13314" max="13314" width="10.625" style="7" customWidth="1"/>
+    <col min="13060" max="13060" width="8.33203125" style="7" customWidth="1"/>
+    <col min="13061" max="13312" width="8.83203125" style="7"/>
+    <col min="13313" max="13313" width="12.83203125" style="7" customWidth="1"/>
+    <col min="13314" max="13314" width="10.6640625" style="7" customWidth="1"/>
     <col min="13315" max="13315" width="12.5" style="7" customWidth="1"/>
-    <col min="13316" max="13316" width="8.375" style="7" customWidth="1"/>
-    <col min="13317" max="13568" width="8.875" style="7"/>
-    <col min="13569" max="13569" width="12.875" style="7" customWidth="1"/>
-    <col min="13570" max="13570" width="10.625" style="7" customWidth="1"/>
+    <col min="13316" max="13316" width="8.33203125" style="7" customWidth="1"/>
+    <col min="13317" max="13568" width="8.83203125" style="7"/>
+    <col min="13569" max="13569" width="12.83203125" style="7" customWidth="1"/>
+    <col min="13570" max="13570" width="10.6640625" style="7" customWidth="1"/>
     <col min="13571" max="13571" width="12.5" style="7" customWidth="1"/>
-    <col min="13572" max="13572" width="8.375" style="7" customWidth="1"/>
-    <col min="13573" max="13824" width="8.875" style="7"/>
-    <col min="13825" max="13825" width="12.875" style="7" customWidth="1"/>
-    <col min="13826" max="13826" width="10.625" style="7" customWidth="1"/>
+    <col min="13572" max="13572" width="8.33203125" style="7" customWidth="1"/>
+    <col min="13573" max="13824" width="8.83203125" style="7"/>
+    <col min="13825" max="13825" width="12.83203125" style="7" customWidth="1"/>
+    <col min="13826" max="13826" width="10.6640625" style="7" customWidth="1"/>
     <col min="13827" max="13827" width="12.5" style="7" customWidth="1"/>
-    <col min="13828" max="13828" width="8.375" style="7" customWidth="1"/>
-    <col min="13829" max="14080" width="8.875" style="7"/>
-    <col min="14081" max="14081" width="12.875" style="7" customWidth="1"/>
-    <col min="14082" max="14082" width="10.625" style="7" customWidth="1"/>
+    <col min="13828" max="13828" width="8.33203125" style="7" customWidth="1"/>
+    <col min="13829" max="14080" width="8.83203125" style="7"/>
+    <col min="14081" max="14081" width="12.83203125" style="7" customWidth="1"/>
+    <col min="14082" max="14082" width="10.6640625" style="7" customWidth="1"/>
     <col min="14083" max="14083" width="12.5" style="7" customWidth="1"/>
-    <col min="14084" max="14084" width="8.375" style="7" customWidth="1"/>
-    <col min="14085" max="14336" width="8.875" style="7"/>
-    <col min="14337" max="14337" width="12.875" style="7" customWidth="1"/>
-    <col min="14338" max="14338" width="10.625" style="7" customWidth="1"/>
+    <col min="14084" max="14084" width="8.33203125" style="7" customWidth="1"/>
+    <col min="14085" max="14336" width="8.83203125" style="7"/>
+    <col min="14337" max="14337" width="12.83203125" style="7" customWidth="1"/>
+    <col min="14338" max="14338" width="10.6640625" style="7" customWidth="1"/>
     <col min="14339" max="14339" width="12.5" style="7" customWidth="1"/>
-    <col min="14340" max="14340" width="8.375" style="7" customWidth="1"/>
-    <col min="14341" max="14592" width="8.875" style="7"/>
-    <col min="14593" max="14593" width="12.875" style="7" customWidth="1"/>
-    <col min="14594" max="14594" width="10.625" style="7" customWidth="1"/>
+    <col min="14340" max="14340" width="8.33203125" style="7" customWidth="1"/>
+    <col min="14341" max="14592" width="8.83203125" style="7"/>
+    <col min="14593" max="14593" width="12.83203125" style="7" customWidth="1"/>
+    <col min="14594" max="14594" width="10.6640625" style="7" customWidth="1"/>
     <col min="14595" max="14595" width="12.5" style="7" customWidth="1"/>
-    <col min="14596" max="14596" width="8.375" style="7" customWidth="1"/>
-    <col min="14597" max="14848" width="8.875" style="7"/>
-    <col min="14849" max="14849" width="12.875" style="7" customWidth="1"/>
-    <col min="14850" max="14850" width="10.625" style="7" customWidth="1"/>
+    <col min="14596" max="14596" width="8.33203125" style="7" customWidth="1"/>
+    <col min="14597" max="14848" width="8.83203125" style="7"/>
+    <col min="14849" max="14849" width="12.83203125" style="7" customWidth="1"/>
+    <col min="14850" max="14850" width="10.6640625" style="7" customWidth="1"/>
     <col min="14851" max="14851" width="12.5" style="7" customWidth="1"/>
-    <col min="14852" max="14852" width="8.375" style="7" customWidth="1"/>
-    <col min="14853" max="15104" width="8.875" style="7"/>
-    <col min="15105" max="15105" width="12.875" style="7" customWidth="1"/>
-    <col min="15106" max="15106" width="10.625" style="7" customWidth="1"/>
+    <col min="14852" max="14852" width="8.33203125" style="7" customWidth="1"/>
+    <col min="14853" max="15104" width="8.83203125" style="7"/>
+    <col min="15105" max="15105" width="12.83203125" style="7" customWidth="1"/>
+    <col min="15106" max="15106" width="10.6640625" style="7" customWidth="1"/>
     <col min="15107" max="15107" width="12.5" style="7" customWidth="1"/>
-    <col min="15108" max="15108" width="8.375" style="7" customWidth="1"/>
-    <col min="15109" max="15360" width="8.875" style="7"/>
-    <col min="15361" max="15361" width="12.875" style="7" customWidth="1"/>
-    <col min="15362" max="15362" width="10.625" style="7" customWidth="1"/>
+    <col min="15108" max="15108" width="8.33203125" style="7" customWidth="1"/>
+    <col min="15109" max="15360" width="8.83203125" style="7"/>
+    <col min="15361" max="15361" width="12.83203125" style="7" customWidth="1"/>
+    <col min="15362" max="15362" width="10.6640625" style="7" customWidth="1"/>
     <col min="15363" max="15363" width="12.5" style="7" customWidth="1"/>
-    <col min="15364" max="15364" width="8.375" style="7" customWidth="1"/>
-    <col min="15365" max="15616" width="8.875" style="7"/>
-    <col min="15617" max="15617" width="12.875" style="7" customWidth="1"/>
-    <col min="15618" max="15618" width="10.625" style="7" customWidth="1"/>
+    <col min="15364" max="15364" width="8.33203125" style="7" customWidth="1"/>
+    <col min="15365" max="15616" width="8.83203125" style="7"/>
+    <col min="15617" max="15617" width="12.83203125" style="7" customWidth="1"/>
+    <col min="15618" max="15618" width="10.6640625" style="7" customWidth="1"/>
     <col min="15619" max="15619" width="12.5" style="7" customWidth="1"/>
-    <col min="15620" max="15620" width="8.375" style="7" customWidth="1"/>
-    <col min="15621" max="15872" width="8.875" style="7"/>
-    <col min="15873" max="15873" width="12.875" style="7" customWidth="1"/>
-    <col min="15874" max="15874" width="10.625" style="7" customWidth="1"/>
+    <col min="15620" max="15620" width="8.33203125" style="7" customWidth="1"/>
+    <col min="15621" max="15872" width="8.83203125" style="7"/>
+    <col min="15873" max="15873" width="12.83203125" style="7" customWidth="1"/>
+    <col min="15874" max="15874" width="10.6640625" style="7" customWidth="1"/>
     <col min="15875" max="15875" width="12.5" style="7" customWidth="1"/>
-    <col min="15876" max="15876" width="8.375" style="7" customWidth="1"/>
-    <col min="15877" max="16128" width="8.875" style="7"/>
-    <col min="16129" max="16129" width="12.875" style="7" customWidth="1"/>
-    <col min="16130" max="16130" width="10.625" style="7" customWidth="1"/>
+    <col min="15876" max="15876" width="8.33203125" style="7" customWidth="1"/>
+    <col min="15877" max="16128" width="8.83203125" style="7"/>
+    <col min="16129" max="16129" width="12.83203125" style="7" customWidth="1"/>
+    <col min="16130" max="16130" width="10.6640625" style="7" customWidth="1"/>
     <col min="16131" max="16131" width="12.5" style="7" customWidth="1"/>
-    <col min="16132" max="16132" width="8.375" style="7" customWidth="1"/>
-    <col min="16133" max="16384" width="8.875" style="7"/>
+    <col min="16132" max="16132" width="8.33203125" style="7" customWidth="1"/>
+    <col min="16133" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="62" t="str">
+      <c r="A2" s="61" t="str">
         <f>CONCATENATE("产品名称：", Common!B6)</f>
         <v>产品名称：</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="64">
         <f>Common!B7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="66">
         <f>Common!B8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="64">
         <f>Common!B9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -3970,19 +4027,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
       <c r="F8" s="35"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="53" t="s">
+    <row r="9" spans="1:6" ht="16" thickBot="1">
+      <c r="A9" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4002,7 +4059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -4012,69 +4069,69 @@
       <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="25" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="25" customWidth="1"/>
     <col min="3" max="3" width="16" style="25" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="25" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="25"/>
+    <col min="4" max="4" width="14.1640625" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="62" t="str">
+      <c r="A1" s="61" t="str">
         <f>CONCATENATE("产品名称：", Common!B6)</f>
         <v>产品名称：</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
-    </row>
-    <row r="2" spans="1:4" s="17" customFormat="1" ht="18.75">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+    </row>
+    <row r="2" spans="1:4" s="17" customFormat="1" ht="18">
       <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="79">
+      <c r="B2" s="78">
         <f>Common!B15</f>
         <v>0</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-    </row>
-    <row r="3" spans="1:4" s="17" customFormat="1" ht="18.75">
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
+    </row>
+    <row r="3" spans="1:4" s="17" customFormat="1" ht="18">
       <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="79">
+      <c r="B3" s="78">
         <f>Common!B7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
     </row>
     <row r="4" spans="1:4" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="78">
         <f>Common!B8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-    </row>
-    <row r="5" spans="1:4" s="17" customFormat="1" ht="18.75">
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+    </row>
+    <row r="5" spans="1:4" s="17" customFormat="1" ht="18">
       <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="78">
         <f>Common!B9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-    </row>
-    <row r="6" spans="1:4" s="17" customFormat="1" ht="18.75">
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+    </row>
+    <row r="6" spans="1:4" s="17" customFormat="1" ht="18">
       <c r="A6" s="18" t="s">
         <v>24</v>
       </c>
@@ -4090,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="17" customFormat="1" ht="18.75">
+    <row r="7" spans="1:4" s="17" customFormat="1" ht="18">
       <c r="A7" s="21" t="s">
         <v>26</v>
       </c>
@@ -4106,27 +4163,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="24" customFormat="1" ht="18.75">
+    <row r="8" spans="1:4" s="24" customFormat="1" ht="18">
       <c r="A8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="69">
         <f>Common!B16</f>
         <v>0</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="1:4" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="69">
         <f>Common!B17</f>
         <v>0</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
     </row>
     <row r="10" spans="1:4" s="24" customFormat="1" ht="51" customHeight="1">
       <c r="A10" s="26"/>
@@ -4134,29 +4191,29 @@
       <c r="C10" s="27"/>
       <c r="D10" s="28"/>
     </row>
-    <row r="11" spans="1:4" s="17" customFormat="1" ht="18.75">
-      <c r="A11" s="73" t="s">
+    <row r="11" spans="1:4" s="17" customFormat="1" ht="17">
+      <c r="A11" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
-    </row>
-    <row r="12" spans="1:4" s="17" customFormat="1" ht="18.75">
-      <c r="A12" s="73" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+    </row>
+    <row r="12" spans="1:4" s="17" customFormat="1" ht="17">
+      <c r="A12" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
     </row>
     <row r="13" spans="1:4" s="17" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
     </row>
     <row r="14" spans="1:4" s="16" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="14"/>
@@ -4185,7 +4242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -4195,69 +4252,69 @@
       <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="25" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="25" customWidth="1"/>
     <col min="3" max="3" width="16" style="25" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="25" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="25"/>
+    <col min="4" max="4" width="14.1640625" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="62" t="str">
+      <c r="A1" s="61" t="str">
         <f>CONCATENATE("产品名称：", Common!B6)</f>
         <v>产品名称：</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
     </row>
     <row r="2" spans="1:4" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="79">
+      <c r="B2" s="78">
         <f>Common!B15</f>
         <v>0</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:4" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="79">
+      <c r="B3" s="78">
         <f>Common!B7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
     </row>
     <row r="4" spans="1:4" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="78">
         <f>Common!B8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-    </row>
-    <row r="5" spans="1:4" s="17" customFormat="1" ht="18.75">
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+    </row>
+    <row r="5" spans="1:4" s="17" customFormat="1" ht="18">
       <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="78">
         <f>Common!B9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-    </row>
-    <row r="6" spans="1:4" s="17" customFormat="1" ht="18.75">
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+    </row>
+    <row r="6" spans="1:4" s="17" customFormat="1" ht="18">
       <c r="A6" s="18" t="s">
         <v>24</v>
       </c>
@@ -4273,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="17" customFormat="1" ht="18.75">
+    <row r="7" spans="1:4" s="17" customFormat="1" ht="18">
       <c r="A7" s="21" t="s">
         <v>26</v>
       </c>
@@ -4289,27 +4346,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="24" customFormat="1" ht="18.75">
+    <row r="8" spans="1:4" s="24" customFormat="1" ht="18">
       <c r="A8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="69">
         <f>Common!B16</f>
         <v>0</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="1:4" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="69">
         <f>Common!B17</f>
         <v>0</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
     </row>
     <row r="10" spans="1:4" s="24" customFormat="1" ht="51" customHeight="1">
       <c r="A10" s="26"/>
@@ -4317,29 +4374,29 @@
       <c r="C10" s="27"/>
       <c r="D10" s="28"/>
     </row>
-    <row r="11" spans="1:4" s="17" customFormat="1" ht="18.75">
-      <c r="A11" s="73" t="s">
+    <row r="11" spans="1:4" s="17" customFormat="1" ht="17">
+      <c r="A11" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
-    </row>
-    <row r="12" spans="1:4" s="17" customFormat="1" ht="18.75">
-      <c r="A12" s="73" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+    </row>
+    <row r="12" spans="1:4" s="17" customFormat="1" ht="17">
+      <c r="A12" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
     </row>
     <row r="13" spans="1:4" s="17" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
     </row>
     <row r="14" spans="1:4" s="16" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="14"/>
@@ -4368,7 +4425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4378,80 +4435,80 @@
       <selection activeCell="A10" sqref="A10:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="29" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="29" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="29" customWidth="1"/>
     <col min="6" max="6" width="21" style="29" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="29"/>
+    <col min="7" max="7" width="13.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.95" customHeight="1">
-      <c r="A2" s="62" t="str">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" customHeight="1">
+      <c r="A2" s="61" t="str">
         <f>CONCATENATE("Name:  ", Common!E6)</f>
         <v xml:space="preserve">Name:  </v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="1:4" ht="18">
-      <c r="A3" s="90" t="str">
+      <c r="A3" s="89" t="str">
         <f>CONCATENATE("CFDA Licence NO.:",Common!F15)</f>
         <v>CFDA Licence NO.:</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="78">
         <f>Common!E8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="78">
         <f>Common!E9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
     </row>
     <row r="6" spans="1:4" ht="18">
       <c r="A6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="78">
         <f>Common!E10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.75">
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+    </row>
+    <row r="7" spans="1:4" ht="18">
       <c r="A7" s="30" t="s">
         <v>37</v>
       </c>
@@ -4467,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75">
+    <row r="8" spans="1:4" ht="18">
       <c r="A8" s="30" t="s">
         <v>39</v>
       </c>
@@ -4484,36 +4541,36 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" customHeight="1">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:4" ht="18">
-      <c r="A10" s="93" t="str">
+      <c r="A10" s="92" t="str">
         <f>CONCATENATE("Gross Weight:",Common!F16)</f>
         <v>Gross Weight:</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1">
-      <c r="A11" s="93" t="str">
+      <c r="A11" s="92" t="str">
         <f>CONCATENATE("Carton Size:",Common!F17)</f>
         <v>Carton Size:</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" thickBot="1">
-      <c r="A12" s="81" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
+    </row>
+    <row r="12" spans="1:4" ht="19" thickBot="1">
+      <c r="A12" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4536,7 +4593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4546,80 +4603,80 @@
       <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="29" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="29" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="29" customWidth="1"/>
     <col min="6" max="6" width="21" style="29" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="29"/>
+    <col min="7" max="7" width="13.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="98"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.95" customHeight="1">
-      <c r="A2" s="62" t="str">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="97"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" customHeight="1">
+      <c r="A2" s="61" t="str">
         <f>CONCATENATE("Name:  ", Common!E6)</f>
         <v xml:space="preserve">Name:  </v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="90" t="str">
+      <c r="A3" s="89" t="str">
         <f>CONCATENATE("CFDA Licence NO.:",Common!F15)</f>
         <v>CFDA Licence NO.:</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="78">
         <f>Common!E8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="78">
         <f>Common!E9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
     </row>
     <row r="6" spans="1:4" ht="18">
       <c r="A6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="78">
         <f>Common!E10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.75">
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+    </row>
+    <row r="7" spans="1:4" ht="18">
       <c r="A7" s="30" t="s">
         <v>37</v>
       </c>
@@ -4635,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75">
+    <row r="8" spans="1:4" ht="18">
       <c r="A8" s="30" t="s">
         <v>39</v>
       </c>
@@ -4652,36 +4709,36 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" customHeight="1">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1">
-      <c r="A10" s="93" t="str">
+      <c r="A10" s="92" t="str">
         <f>CONCATENATE("Gross Weight:",Common!F16)</f>
         <v>Gross Weight:</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
     </row>
     <row r="11" spans="1:4" ht="18">
-      <c r="A11" s="93" t="str">
+      <c r="A11" s="92" t="str">
         <f>CONCATENATE("Carton Size:",Common!F17)</f>
         <v>Carton Size:</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" thickBot="1">
-      <c r="A12" s="81" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
+    </row>
+    <row r="12" spans="1:4" ht="19" thickBot="1">
+      <c r="A12" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/mySystem/mySystem/xls/Extrusion/吹膜标签.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/吹膜标签.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F036CCD6-C1F0-A940-B0DA-0D4C84432F6F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4C57D41B-0246-F944-95E0-7D163A1D5857}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" tabRatio="790" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>吹膜工序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -720,15 +720,6 @@
   </si>
   <si>
     <t>日期班次</t>
-  </si>
-  <si>
-    <t>质量状态：待验 □   合格 □  不合格 □</t>
-  </si>
-  <si>
-    <t>操作人：</t>
-  </si>
-  <si>
-    <t>备注：</t>
   </si>
   <si>
     <t>质量状态</t>
@@ -1526,12 +1517,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1669,18 +1672,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1975,7 +1966,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2029,32 +2020,35 @@
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A6" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="101"/>
+      <c r="A6" s="54" t="str">
+        <f>IF(EXACT(Common!B22,"合格"),"质量状态：待验 □ 合格 √ 不合格 □",IF(EXACT(Common!B22,"不合格"),"质量状态：待验 □ 合格 □ 不合格 √","质量状态：待验 √ 合格 □ 不合格□"))</f>
+        <v>质量状态：待验 √ 合格 □ 不合格□</v>
+      </c>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A7" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="101"/>
+      <c r="A7" s="54" t="str">
+        <f>CONCATENATE("操作人：",Common!B23)</f>
+        <v>操作人：</v>
+      </c>
+      <c r="B7" s="55"/>
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A8" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="101"/>
+      <c r="A8" s="54" t="str">
+        <f>CONCATENATE("备注：",Common!B24)</f>
+        <v>备注：</v>
+      </c>
+      <c r="B8" s="55"/>
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" ht="51" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="99"/>
+      <c r="B10" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2077,7 +2071,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2245,17 +2239,17 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2600,54 +2594,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="61" t="str">
+      <c r="A2" s="65" t="str">
         <f>CONCATENATE("Name: ", Common!E6)</f>
         <v xml:space="preserve">Name: </v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="68">
         <f>Common!E7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="70">
         <f>Common!E8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="68">
         <f>Common!E9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -2682,18 +2676,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" thickBot="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3048,54 +3042,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="61" t="str">
+      <c r="A2" s="65" t="str">
         <f>CONCATENATE("Name: ", Common!E6)</f>
         <v xml:space="preserve">Name: </v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="68">
         <f>Common!E7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="70">
         <f>Common!E8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="68">
         <f>Common!E9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -3130,18 +3124,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3493,54 +3487,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="61" t="str">
+      <c r="A2" s="65" t="str">
         <f>CONCATENATE("产品名称：", Common!B6)</f>
         <v>产品名称：</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="68">
         <f>Common!B7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="70">
         <f>Common!B8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="68">
         <f>Common!B9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -3578,19 +3572,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6" ht="16" thickBot="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3942,54 +3936,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="61" t="str">
+      <c r="A2" s="65" t="str">
         <f>CONCATENATE("产品名称：", Common!B6)</f>
         <v>产品名称：</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="68">
         <f>Common!B7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="70">
         <f>Common!B8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="68">
         <f>Common!B9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -4027,19 +4021,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6" ht="16" thickBot="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4079,57 +4073,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="61" t="str">
+      <c r="A1" s="65" t="str">
         <f>CONCATENATE("产品名称：", Common!B6)</f>
         <v>产品名称：</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:4" s="17" customFormat="1" ht="18">
       <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="78">
+      <c r="B2" s="82">
         <f>Common!B15</f>
         <v>0</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
     </row>
     <row r="3" spans="1:4" s="17" customFormat="1" ht="18">
       <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="82">
         <f>Common!B7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
     </row>
     <row r="4" spans="1:4" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="82">
         <f>Common!B8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
     </row>
     <row r="5" spans="1:4" s="17" customFormat="1" ht="18">
       <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="82">
         <f>Common!B9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
     </row>
     <row r="6" spans="1:4" s="17" customFormat="1" ht="18">
       <c r="A6" s="18" t="s">
@@ -4167,23 +4161,23 @@
       <c r="A8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="73">
         <f>Common!B16</f>
         <v>0</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
     </row>
     <row r="9" spans="1:4" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9" s="73">
         <f>Common!B17</f>
         <v>0</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="1:4" s="24" customFormat="1" ht="51" customHeight="1">
       <c r="A10" s="26"/>
@@ -4192,28 +4186,28 @@
       <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" s="17" customFormat="1" ht="17">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="1:4" s="17" customFormat="1" ht="17">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
     </row>
     <row r="13" spans="1:4" s="17" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
     </row>
     <row r="14" spans="1:4" s="16" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="14"/>
@@ -4262,57 +4256,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="17" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="61" t="str">
+      <c r="A1" s="65" t="str">
         <f>CONCATENATE("产品名称：", Common!B6)</f>
         <v>产品名称：</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:4" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="78">
+      <c r="B2" s="82">
         <f>Common!B15</f>
         <v>0</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
     </row>
     <row r="3" spans="1:4" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="82">
         <f>Common!B7</f>
         <v>0</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
     </row>
     <row r="4" spans="1:4" s="17" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="82">
         <f>Common!B8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
     </row>
     <row r="5" spans="1:4" s="17" customFormat="1" ht="18">
       <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="82">
         <f>Common!B9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
     </row>
     <row r="6" spans="1:4" s="17" customFormat="1" ht="18">
       <c r="A6" s="18" t="s">
@@ -4350,23 +4344,23 @@
       <c r="A8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="73">
         <f>Common!B16</f>
         <v>0</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
     </row>
     <row r="9" spans="1:4" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9" s="73">
         <f>Common!B17</f>
         <v>0</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="1:4" s="24" customFormat="1" ht="51" customHeight="1">
       <c r="A10" s="26"/>
@@ -4375,28 +4369,28 @@
       <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" s="17" customFormat="1" ht="17">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="1:4" s="17" customFormat="1" ht="17">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
     </row>
     <row r="13" spans="1:4" s="17" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
     </row>
     <row r="14" spans="1:4" s="16" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="14"/>
@@ -4450,63 +4444,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92"/>
     </row>
     <row r="2" spans="1:4" ht="16" customHeight="1">
-      <c r="A2" s="61" t="str">
+      <c r="A2" s="65" t="str">
         <f>CONCATENATE("Name:  ", Common!E6)</f>
         <v xml:space="preserve">Name:  </v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:4" ht="18">
-      <c r="A3" s="89" t="str">
+      <c r="A3" s="93" t="str">
         <f>CONCATENATE("CFDA Licence NO.:",Common!F15)</f>
         <v>CFDA Licence NO.:</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="82">
         <f>Common!E8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="82">
         <f>Common!E9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
     </row>
     <row r="6" spans="1:4" ht="18">
       <c r="A6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="82">
         <f>Common!E10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
     </row>
     <row r="7" spans="1:4" ht="18">
       <c r="A7" s="30" t="s">
@@ -4541,36 +4535,36 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" customHeight="1">
-      <c r="A9" s="83"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
     </row>
     <row r="10" spans="1:4" ht="18">
-      <c r="A10" s="92" t="str">
+      <c r="A10" s="96" t="str">
         <f>CONCATENATE("Gross Weight:",Common!F16)</f>
         <v>Gross Weight:</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1">
-      <c r="A11" s="92" t="str">
+      <c r="A11" s="96" t="str">
         <f>CONCATENATE("Carton Size:",Common!F17)</f>
         <v>Carton Size:</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
     </row>
     <row r="12" spans="1:4" ht="19" thickBot="1">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4618,63 +4612,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="101"/>
     </row>
     <row r="2" spans="1:4" ht="16" customHeight="1">
-      <c r="A2" s="61" t="str">
+      <c r="A2" s="65" t="str">
         <f>CONCATENATE("Name:  ", Common!E6)</f>
         <v xml:space="preserve">Name:  </v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="89" t="str">
+      <c r="A3" s="93" t="str">
         <f>CONCATENATE("CFDA Licence NO.:",Common!F15)</f>
         <v>CFDA Licence NO.:</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="82">
         <f>Common!E8</f>
         <v>0</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="82">
         <f>Common!E9</f>
         <v>0</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
     </row>
     <row r="6" spans="1:4" ht="18">
       <c r="A6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="82">
         <f>Common!E10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
     </row>
     <row r="7" spans="1:4" ht="18">
       <c r="A7" s="30" t="s">
@@ -4709,36 +4703,36 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" customHeight="1">
-      <c r="A9" s="83"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1">
-      <c r="A10" s="92" t="str">
+      <c r="A10" s="96" t="str">
         <f>CONCATENATE("Gross Weight:",Common!F16)</f>
         <v>Gross Weight:</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
     </row>
     <row r="11" spans="1:4" ht="18">
-      <c r="A11" s="92" t="str">
+      <c r="A11" s="96" t="str">
         <f>CONCATENATE("Carton Size:",Common!F17)</f>
         <v>Carton Size:</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
     </row>
     <row r="12" spans="1:4" ht="19" thickBot="1">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="10">
